--- a/Code/Results/Cases/Case_1_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9511958933958672</v>
+        <v>0.9511958933958671</v>
       </c>
       <c r="D2">
-        <v>1.032576152608547</v>
+        <v>1.032576152608548</v>
       </c>
       <c r="E2">
-        <v>0.9638234919780179</v>
+        <v>0.9638234919780181</v>
       </c>
       <c r="F2">
         <v>0.9706416006550983</v>
@@ -439,16 +439,16 @@
         <v>1.045347432612017</v>
       </c>
       <c r="J2">
-        <v>0.9749411974974008</v>
+        <v>0.9749411974974009</v>
       </c>
       <c r="K2">
-        <v>1.043599564904838</v>
+        <v>1.043599564904839</v>
       </c>
       <c r="L2">
-        <v>0.9758109401939405</v>
+        <v>0.9758109401939409</v>
       </c>
       <c r="M2">
-        <v>0.9825256849658323</v>
+        <v>0.9825256849658321</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -465,10 +465,10 @@
         <v>1.036555494980872</v>
       </c>
       <c r="E3">
-        <v>0.9724604818740353</v>
+        <v>0.9724604818740354</v>
       </c>
       <c r="F3">
-        <v>0.9808783724503086</v>
+        <v>0.9808783724503084</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.047877017526977</v>
       </c>
       <c r="J3">
-        <v>0.983124087126637</v>
+        <v>0.9831240871266369</v>
       </c>
       <c r="K3">
         <v>1.046741067986784</v>
       </c>
       <c r="L3">
-        <v>0.9834583001148464</v>
+        <v>0.9834583001148465</v>
       </c>
       <c r="M3">
-        <v>0.9917619093713818</v>
+        <v>0.9917619093713815</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9679291932001483</v>
+        <v>0.9679291932001486</v>
       </c>
       <c r="D4">
         <v>1.039034357994147</v>
       </c>
       <c r="E4">
-        <v>0.9778223347102299</v>
+        <v>0.9778223347102304</v>
       </c>
       <c r="F4">
-        <v>0.9872255088118282</v>
+        <v>0.9872255088118281</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.049428681920654</v>
       </c>
       <c r="J4">
-        <v>0.988190439974141</v>
+        <v>0.9881904399741414</v>
       </c>
       <c r="K4">
         <v>1.048683437202328</v>
       </c>
       <c r="L4">
-        <v>0.9881960052750781</v>
+        <v>0.9881960052750784</v>
       </c>
       <c r="M4">
-        <v>0.99748059568318</v>
+        <v>0.9974805956831801</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9705586220759304</v>
+        <v>0.9705586220759316</v>
       </c>
       <c r="D5">
-        <v>1.040054855158411</v>
+        <v>1.040054855158412</v>
       </c>
       <c r="E5">
-        <v>0.9800263506906267</v>
+        <v>0.9800263506906282</v>
       </c>
       <c r="F5">
-        <v>0.9898326685473459</v>
+        <v>0.989832668547347</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050061811212861</v>
+        <v>1.050061811212862</v>
       </c>
       <c r="J5">
-        <v>0.9902697914832032</v>
+        <v>0.9902697914832043</v>
       </c>
       <c r="K5">
-        <v>1.049479642907133</v>
+        <v>1.049479642907134</v>
       </c>
       <c r="L5">
-        <v>0.9901411479092194</v>
+        <v>0.9901411479092208</v>
       </c>
       <c r="M5">
-        <v>0.9998276485960432</v>
+        <v>0.9998276485960444</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9709966110974902</v>
+        <v>0.9709966110974912</v>
       </c>
       <c r="D6">
         <v>1.040224970455204</v>
       </c>
       <c r="E6">
-        <v>0.9803935888466641</v>
+        <v>0.9803935888466649</v>
       </c>
       <c r="F6">
-        <v>0.9902669705099373</v>
+        <v>0.9902669705099382</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.050167023069637</v>
       </c>
       <c r="J6">
-        <v>0.9906160712894052</v>
+        <v>0.9906160712894061</v>
       </c>
       <c r="K6">
         <v>1.049612169251175</v>
       </c>
       <c r="L6">
-        <v>0.9904651166912382</v>
+        <v>0.990465116691239</v>
       </c>
       <c r="M6">
         <v>1.000218505552567</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9679645655482475</v>
+        <v>0.9679645655482472</v>
       </c>
       <c r="D7">
         <v>1.039048077169465</v>
       </c>
       <c r="E7">
-        <v>0.9778519766015207</v>
+        <v>0.9778519766015203</v>
       </c>
       <c r="F7">
-        <v>0.9872605799542664</v>
+        <v>0.9872605799542666</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.049437215760583</v>
       </c>
       <c r="J7">
-        <v>0.9882184178548595</v>
+        <v>0.9882184178548592</v>
       </c>
       <c r="K7">
         <v>1.048694154597043</v>
       </c>
       <c r="L7">
-        <v>0.9882221747093047</v>
+        <v>0.9882221747093044</v>
       </c>
       <c r="M7">
-        <v>0.997512175730307</v>
+        <v>0.9975121757303069</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9547491125078487</v>
+        <v>0.9547491125078484</v>
       </c>
       <c r="D8">
         <v>1.033941757358282</v>
       </c>
       <c r="E8">
-        <v>0.9667920822851004</v>
+        <v>0.9667920822850998</v>
       </c>
       <c r="F8">
-        <v>0.9741617356773514</v>
+        <v>0.9741617356773511</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.046220715441963</v>
       </c>
       <c r="J8">
-        <v>0.9777566446448014</v>
+        <v>0.9777566446448011</v>
       </c>
       <c r="K8">
         <v>1.044680785638397</v>
       </c>
       <c r="L8">
-        <v>0.978441491462244</v>
+        <v>0.9784414914622438</v>
       </c>
       <c r="M8">
-        <v>0.9857034633234791</v>
+        <v>0.9857034633234788</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9290151760993719</v>
+        <v>0.9290151760993731</v>
       </c>
       <c r="D9">
         <v>1.024135986127986</v>
       </c>
       <c r="E9">
-        <v>0.9453426046748196</v>
+        <v>0.9453426046748208</v>
       </c>
       <c r="F9">
-        <v>0.9486909185366508</v>
+        <v>0.9486909185366521</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03983762246646</v>
+        <v>1.039837622466461</v>
       </c>
       <c r="J9">
-        <v>0.957350128329955</v>
+        <v>0.9573501283299563</v>
       </c>
       <c r="K9">
         <v>1.036849245298434</v>
       </c>
       <c r="L9">
-        <v>0.9593894121453678</v>
+        <v>0.9593894121453689</v>
       </c>
       <c r="M9">
-        <v>0.9626751784003116</v>
+        <v>0.9626751784003129</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9097226663355701</v>
+        <v>0.9097226663355695</v>
       </c>
       <c r="D10">
-        <v>1.016933262567067</v>
+        <v>1.016933262567066</v>
       </c>
       <c r="E10">
-        <v>0.9293420459280296</v>
+        <v>0.9293420459280294</v>
       </c>
       <c r="F10">
-        <v>0.9296416425465802</v>
+        <v>0.9296416425465793</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034993763042096</v>
+        <v>1.034993763042095</v>
       </c>
       <c r="J10">
-        <v>0.9420400789375939</v>
+        <v>0.9420400789375936</v>
       </c>
       <c r="K10">
-        <v>1.031003367383218</v>
+        <v>1.031003367383217</v>
       </c>
       <c r="L10">
-        <v>0.9451160683556893</v>
+        <v>0.9451160683556888</v>
       </c>
       <c r="M10">
-        <v>0.9454091092919444</v>
+        <v>0.9454091092919437</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9007150402078454</v>
+        <v>0.9007150402078464</v>
       </c>
       <c r="D11">
-        <v>1.013620712398617</v>
+        <v>1.013620712398618</v>
       </c>
       <c r="E11">
-        <v>0.9218962969820582</v>
+        <v>0.9218962969820591</v>
       </c>
       <c r="F11">
-        <v>0.9207647668802883</v>
+        <v>0.9207647668802896</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032725001610564</v>
+        <v>1.032725001610565</v>
       </c>
       <c r="J11">
-        <v>0.9348928087536263</v>
+        <v>0.9348928087536272</v>
       </c>
       <c r="K11">
         <v>1.028290253553347</v>
       </c>
       <c r="L11">
-        <v>0.9384584497259305</v>
+        <v>0.9384584497259314</v>
       </c>
       <c r="M11">
-        <v>0.9373534237417498</v>
+        <v>0.9373534237417509</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8972545713546066</v>
+        <v>0.8972545713546046</v>
       </c>
       <c r="D12">
-        <v>1.012357250884811</v>
+        <v>1.01235725088481</v>
       </c>
       <c r="E12">
-        <v>0.9190402226467693</v>
+        <v>0.9190402226467671</v>
       </c>
       <c r="F12">
-        <v>0.9173577907256918</v>
+        <v>0.9173577907256903</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.031853040105357</v>
       </c>
       <c r="J12">
-        <v>0.9321475801566246</v>
+        <v>0.9321475801566226</v>
       </c>
       <c r="K12">
         <v>1.027251473966851</v>
       </c>
       <c r="L12">
-        <v>0.9359022326674515</v>
+        <v>0.9359022326674495</v>
       </c>
       <c r="M12">
-        <v>0.9342602189080111</v>
+        <v>0.9342602189080101</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8980023500541895</v>
+        <v>0.8980023500541908</v>
       </c>
       <c r="D13">
         <v>1.012629835734947</v>
       </c>
       <c r="E13">
-        <v>0.9196571885277015</v>
+        <v>0.9196571885277025</v>
       </c>
       <c r="F13">
-        <v>0.9180938506433269</v>
+        <v>0.9180938506433279</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032041467587587</v>
+        <v>1.032041467587588</v>
       </c>
       <c r="J13">
-        <v>0.9327407693744719</v>
+        <v>0.9327407693744728</v>
       </c>
       <c r="K13">
         <v>1.027475767906418</v>
       </c>
       <c r="L13">
-        <v>0.9364545364082877</v>
+        <v>0.9364545364082887</v>
       </c>
       <c r="M13">
-        <v>0.9349285521743852</v>
+        <v>0.9349285521743862</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9004314449790074</v>
+        <v>0.9004314449790077</v>
       </c>
       <c r="D14">
         <v>1.01351697416894</v>
       </c>
       <c r="E14">
-        <v>0.9216621414105948</v>
+        <v>0.9216621414105949</v>
       </c>
       <c r="F14">
-        <v>0.9204854852691082</v>
+        <v>0.9204854852691084</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032653544806267</v>
+        <v>1.032653544806266</v>
       </c>
       <c r="J14">
-        <v>0.9346678158632484</v>
+        <v>0.9346678158632488</v>
       </c>
       <c r="K14">
-        <v>1.028205044784647</v>
+        <v>1.028205044784648</v>
       </c>
       <c r="L14">
-        <v>0.9382489283038999</v>
+        <v>0.9382489283039003</v>
       </c>
       <c r="M14">
-        <v>0.937099890972697</v>
+        <v>0.9370998909726972</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.901912339609014</v>
+        <v>0.9019123396090128</v>
       </c>
       <c r="D15">
         <v>1.014059059095249</v>
       </c>
       <c r="E15">
-        <v>0.9228850494820778</v>
+        <v>0.9228850494820771</v>
       </c>
       <c r="F15">
-        <v>0.9219439909540843</v>
+        <v>0.9219439909540839</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.033026671873983</v>
       </c>
       <c r="J15">
-        <v>0.9358427219123513</v>
+        <v>0.9358427219123506</v>
       </c>
       <c r="K15">
-        <v>1.028650142046497</v>
+        <v>1.028650142046498</v>
       </c>
       <c r="L15">
-        <v>0.9393430812925714</v>
+        <v>0.9393430812925705</v>
       </c>
       <c r="M15">
-        <v>0.938423870930057</v>
+        <v>0.9384238709300563</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9103053865497411</v>
+        <v>0.9103053865497418</v>
       </c>
       <c r="D16">
         <v>1.017148708872579</v>
       </c>
       <c r="E16">
-        <v>0.9298242823569179</v>
+        <v>0.9298242823569185</v>
       </c>
       <c r="F16">
-        <v>0.9302163081149377</v>
+        <v>0.9302163081149382</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.035140442838673</v>
       </c>
       <c r="J16">
-        <v>0.9425025000950908</v>
+        <v>0.9425025000950915</v>
       </c>
       <c r="K16">
-        <v>1.03117930114107</v>
+        <v>1.031179301141069</v>
       </c>
       <c r="L16">
-        <v>0.9455469322182135</v>
+        <v>0.9455469322182141</v>
       </c>
       <c r="M16">
-        <v>0.9459304184727526</v>
+        <v>0.9459304184727531</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9153846845132814</v>
+        <v>0.9153846845132817</v>
       </c>
       <c r="D17">
         <v>1.019032394152798</v>
       </c>
       <c r="E17">
-        <v>0.9340305284158995</v>
+        <v>0.9340305284159002</v>
       </c>
       <c r="F17">
-        <v>0.9352273671274843</v>
+        <v>0.9352273671274848</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.036418255959832</v>
       </c>
       <c r="J17">
-        <v>0.9465333516613768</v>
+        <v>0.9465333516613772</v>
       </c>
       <c r="K17">
         <v>1.032714747704788</v>
       </c>
       <c r="L17">
-        <v>0.9493033419962743</v>
+        <v>0.9493033419962751</v>
       </c>
       <c r="M17">
-        <v>0.9504751330594483</v>
+        <v>0.9504751330594486</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1032,31 +1032,31 @@
         <v>0.9182855576589815</v>
       </c>
       <c r="D18">
-        <v>1.020112731022042</v>
+        <v>1.020112731022041</v>
       </c>
       <c r="E18">
-        <v>0.9364350331394186</v>
+        <v>0.9364350331394181</v>
       </c>
       <c r="F18">
-        <v>0.9380908018723193</v>
+        <v>0.9380908018723186</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037147325090917</v>
+        <v>1.037147325090916</v>
       </c>
       <c r="J18">
-        <v>0.9488354980849665</v>
+        <v>0.9488354980849663</v>
       </c>
       <c r="K18">
-        <v>1.033593094401291</v>
+        <v>1.033593094401289</v>
       </c>
       <c r="L18">
-        <v>0.9514492633914158</v>
+        <v>0.9514492633914157</v>
       </c>
       <c r="M18">
-        <v>0.953071181267043</v>
+        <v>0.9530711812670423</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9192646345039296</v>
+        <v>0.9192646345039286</v>
       </c>
       <c r="D19">
-        <v>1.020478084840022</v>
+        <v>1.020478084840021</v>
       </c>
       <c r="E19">
-        <v>0.9372469450410612</v>
+        <v>0.9372469450410604</v>
       </c>
       <c r="F19">
-        <v>0.9390574857011426</v>
+        <v>0.9390574857011417</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037393254781286</v>
+        <v>1.037393254781285</v>
       </c>
       <c r="J19">
-        <v>0.9496124977075506</v>
+        <v>0.94961249770755</v>
       </c>
       <c r="K19">
-        <v>1.033889760275045</v>
+        <v>1.033889760275044</v>
       </c>
       <c r="L19">
-        <v>0.9521736209249706</v>
+        <v>0.9521736209249695</v>
       </c>
       <c r="M19">
-        <v>0.9539474410423988</v>
+        <v>0.9539474410423978</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,31 +1105,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9148462216414267</v>
+        <v>0.9148462216414271</v>
       </c>
       <c r="D20">
-        <v>1.018832219746059</v>
+        <v>1.01883221974606</v>
       </c>
       <c r="E20">
-        <v>0.9335843807096782</v>
+        <v>0.9335843807096786</v>
       </c>
       <c r="F20">
-        <v>0.934695974142971</v>
+        <v>0.9346959741429709</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036282863034744</v>
+        <v>1.036282863034745</v>
       </c>
       <c r="J20">
-        <v>0.946106027282222</v>
+        <v>0.9461060272822224</v>
       </c>
       <c r="K20">
-        <v>1.032551817411781</v>
+        <v>1.032551817411782</v>
       </c>
       <c r="L20">
-        <v>0.9489050576521659</v>
+        <v>0.9489050576521664</v>
       </c>
       <c r="M20">
         <v>0.9499932872281308</v>
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.899719454070847</v>
+        <v>0.8997194540708463</v>
       </c>
       <c r="D21">
         <v>1.013256682077762</v>
       </c>
       <c r="E21">
-        <v>0.921074345452321</v>
+        <v>0.9210743454523201</v>
       </c>
       <c r="F21">
-        <v>0.9197843789125438</v>
+        <v>0.9197843789125435</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.032474142909938</v>
       </c>
       <c r="J21">
-        <v>0.9341029615708416</v>
+        <v>0.9341029615708407</v>
       </c>
       <c r="K21">
-        <v>1.027991180990296</v>
+        <v>1.027991180990297</v>
       </c>
       <c r="L21">
-        <v>0.9377229311590313</v>
+        <v>0.9377229311590304</v>
       </c>
       <c r="M21">
-        <v>0.936463402052309</v>
+        <v>0.9364634020523085</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,13 +1181,13 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8895339445452365</v>
+        <v>0.8895339445452357</v>
       </c>
       <c r="D22">
         <v>1.009557311386261</v>
       </c>
       <c r="E22">
-        <v>0.912677005702702</v>
+        <v>0.9126770057027016</v>
       </c>
       <c r="F22">
         <v>0.9097634835600097</v>
@@ -1199,16 +1199,16 @@
         <v>1.029907847692546</v>
       </c>
       <c r="J22">
-        <v>0.9260242708819435</v>
+        <v>0.9260242708819429</v>
       </c>
       <c r="K22">
         <v>1.024941784273778</v>
       </c>
       <c r="L22">
-        <v>0.9302023770361297</v>
+        <v>0.9302023770361293</v>
       </c>
       <c r="M22">
-        <v>0.9273627997127581</v>
+        <v>0.927362799712758</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,25 +1219,25 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8950040740432466</v>
+        <v>0.8950040740432463</v>
       </c>
       <c r="D23">
         <v>1.01153836069059</v>
       </c>
       <c r="E23">
-        <v>0.9171841137286407</v>
+        <v>0.9171841137286406</v>
       </c>
       <c r="F23">
-        <v>0.9151431022328852</v>
+        <v>0.915143102232885</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03128596165378</v>
+        <v>1.031285961653781</v>
       </c>
       <c r="J23">
-        <v>0.9303624481631433</v>
+        <v>0.9303624481631432</v>
       </c>
       <c r="K23">
         <v>1.026577054590557</v>
@@ -1246,7 +1246,7 @@
         <v>0.9342402860548428</v>
       </c>
       <c r="M23">
-        <v>0.9322491090992296</v>
+        <v>0.9322491090992294</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9150897196039348</v>
+        <v>0.9150897196039341</v>
       </c>
       <c r="D24">
-        <v>1.018922726471835</v>
+        <v>1.018922726471834</v>
       </c>
       <c r="E24">
-        <v>0.9337861259296244</v>
+        <v>0.9337861259296236</v>
       </c>
       <c r="F24">
-        <v>0.9349362703016169</v>
+        <v>0.9349362703016159</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03634409125458</v>
+        <v>1.036344091254579</v>
       </c>
       <c r="J24">
-        <v>0.9462992672207221</v>
+        <v>0.9462992672207213</v>
       </c>
       <c r="K24">
-        <v>1.032625491645787</v>
+        <v>1.032625491645786</v>
       </c>
       <c r="L24">
-        <v>0.9490851638181265</v>
+        <v>0.9490851638181258</v>
       </c>
       <c r="M24">
-        <v>0.9502111809709322</v>
+        <v>0.950211180970931</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.936002808701683</v>
+        <v>0.9360028087016825</v>
       </c>
       <c r="D25">
         <v>1.026778012709039</v>
       </c>
       <c r="E25">
-        <v>0.951155138948289</v>
+        <v>0.9511551389482882</v>
       </c>
       <c r="F25">
-        <v>0.9556011267577236</v>
+        <v>0.9556011267577231</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.041582433967264</v>
       </c>
       <c r="J25">
-        <v>0.9628940777597867</v>
+        <v>0.9628940777597862</v>
       </c>
       <c r="K25">
         <v>1.038974384697846</v>
       </c>
       <c r="L25">
-        <v>0.9645621917607309</v>
+        <v>0.9645621917607302</v>
       </c>
       <c r="M25">
-        <v>0.9689301374815875</v>
+        <v>0.9689301374815871</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9511958933958671</v>
+        <v>0.9511958933958672</v>
       </c>
       <c r="D2">
-        <v>1.032576152608548</v>
+        <v>1.032576152608547</v>
       </c>
       <c r="E2">
-        <v>0.9638234919780181</v>
+        <v>0.9638234919780179</v>
       </c>
       <c r="F2">
         <v>0.9706416006550983</v>
@@ -439,16 +439,16 @@
         <v>1.045347432612017</v>
       </c>
       <c r="J2">
-        <v>0.9749411974974009</v>
+        <v>0.9749411974974008</v>
       </c>
       <c r="K2">
-        <v>1.043599564904839</v>
+        <v>1.043599564904838</v>
       </c>
       <c r="L2">
-        <v>0.9758109401939409</v>
+        <v>0.9758109401939405</v>
       </c>
       <c r="M2">
-        <v>0.9825256849658321</v>
+        <v>0.9825256849658323</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -465,10 +465,10 @@
         <v>1.036555494980872</v>
       </c>
       <c r="E3">
-        <v>0.9724604818740354</v>
+        <v>0.9724604818740353</v>
       </c>
       <c r="F3">
-        <v>0.9808783724503084</v>
+        <v>0.9808783724503086</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.047877017526977</v>
       </c>
       <c r="J3">
-        <v>0.9831240871266369</v>
+        <v>0.983124087126637</v>
       </c>
       <c r="K3">
         <v>1.046741067986784</v>
       </c>
       <c r="L3">
-        <v>0.9834583001148465</v>
+        <v>0.9834583001148464</v>
       </c>
       <c r="M3">
-        <v>0.9917619093713815</v>
+        <v>0.9917619093713818</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9679291932001486</v>
+        <v>0.9679291932001483</v>
       </c>
       <c r="D4">
         <v>1.039034357994147</v>
       </c>
       <c r="E4">
-        <v>0.9778223347102304</v>
+        <v>0.9778223347102299</v>
       </c>
       <c r="F4">
-        <v>0.9872255088118281</v>
+        <v>0.9872255088118282</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.049428681920654</v>
       </c>
       <c r="J4">
-        <v>0.9881904399741414</v>
+        <v>0.988190439974141</v>
       </c>
       <c r="K4">
         <v>1.048683437202328</v>
       </c>
       <c r="L4">
-        <v>0.9881960052750784</v>
+        <v>0.9881960052750781</v>
       </c>
       <c r="M4">
-        <v>0.9974805956831801</v>
+        <v>0.99748059568318</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9705586220759316</v>
+        <v>0.9705586220759304</v>
       </c>
       <c r="D5">
-        <v>1.040054855158412</v>
+        <v>1.040054855158411</v>
       </c>
       <c r="E5">
-        <v>0.9800263506906282</v>
+        <v>0.9800263506906267</v>
       </c>
       <c r="F5">
-        <v>0.989832668547347</v>
+        <v>0.9898326685473459</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050061811212862</v>
+        <v>1.050061811212861</v>
       </c>
       <c r="J5">
-        <v>0.9902697914832043</v>
+        <v>0.9902697914832032</v>
       </c>
       <c r="K5">
-        <v>1.049479642907134</v>
+        <v>1.049479642907133</v>
       </c>
       <c r="L5">
-        <v>0.9901411479092208</v>
+        <v>0.9901411479092194</v>
       </c>
       <c r="M5">
-        <v>0.9998276485960444</v>
+        <v>0.9998276485960432</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9709966110974912</v>
+        <v>0.9709966110974902</v>
       </c>
       <c r="D6">
         <v>1.040224970455204</v>
       </c>
       <c r="E6">
-        <v>0.9803935888466649</v>
+        <v>0.9803935888466641</v>
       </c>
       <c r="F6">
-        <v>0.9902669705099382</v>
+        <v>0.9902669705099373</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.050167023069637</v>
       </c>
       <c r="J6">
-        <v>0.9906160712894061</v>
+        <v>0.9906160712894052</v>
       </c>
       <c r="K6">
         <v>1.049612169251175</v>
       </c>
       <c r="L6">
-        <v>0.990465116691239</v>
+        <v>0.9904651166912382</v>
       </c>
       <c r="M6">
         <v>1.000218505552567</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9679645655482472</v>
+        <v>0.9679645655482475</v>
       </c>
       <c r="D7">
         <v>1.039048077169465</v>
       </c>
       <c r="E7">
-        <v>0.9778519766015203</v>
+        <v>0.9778519766015207</v>
       </c>
       <c r="F7">
-        <v>0.9872605799542666</v>
+        <v>0.9872605799542664</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.049437215760583</v>
       </c>
       <c r="J7">
-        <v>0.9882184178548592</v>
+        <v>0.9882184178548595</v>
       </c>
       <c r="K7">
         <v>1.048694154597043</v>
       </c>
       <c r="L7">
-        <v>0.9882221747093044</v>
+        <v>0.9882221747093047</v>
       </c>
       <c r="M7">
-        <v>0.9975121757303069</v>
+        <v>0.997512175730307</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9547491125078484</v>
+        <v>0.9547491125078487</v>
       </c>
       <c r="D8">
         <v>1.033941757358282</v>
       </c>
       <c r="E8">
-        <v>0.9667920822850998</v>
+        <v>0.9667920822851004</v>
       </c>
       <c r="F8">
-        <v>0.9741617356773511</v>
+        <v>0.9741617356773514</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.046220715441963</v>
       </c>
       <c r="J8">
-        <v>0.9777566446448011</v>
+        <v>0.9777566446448014</v>
       </c>
       <c r="K8">
         <v>1.044680785638397</v>
       </c>
       <c r="L8">
-        <v>0.9784414914622438</v>
+        <v>0.978441491462244</v>
       </c>
       <c r="M8">
-        <v>0.9857034633234788</v>
+        <v>0.9857034633234791</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9290151760993731</v>
+        <v>0.9290151760993719</v>
       </c>
       <c r="D9">
         <v>1.024135986127986</v>
       </c>
       <c r="E9">
-        <v>0.9453426046748208</v>
+        <v>0.9453426046748196</v>
       </c>
       <c r="F9">
-        <v>0.9486909185366521</v>
+        <v>0.9486909185366508</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039837622466461</v>
+        <v>1.03983762246646</v>
       </c>
       <c r="J9">
-        <v>0.9573501283299563</v>
+        <v>0.957350128329955</v>
       </c>
       <c r="K9">
         <v>1.036849245298434</v>
       </c>
       <c r="L9">
-        <v>0.9593894121453689</v>
+        <v>0.9593894121453678</v>
       </c>
       <c r="M9">
-        <v>0.9626751784003129</v>
+        <v>0.9626751784003116</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9097226663355695</v>
+        <v>0.9097226663355701</v>
       </c>
       <c r="D10">
-        <v>1.016933262567066</v>
+        <v>1.016933262567067</v>
       </c>
       <c r="E10">
-        <v>0.9293420459280294</v>
+        <v>0.9293420459280296</v>
       </c>
       <c r="F10">
-        <v>0.9296416425465793</v>
+        <v>0.9296416425465802</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034993763042095</v>
+        <v>1.034993763042096</v>
       </c>
       <c r="J10">
-        <v>0.9420400789375936</v>
+        <v>0.9420400789375939</v>
       </c>
       <c r="K10">
-        <v>1.031003367383217</v>
+        <v>1.031003367383218</v>
       </c>
       <c r="L10">
-        <v>0.9451160683556888</v>
+        <v>0.9451160683556893</v>
       </c>
       <c r="M10">
-        <v>0.9454091092919437</v>
+        <v>0.9454091092919444</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9007150402078464</v>
+        <v>0.9007150402078454</v>
       </c>
       <c r="D11">
-        <v>1.013620712398618</v>
+        <v>1.013620712398617</v>
       </c>
       <c r="E11">
-        <v>0.9218962969820591</v>
+        <v>0.9218962969820582</v>
       </c>
       <c r="F11">
-        <v>0.9207647668802896</v>
+        <v>0.9207647668802883</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032725001610565</v>
+        <v>1.032725001610564</v>
       </c>
       <c r="J11">
-        <v>0.9348928087536272</v>
+        <v>0.9348928087536263</v>
       </c>
       <c r="K11">
         <v>1.028290253553347</v>
       </c>
       <c r="L11">
-        <v>0.9384584497259314</v>
+        <v>0.9384584497259305</v>
       </c>
       <c r="M11">
-        <v>0.9373534237417509</v>
+        <v>0.9373534237417498</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8972545713546046</v>
+        <v>0.8972545713546066</v>
       </c>
       <c r="D12">
-        <v>1.01235725088481</v>
+        <v>1.012357250884811</v>
       </c>
       <c r="E12">
-        <v>0.9190402226467671</v>
+        <v>0.9190402226467693</v>
       </c>
       <c r="F12">
-        <v>0.9173577907256903</v>
+        <v>0.9173577907256918</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.031853040105357</v>
       </c>
       <c r="J12">
-        <v>0.9321475801566226</v>
+        <v>0.9321475801566246</v>
       </c>
       <c r="K12">
         <v>1.027251473966851</v>
       </c>
       <c r="L12">
-        <v>0.9359022326674495</v>
+        <v>0.9359022326674515</v>
       </c>
       <c r="M12">
-        <v>0.9342602189080101</v>
+        <v>0.9342602189080111</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8980023500541908</v>
+        <v>0.8980023500541895</v>
       </c>
       <c r="D13">
         <v>1.012629835734947</v>
       </c>
       <c r="E13">
-        <v>0.9196571885277025</v>
+        <v>0.9196571885277015</v>
       </c>
       <c r="F13">
-        <v>0.9180938506433279</v>
+        <v>0.9180938506433269</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032041467587588</v>
+        <v>1.032041467587587</v>
       </c>
       <c r="J13">
-        <v>0.9327407693744728</v>
+        <v>0.9327407693744719</v>
       </c>
       <c r="K13">
         <v>1.027475767906418</v>
       </c>
       <c r="L13">
-        <v>0.9364545364082887</v>
+        <v>0.9364545364082877</v>
       </c>
       <c r="M13">
-        <v>0.9349285521743862</v>
+        <v>0.9349285521743852</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9004314449790077</v>
+        <v>0.9004314449790074</v>
       </c>
       <c r="D14">
         <v>1.01351697416894</v>
       </c>
       <c r="E14">
-        <v>0.9216621414105949</v>
+        <v>0.9216621414105948</v>
       </c>
       <c r="F14">
-        <v>0.9204854852691084</v>
+        <v>0.9204854852691082</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032653544806266</v>
+        <v>1.032653544806267</v>
       </c>
       <c r="J14">
-        <v>0.9346678158632488</v>
+        <v>0.9346678158632484</v>
       </c>
       <c r="K14">
-        <v>1.028205044784648</v>
+        <v>1.028205044784647</v>
       </c>
       <c r="L14">
-        <v>0.9382489283039003</v>
+        <v>0.9382489283038999</v>
       </c>
       <c r="M14">
-        <v>0.9370998909726972</v>
+        <v>0.937099890972697</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9019123396090128</v>
+        <v>0.901912339609014</v>
       </c>
       <c r="D15">
         <v>1.014059059095249</v>
       </c>
       <c r="E15">
-        <v>0.9228850494820771</v>
+        <v>0.9228850494820778</v>
       </c>
       <c r="F15">
-        <v>0.9219439909540839</v>
+        <v>0.9219439909540843</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.033026671873983</v>
       </c>
       <c r="J15">
-        <v>0.9358427219123506</v>
+        <v>0.9358427219123513</v>
       </c>
       <c r="K15">
-        <v>1.028650142046498</v>
+        <v>1.028650142046497</v>
       </c>
       <c r="L15">
-        <v>0.9393430812925705</v>
+        <v>0.9393430812925714</v>
       </c>
       <c r="M15">
-        <v>0.9384238709300563</v>
+        <v>0.938423870930057</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9103053865497418</v>
+        <v>0.9103053865497411</v>
       </c>
       <c r="D16">
         <v>1.017148708872579</v>
       </c>
       <c r="E16">
-        <v>0.9298242823569185</v>
+        <v>0.9298242823569179</v>
       </c>
       <c r="F16">
-        <v>0.9302163081149382</v>
+        <v>0.9302163081149377</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.035140442838673</v>
       </c>
       <c r="J16">
-        <v>0.9425025000950915</v>
+        <v>0.9425025000950908</v>
       </c>
       <c r="K16">
-        <v>1.031179301141069</v>
+        <v>1.03117930114107</v>
       </c>
       <c r="L16">
-        <v>0.9455469322182141</v>
+        <v>0.9455469322182135</v>
       </c>
       <c r="M16">
-        <v>0.9459304184727531</v>
+        <v>0.9459304184727526</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9153846845132817</v>
+        <v>0.9153846845132814</v>
       </c>
       <c r="D17">
         <v>1.019032394152798</v>
       </c>
       <c r="E17">
-        <v>0.9340305284159002</v>
+        <v>0.9340305284158995</v>
       </c>
       <c r="F17">
-        <v>0.9352273671274848</v>
+        <v>0.9352273671274843</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.036418255959832</v>
       </c>
       <c r="J17">
-        <v>0.9465333516613772</v>
+        <v>0.9465333516613768</v>
       </c>
       <c r="K17">
         <v>1.032714747704788</v>
       </c>
       <c r="L17">
-        <v>0.9493033419962751</v>
+        <v>0.9493033419962743</v>
       </c>
       <c r="M17">
-        <v>0.9504751330594486</v>
+        <v>0.9504751330594483</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1032,31 +1032,31 @@
         <v>0.9182855576589815</v>
       </c>
       <c r="D18">
-        <v>1.020112731022041</v>
+        <v>1.020112731022042</v>
       </c>
       <c r="E18">
-        <v>0.9364350331394181</v>
+        <v>0.9364350331394186</v>
       </c>
       <c r="F18">
-        <v>0.9380908018723186</v>
+        <v>0.9380908018723193</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037147325090916</v>
+        <v>1.037147325090917</v>
       </c>
       <c r="J18">
-        <v>0.9488354980849663</v>
+        <v>0.9488354980849665</v>
       </c>
       <c r="K18">
-        <v>1.033593094401289</v>
+        <v>1.033593094401291</v>
       </c>
       <c r="L18">
-        <v>0.9514492633914157</v>
+        <v>0.9514492633914158</v>
       </c>
       <c r="M18">
-        <v>0.9530711812670423</v>
+        <v>0.953071181267043</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9192646345039286</v>
+        <v>0.9192646345039296</v>
       </c>
       <c r="D19">
-        <v>1.020478084840021</v>
+        <v>1.020478084840022</v>
       </c>
       <c r="E19">
-        <v>0.9372469450410604</v>
+        <v>0.9372469450410612</v>
       </c>
       <c r="F19">
-        <v>0.9390574857011417</v>
+        <v>0.9390574857011426</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037393254781285</v>
+        <v>1.037393254781286</v>
       </c>
       <c r="J19">
-        <v>0.94961249770755</v>
+        <v>0.9496124977075506</v>
       </c>
       <c r="K19">
-        <v>1.033889760275044</v>
+        <v>1.033889760275045</v>
       </c>
       <c r="L19">
-        <v>0.9521736209249695</v>
+        <v>0.9521736209249706</v>
       </c>
       <c r="M19">
-        <v>0.9539474410423978</v>
+        <v>0.9539474410423988</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,31 +1105,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9148462216414271</v>
+        <v>0.9148462216414267</v>
       </c>
       <c r="D20">
-        <v>1.01883221974606</v>
+        <v>1.018832219746059</v>
       </c>
       <c r="E20">
-        <v>0.9335843807096786</v>
+        <v>0.9335843807096782</v>
       </c>
       <c r="F20">
-        <v>0.9346959741429709</v>
+        <v>0.934695974142971</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036282863034745</v>
+        <v>1.036282863034744</v>
       </c>
       <c r="J20">
-        <v>0.9461060272822224</v>
+        <v>0.946106027282222</v>
       </c>
       <c r="K20">
-        <v>1.032551817411782</v>
+        <v>1.032551817411781</v>
       </c>
       <c r="L20">
-        <v>0.9489050576521664</v>
+        <v>0.9489050576521659</v>
       </c>
       <c r="M20">
         <v>0.9499932872281308</v>
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8997194540708463</v>
+        <v>0.899719454070847</v>
       </c>
       <c r="D21">
         <v>1.013256682077762</v>
       </c>
       <c r="E21">
-        <v>0.9210743454523201</v>
+        <v>0.921074345452321</v>
       </c>
       <c r="F21">
-        <v>0.9197843789125435</v>
+        <v>0.9197843789125438</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.032474142909938</v>
       </c>
       <c r="J21">
-        <v>0.9341029615708407</v>
+        <v>0.9341029615708416</v>
       </c>
       <c r="K21">
-        <v>1.027991180990297</v>
+        <v>1.027991180990296</v>
       </c>
       <c r="L21">
-        <v>0.9377229311590304</v>
+        <v>0.9377229311590313</v>
       </c>
       <c r="M21">
-        <v>0.9364634020523085</v>
+        <v>0.936463402052309</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,13 +1181,13 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8895339445452357</v>
+        <v>0.8895339445452365</v>
       </c>
       <c r="D22">
         <v>1.009557311386261</v>
       </c>
       <c r="E22">
-        <v>0.9126770057027016</v>
+        <v>0.912677005702702</v>
       </c>
       <c r="F22">
         <v>0.9097634835600097</v>
@@ -1199,16 +1199,16 @@
         <v>1.029907847692546</v>
       </c>
       <c r="J22">
-        <v>0.9260242708819429</v>
+        <v>0.9260242708819435</v>
       </c>
       <c r="K22">
         <v>1.024941784273778</v>
       </c>
       <c r="L22">
-        <v>0.9302023770361293</v>
+        <v>0.9302023770361297</v>
       </c>
       <c r="M22">
-        <v>0.927362799712758</v>
+        <v>0.9273627997127581</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,25 +1219,25 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8950040740432463</v>
+        <v>0.8950040740432466</v>
       </c>
       <c r="D23">
         <v>1.01153836069059</v>
       </c>
       <c r="E23">
-        <v>0.9171841137286406</v>
+        <v>0.9171841137286407</v>
       </c>
       <c r="F23">
-        <v>0.915143102232885</v>
+        <v>0.9151431022328852</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031285961653781</v>
+        <v>1.03128596165378</v>
       </c>
       <c r="J23">
-        <v>0.9303624481631432</v>
+        <v>0.9303624481631433</v>
       </c>
       <c r="K23">
         <v>1.026577054590557</v>
@@ -1246,7 +1246,7 @@
         <v>0.9342402860548428</v>
       </c>
       <c r="M23">
-        <v>0.9322491090992294</v>
+        <v>0.9322491090992296</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9150897196039341</v>
+        <v>0.9150897196039348</v>
       </c>
       <c r="D24">
-        <v>1.018922726471834</v>
+        <v>1.018922726471835</v>
       </c>
       <c r="E24">
-        <v>0.9337861259296236</v>
+        <v>0.9337861259296244</v>
       </c>
       <c r="F24">
-        <v>0.9349362703016159</v>
+        <v>0.9349362703016169</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036344091254579</v>
+        <v>1.03634409125458</v>
       </c>
       <c r="J24">
-        <v>0.9462992672207213</v>
+        <v>0.9462992672207221</v>
       </c>
       <c r="K24">
-        <v>1.032625491645786</v>
+        <v>1.032625491645787</v>
       </c>
       <c r="L24">
-        <v>0.9490851638181258</v>
+        <v>0.9490851638181265</v>
       </c>
       <c r="M24">
-        <v>0.950211180970931</v>
+        <v>0.9502111809709322</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9360028087016825</v>
+        <v>0.936002808701683</v>
       </c>
       <c r="D25">
         <v>1.026778012709039</v>
       </c>
       <c r="E25">
-        <v>0.9511551389482882</v>
+        <v>0.951155138948289</v>
       </c>
       <c r="F25">
-        <v>0.9556011267577231</v>
+        <v>0.9556011267577236</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.041582433967264</v>
       </c>
       <c r="J25">
-        <v>0.9628940777597862</v>
+        <v>0.9628940777597867</v>
       </c>
       <c r="K25">
         <v>1.038974384697846</v>
       </c>
       <c r="L25">
-        <v>0.9645621917607302</v>
+        <v>0.9645621917607309</v>
       </c>
       <c r="M25">
-        <v>0.9689301374815871</v>
+        <v>0.9689301374815875</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9511958933958672</v>
+        <v>0.9512479895025994</v>
       </c>
       <c r="D2">
-        <v>1.032576152608547</v>
+        <v>1.032586759687884</v>
       </c>
       <c r="E2">
-        <v>0.9638234919780179</v>
+        <v>0.9638699728977629</v>
       </c>
       <c r="F2">
-        <v>0.9706416006550983</v>
+        <v>0.9706812301037515</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045347432612017</v>
+        <v>1.045357745729061</v>
       </c>
       <c r="J2">
-        <v>0.9749411974974008</v>
+        <v>0.9749915038205534</v>
       </c>
       <c r="K2">
-        <v>1.043599564904838</v>
+        <v>1.043610035646975</v>
       </c>
       <c r="L2">
-        <v>0.9758109401939405</v>
+        <v>0.9758567101392094</v>
       </c>
       <c r="M2">
-        <v>0.9825256849658323</v>
+        <v>0.9825647190271437</v>
+      </c>
+      <c r="N2">
+        <v>0.9846687800317486</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9615266701494541</v>
+        <v>0.9615686949137764</v>
       </c>
       <c r="D3">
-        <v>1.036555494980872</v>
+        <v>1.036564034958334</v>
       </c>
       <c r="E3">
-        <v>0.9724604818740353</v>
+        <v>0.9724981366403778</v>
       </c>
       <c r="F3">
-        <v>0.9808783724503086</v>
+        <v>0.9809102453908453</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047877017526977</v>
+        <v>1.047885337865531</v>
       </c>
       <c r="J3">
-        <v>0.983124087126637</v>
+        <v>0.9831648363466909</v>
       </c>
       <c r="K3">
-        <v>1.046741067986784</v>
+        <v>1.0467495080282</v>
       </c>
       <c r="L3">
-        <v>0.9834583001148464</v>
+        <v>0.9834954381309176</v>
       </c>
       <c r="M3">
-        <v>0.9917619093713818</v>
+        <v>0.9917933542892244</v>
+      </c>
+      <c r="N3">
+        <v>0.9903192216161002</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9679291932001483</v>
+        <v>0.967965169447474</v>
       </c>
       <c r="D4">
-        <v>1.039034357994147</v>
+        <v>1.039041660498195</v>
       </c>
       <c r="E4">
-        <v>0.9778223347102299</v>
+        <v>0.9778546738850865</v>
       </c>
       <c r="F4">
-        <v>0.9872255088118282</v>
+        <v>0.9872527459040435</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049428681920654</v>
+        <v>1.049435805743463</v>
       </c>
       <c r="J4">
-        <v>0.988190439974141</v>
+        <v>0.9882254107523715</v>
       </c>
       <c r="K4">
-        <v>1.048683437202328</v>
+        <v>1.048690659525461</v>
       </c>
       <c r="L4">
-        <v>0.9881960052750781</v>
+        <v>0.9882279317373368</v>
       </c>
       <c r="M4">
-        <v>0.99748059568318</v>
+        <v>0.9975074933763174</v>
+      </c>
+      <c r="N4">
+        <v>0.9938152887090034</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9705586220759304</v>
+        <v>0.9705921540577619</v>
       </c>
       <c r="D5">
-        <v>1.040054855158411</v>
+        <v>1.04006165843749</v>
       </c>
       <c r="E5">
-        <v>0.9800263506906267</v>
+        <v>0.9800565388168847</v>
       </c>
       <c r="F5">
-        <v>0.9898326685473459</v>
+        <v>0.9898580370153746</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050061811212861</v>
+        <v>1.050068451540103</v>
       </c>
       <c r="J5">
-        <v>0.9902697914832032</v>
+        <v>0.9903024188496433</v>
       </c>
       <c r="K5">
-        <v>1.049479642907133</v>
+        <v>1.049486373517462</v>
       </c>
       <c r="L5">
-        <v>0.9901411479092194</v>
+        <v>0.9901709626059143</v>
       </c>
       <c r="M5">
-        <v>0.9998276485960432</v>
+        <v>0.99985271092547</v>
+      </c>
+      <c r="N5">
+        <v>0.9952495626278803</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9709966110974902</v>
+        <v>0.9710297381030883</v>
       </c>
       <c r="D6">
-        <v>1.040224970455204</v>
+        <v>1.040231691067758</v>
       </c>
       <c r="E6">
-        <v>0.9803935888466641</v>
+        <v>0.9804234204194645</v>
       </c>
       <c r="F6">
-        <v>0.9902669705099373</v>
+        <v>0.9902920296405621</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050167023069637</v>
+        <v>1.05017358328974</v>
       </c>
       <c r="J6">
-        <v>0.9906160712894052</v>
+        <v>0.9906483099284257</v>
       </c>
       <c r="K6">
-        <v>1.049612169251175</v>
+        <v>1.049618818412833</v>
       </c>
       <c r="L6">
-        <v>0.9904651166912382</v>
+        <v>0.9904945811877127</v>
       </c>
       <c r="M6">
-        <v>1.000218505552567</v>
+        <v>1.000243263912902</v>
+      </c>
+      <c r="N6">
+        <v>0.995488380095602</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9679645655482475</v>
+        <v>0.9680005087642078</v>
       </c>
       <c r="D7">
-        <v>1.039048077169465</v>
+        <v>1.039055372923815</v>
       </c>
       <c r="E7">
-        <v>0.9778519766015207</v>
+        <v>0.9778842867185835</v>
       </c>
       <c r="F7">
-        <v>0.9872605799542664</v>
+        <v>0.9872877917759734</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049437215760583</v>
+        <v>1.049444333049462</v>
       </c>
       <c r="J7">
-        <v>0.9882184178548595</v>
+        <v>0.9882533569964611</v>
       </c>
       <c r="K7">
-        <v>1.048694154597043</v>
+        <v>1.048701370273832</v>
       </c>
       <c r="L7">
-        <v>0.9882221747093047</v>
+        <v>0.9882540726553142</v>
       </c>
       <c r="M7">
-        <v>0.997512175730307</v>
+        <v>0.9975390486122325</v>
+      </c>
+      <c r="N7">
+        <v>0.9938345894086956</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9547491125078487</v>
+        <v>0.9547976990010471</v>
       </c>
       <c r="D8">
-        <v>1.033941757358282</v>
+        <v>1.033951643179319</v>
       </c>
       <c r="E8">
-        <v>0.9667920822851004</v>
+        <v>0.9668354911662455</v>
       </c>
       <c r="F8">
-        <v>0.9741617356773514</v>
+        <v>0.9741986568724703</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046220715441963</v>
+        <v>1.046230334040281</v>
       </c>
       <c r="J8">
-        <v>0.9777566446448014</v>
+        <v>0.9778036296736961</v>
       </c>
       <c r="K8">
-        <v>1.044680785638397</v>
+        <v>1.044690548287669</v>
       </c>
       <c r="L8">
-        <v>0.978441491462244</v>
+        <v>0.9784842599707584</v>
       </c>
       <c r="M8">
-        <v>0.9857034633234791</v>
+        <v>0.9857398502440288</v>
+      </c>
+      <c r="N8">
+        <v>0.9866133789273317</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9290151760993719</v>
+        <v>0.9290904048602789</v>
       </c>
       <c r="D9">
-        <v>1.024135986127986</v>
+        <v>1.024151370436351</v>
       </c>
       <c r="E9">
-        <v>0.9453426046748196</v>
+        <v>0.9454092287836117</v>
       </c>
       <c r="F9">
-        <v>0.9486909185366508</v>
+        <v>0.9487485388586792</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03983762246646</v>
+        <v>1.039852516098831</v>
       </c>
       <c r="J9">
-        <v>0.957350128329955</v>
+        <v>0.9574220859673537</v>
       </c>
       <c r="K9">
-        <v>1.036849245298434</v>
+        <v>1.036864394791596</v>
       </c>
       <c r="L9">
-        <v>0.9593894121453678</v>
+        <v>0.9594547860525413</v>
       </c>
       <c r="M9">
-        <v>0.9626751784003116</v>
+        <v>0.9627317273961488</v>
+      </c>
+      <c r="N9">
+        <v>0.9725099829869998</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9097226663355701</v>
+        <v>0.9098200557062475</v>
       </c>
       <c r="D10">
-        <v>1.016933262567067</v>
+        <v>1.016953256250398</v>
       </c>
       <c r="E10">
-        <v>0.9293420459280296</v>
+        <v>0.9294277839752929</v>
       </c>
       <c r="F10">
-        <v>0.9296416425465802</v>
+        <v>0.9297167178326661</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034993763042096</v>
+        <v>1.035013048820726</v>
       </c>
       <c r="J10">
-        <v>0.9420400789375939</v>
+        <v>0.9421324004884656</v>
       </c>
       <c r="K10">
-        <v>1.031003367383218</v>
+        <v>1.031023015467496</v>
       </c>
       <c r="L10">
-        <v>0.9451160683556893</v>
+        <v>0.945199929735358</v>
       </c>
       <c r="M10">
-        <v>0.9454091092919444</v>
+        <v>0.9454825426830826</v>
+      </c>
+      <c r="N10">
+        <v>0.9619196436549906</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9007150402078454</v>
+        <v>0.9008235641533171</v>
       </c>
       <c r="D11">
-        <v>1.013620712398617</v>
+        <v>1.013643031772709</v>
       </c>
       <c r="E11">
-        <v>0.9218962969820582</v>
+        <v>0.9219915688028065</v>
       </c>
       <c r="F11">
-        <v>0.9207647668802883</v>
+        <v>0.9208486889016377</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032725001610564</v>
+        <v>1.032746495101732</v>
       </c>
       <c r="J11">
-        <v>0.9348928087536263</v>
+        <v>0.9349952297046694</v>
       </c>
       <c r="K11">
-        <v>1.028290253553347</v>
+        <v>1.028312166619766</v>
       </c>
       <c r="L11">
-        <v>0.9384584497259305</v>
+        <v>0.9385514939458094</v>
       </c>
       <c r="M11">
-        <v>0.9373534237417498</v>
+        <v>0.9374353770411182</v>
+      </c>
+      <c r="N11">
+        <v>0.9569744144027769</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8972545713546066</v>
+        <v>0.8973675238101682</v>
       </c>
       <c r="D12">
-        <v>1.012357250884811</v>
+        <v>1.012380496741951</v>
       </c>
       <c r="E12">
-        <v>0.9190402226467693</v>
+        <v>0.9191392732093071</v>
       </c>
       <c r="F12">
-        <v>0.9173577907256918</v>
+        <v>0.9174452448479367</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031853040105357</v>
+        <v>1.031875411717425</v>
       </c>
       <c r="J12">
-        <v>0.9321475801566246</v>
+        <v>0.9322539942743625</v>
       </c>
       <c r="K12">
-        <v>1.027251473966851</v>
+        <v>1.027274288548557</v>
       </c>
       <c r="L12">
-        <v>0.9359022326674515</v>
+        <v>0.9359989098649195</v>
       </c>
       <c r="M12">
-        <v>0.9342602189080111</v>
+        <v>0.9343455671565257</v>
+      </c>
+      <c r="N12">
+        <v>0.9550748845351651</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8980023500541895</v>
+        <v>0.898114338109107</v>
       </c>
       <c r="D13">
-        <v>1.012629835734947</v>
+        <v>1.012652879764264</v>
       </c>
       <c r="E13">
-        <v>0.9196571885277015</v>
+        <v>0.9197554168239114</v>
       </c>
       <c r="F13">
-        <v>0.9180938506433269</v>
+        <v>0.9181805349350566</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032041467587587</v>
+        <v>1.032063647969905</v>
       </c>
       <c r="J13">
-        <v>0.9327407693744719</v>
+        <v>0.9328463150225108</v>
       </c>
       <c r="K13">
-        <v>1.027475767906418</v>
+        <v>1.027498386135391</v>
       </c>
       <c r="L13">
-        <v>0.9364545364082877</v>
+        <v>0.9365504233728674</v>
       </c>
       <c r="M13">
-        <v>0.9349285521743852</v>
+        <v>0.9350131608014859</v>
+      </c>
+      <c r="N13">
+        <v>0.9554853374696231</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9004314449790074</v>
+        <v>0.9005403285830598</v>
       </c>
       <c r="D14">
-        <v>1.01351697416894</v>
+        <v>1.013539368756977</v>
       </c>
       <c r="E14">
-        <v>0.9216621414105948</v>
+        <v>0.92175772039711</v>
       </c>
       <c r="F14">
-        <v>0.9204854852691082</v>
+        <v>0.9205696938653478</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032653544806267</v>
+        <v>1.032675109613003</v>
       </c>
       <c r="J14">
-        <v>0.9346678158632484</v>
+        <v>0.9347705616117241</v>
       </c>
       <c r="K14">
-        <v>1.028205044784647</v>
+        <v>1.02822703105403</v>
       </c>
       <c r="L14">
-        <v>0.9382489283038999</v>
+        <v>0.9383422679794357</v>
       </c>
       <c r="M14">
-        <v>0.937099890972697</v>
+        <v>0.9371821198583762</v>
+      </c>
+      <c r="N14">
+        <v>0.9568187343530555</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.901912339609014</v>
+        <v>0.9020193514418706</v>
       </c>
       <c r="D15">
-        <v>1.014059059095249</v>
+        <v>1.01408106230688</v>
       </c>
       <c r="E15">
-        <v>0.9228850494820778</v>
+        <v>0.9229790293482942</v>
       </c>
       <c r="F15">
-        <v>0.9219439909540843</v>
+        <v>0.9220267086795717</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033026671873983</v>
+        <v>1.033047865534714</v>
       </c>
       <c r="J15">
-        <v>0.9358427219123513</v>
+        <v>0.9359437763534154</v>
       </c>
       <c r="K15">
-        <v>1.028650142046497</v>
+        <v>1.028671747372127</v>
       </c>
       <c r="L15">
-        <v>0.9393430812925714</v>
+        <v>0.9394348825397643</v>
       </c>
       <c r="M15">
-        <v>0.938423870930057</v>
+        <v>0.9385046658405028</v>
+      </c>
+      <c r="N15">
+        <v>0.9576316877210558</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9103053865497411</v>
+        <v>0.9104020741552702</v>
       </c>
       <c r="D16">
-        <v>1.017148708872579</v>
+        <v>1.017168556173698</v>
       </c>
       <c r="E16">
-        <v>0.9298242823569179</v>
+        <v>0.9299094179536342</v>
       </c>
       <c r="F16">
-        <v>0.9302163081149377</v>
+        <v>0.9302908274963031</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035140442838673</v>
+        <v>1.035159589487177</v>
       </c>
       <c r="J16">
-        <v>0.9425025000950908</v>
+        <v>0.9425941822228253</v>
       </c>
       <c r="K16">
-        <v>1.03117930114107</v>
+        <v>1.031198806564455</v>
       </c>
       <c r="L16">
-        <v>0.9455469322182135</v>
+        <v>0.9456302124919207</v>
       </c>
       <c r="M16">
-        <v>0.9459304184727526</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9460033156783551</v>
+      </c>
+      <c r="N16">
+        <v>0.9622395765076726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9153846845132814</v>
+        <v>0.9154753452224778</v>
       </c>
       <c r="D17">
-        <v>1.019032394152798</v>
+        <v>1.019050985339969</v>
       </c>
       <c r="E17">
-        <v>0.9340305284158995</v>
+        <v>0.9341104823697198</v>
       </c>
       <c r="F17">
-        <v>0.9352273671274843</v>
+        <v>0.9352971206273381</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036418255959832</v>
+        <v>1.036436207823845</v>
       </c>
       <c r="J17">
-        <v>0.9465333516613768</v>
+        <v>0.9466195278596534</v>
       </c>
       <c r="K17">
-        <v>1.032714747704788</v>
+        <v>1.032733028429311</v>
       </c>
       <c r="L17">
-        <v>0.9493033419962743</v>
+        <v>0.9493816200141266</v>
       </c>
       <c r="M17">
-        <v>0.9504751330594483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9505434293591646</v>
+      </c>
+      <c r="N17">
+        <v>0.9650282470146953</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9182855576589815</v>
+        <v>0.918372846411967</v>
       </c>
       <c r="D18">
-        <v>1.020112731022042</v>
+        <v>1.020130620288139</v>
       </c>
       <c r="E18">
-        <v>0.9364350331394186</v>
+        <v>0.9365120820591779</v>
       </c>
       <c r="F18">
-        <v>0.9380908018723193</v>
+        <v>0.9381578955328712</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037147325090917</v>
+        <v>1.037164608576116</v>
       </c>
       <c r="J18">
-        <v>0.9488354980849665</v>
+        <v>0.9489185823977462</v>
       </c>
       <c r="K18">
-        <v>1.033593094401291</v>
+        <v>1.033610690340786</v>
       </c>
       <c r="L18">
-        <v>0.9514492633914158</v>
+        <v>0.9515247336056593</v>
       </c>
       <c r="M18">
-        <v>0.953071181267043</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9531369065724935</v>
+      </c>
+      <c r="N18">
+        <v>0.9666208189154867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9192646345039296</v>
+        <v>0.9193507962920828</v>
       </c>
       <c r="D19">
-        <v>1.020478084840022</v>
+        <v>1.02049573965551</v>
       </c>
       <c r="E19">
-        <v>0.9372469450410612</v>
+        <v>0.937323022095704</v>
       </c>
       <c r="F19">
-        <v>0.9390574857011426</v>
+        <v>0.9391236914674805</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037393254781286</v>
+        <v>1.037410314898576</v>
       </c>
       <c r="J19">
-        <v>0.9496124977075506</v>
+        <v>0.9496945468164061</v>
       </c>
       <c r="K19">
-        <v>1.033889760275045</v>
+        <v>1.033907127418149</v>
       </c>
       <c r="L19">
-        <v>0.9521736209249706</v>
+        <v>0.9522481512575951</v>
       </c>
       <c r="M19">
-        <v>0.9539474410423988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9540123075883158</v>
+      </c>
+      <c r="N19">
+        <v>0.9671583054862545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9148462216414267</v>
+        <v>0.9149375137654233</v>
       </c>
       <c r="D20">
-        <v>1.018832219746059</v>
+        <v>1.01885094244116</v>
       </c>
       <c r="E20">
-        <v>0.9335843807096782</v>
+        <v>0.9336648781684768</v>
       </c>
       <c r="F20">
-        <v>0.934695974142971</v>
+        <v>0.9347662262401335</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036282863034744</v>
+        <v>1.036300940063157</v>
       </c>
       <c r="J20">
-        <v>0.946106027282222</v>
+        <v>0.9461927815362934</v>
       </c>
       <c r="K20">
-        <v>1.032551817411781</v>
+        <v>1.03257022639968</v>
       </c>
       <c r="L20">
-        <v>0.9489050576521659</v>
+        <v>0.9489838607153188</v>
       </c>
       <c r="M20">
-        <v>0.9499932872281308</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9500620652113084</v>
+      </c>
+      <c r="N20">
+        <v>0.9647326229914064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.899719454070847</v>
+        <v>0.8998292431769431</v>
       </c>
       <c r="D21">
-        <v>1.013256682077762</v>
+        <v>1.013279266053515</v>
       </c>
       <c r="E21">
-        <v>0.921074345452321</v>
+        <v>0.921170697563759</v>
       </c>
       <c r="F21">
-        <v>0.9197843789125438</v>
+        <v>0.919869309232236</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032474142909938</v>
+        <v>1.032495887266344</v>
       </c>
       <c r="J21">
-        <v>0.9341029615708416</v>
+        <v>0.9342065246635051</v>
       </c>
       <c r="K21">
-        <v>1.027991180990296</v>
+        <v>1.028013351571137</v>
       </c>
       <c r="L21">
-        <v>0.9377229311590313</v>
+        <v>0.9378170143763325</v>
       </c>
       <c r="M21">
-        <v>0.936463402052309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9365463248778637</v>
+      </c>
+      <c r="N21">
+        <v>0.9564278917981186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,75 +1241,81 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8895339445452365</v>
+        <v>0.8896571051561043</v>
       </c>
       <c r="D22">
-        <v>1.009557311386261</v>
+        <v>1.009582695675298</v>
       </c>
       <c r="E22">
-        <v>0.912677005702702</v>
+        <v>0.9127847383660115</v>
       </c>
       <c r="F22">
-        <v>0.9097634835600097</v>
+        <v>0.9098591077411549</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029907847692546</v>
+        <v>1.029932243411726</v>
       </c>
       <c r="J22">
-        <v>0.9260242708819435</v>
+        <v>0.9261398399744636</v>
       </c>
       <c r="K22">
-        <v>1.024941784273778</v>
+        <v>1.024966678107821</v>
       </c>
       <c r="L22">
-        <v>0.9302023770361297</v>
+        <v>0.9303073876787333</v>
       </c>
       <c r="M22">
-        <v>0.9273627997127581</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9274559868041093</v>
+      </c>
+      <c r="N22">
+        <v>0.9508378896540539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.8950040740432466</v>
+        <v>0.8951199542547141</v>
       </c>
       <c r="D23">
-        <v>1.01153836069059</v>
+        <v>1.011562219480725</v>
       </c>
       <c r="E23">
-        <v>0.9171841137286407</v>
+        <v>0.9172856583928889</v>
       </c>
       <c r="F23">
-        <v>0.9151431022328852</v>
+        <v>0.9152328955939455</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03128596165378</v>
+        <v>1.031308913804978</v>
       </c>
       <c r="J23">
-        <v>0.9303624481631433</v>
+        <v>0.9304714950007034</v>
       </c>
       <c r="K23">
-        <v>1.026577054590557</v>
+        <v>1.026600465358114</v>
       </c>
       <c r="L23">
-        <v>0.9342402860548428</v>
+        <v>0.9343393591324606</v>
       </c>
       <c r="M23">
-        <v>0.9322491090992296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9323367037223944</v>
+      </c>
+      <c r="N23">
+        <v>0.9538396708658669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9150897196039348</v>
+        <v>0.9151807259799114</v>
       </c>
       <c r="D24">
-        <v>1.018922726471835</v>
+        <v>1.018941389650074</v>
       </c>
       <c r="E24">
-        <v>0.9337861259296244</v>
+        <v>0.9338663774428102</v>
       </c>
       <c r="F24">
-        <v>0.9349362703016169</v>
+        <v>0.9350062967369699</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03634409125458</v>
+        <v>1.036362111639324</v>
       </c>
       <c r="J24">
-        <v>0.9462992672207221</v>
+        <v>0.946385759910096</v>
       </c>
       <c r="K24">
-        <v>1.032625491645787</v>
+        <v>1.032643842586533</v>
       </c>
       <c r="L24">
-        <v>0.9490851638181265</v>
+        <v>0.9491637292994318</v>
       </c>
       <c r="M24">
-        <v>0.9502111809709322</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9502797409574862</v>
+      </c>
+      <c r="N24">
+        <v>0.9648663072401842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.936002808701683</v>
+        <v>0.9360705057995443</v>
       </c>
       <c r="D25">
-        <v>1.026778012709039</v>
+        <v>1.026791837388608</v>
       </c>
       <c r="E25">
-        <v>0.951155138948289</v>
+        <v>0.9512152254621211</v>
       </c>
       <c r="F25">
-        <v>0.9556011267577236</v>
+        <v>0.9556528630750998</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041582433967264</v>
+        <v>1.041595835704609</v>
       </c>
       <c r="J25">
-        <v>0.9628940777597867</v>
+        <v>0.9629590312809806</v>
       </c>
       <c r="K25">
-        <v>1.038974384697846</v>
+        <v>1.038988008732131</v>
       </c>
       <c r="L25">
-        <v>0.9645621917607309</v>
+        <v>0.9646212172472051</v>
       </c>
       <c r="M25">
-        <v>0.9689301374815875</v>
+        <v>0.9689809711868606</v>
+      </c>
+      <c r="N25">
+        <v>0.9763433065032641</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9512479895025994</v>
+        <v>0.9387418633804514</v>
       </c>
       <c r="D2">
-        <v>1.032586759687884</v>
+        <v>1.034065269398948</v>
       </c>
       <c r="E2">
-        <v>0.9638699728977629</v>
+        <v>0.9580642668747402</v>
       </c>
       <c r="F2">
-        <v>0.9706812301037515</v>
+        <v>0.9580958123031784</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045357745729061</v>
+        <v>1.046795339640521</v>
       </c>
       <c r="J2">
-        <v>0.9749915038205534</v>
+        <v>0.96292302379096</v>
       </c>
       <c r="K2">
-        <v>1.043610035646975</v>
+        <v>1.045069575664643</v>
       </c>
       <c r="L2">
-        <v>0.9758567101392094</v>
+        <v>0.9701404905680796</v>
       </c>
       <c r="M2">
-        <v>0.9825647190271437</v>
+        <v>0.9701715460257345</v>
       </c>
       <c r="N2">
-        <v>0.9846687800317486</v>
+        <v>0.9642904849335578</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9615686949137764</v>
+        <v>0.9558001039844076</v>
       </c>
       <c r="D3">
-        <v>1.036564034958334</v>
+        <v>1.038763172488089</v>
       </c>
       <c r="E3">
-        <v>0.9724981366403778</v>
+        <v>0.9732805189759487</v>
       </c>
       <c r="F3">
-        <v>0.9809102453908453</v>
+        <v>0.9750001462937897</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047885337865531</v>
+        <v>1.050028033104202</v>
       </c>
       <c r="J3">
-        <v>0.9831648363466909</v>
+        <v>0.9775727830362054</v>
       </c>
       <c r="K3">
-        <v>1.0467495080282</v>
+        <v>1.048922978563976</v>
       </c>
       <c r="L3">
-        <v>0.9834954381309176</v>
+        <v>0.9842670949385199</v>
       </c>
       <c r="M3">
-        <v>0.9917933542892244</v>
+        <v>0.9859632243746426</v>
       </c>
       <c r="N3">
-        <v>0.9903192216161002</v>
+        <v>0.9789610485172822</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.967965169447474</v>
+        <v>0.9660405176532905</v>
       </c>
       <c r="D4">
-        <v>1.039041660498195</v>
+        <v>1.041616502033327</v>
       </c>
       <c r="E4">
-        <v>0.9778546738850865</v>
+        <v>0.9824159613882617</v>
       </c>
       <c r="F4">
-        <v>0.9872527459040435</v>
+        <v>0.9851212544319174</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049435805743463</v>
+        <v>1.051947793704348</v>
       </c>
       <c r="J4">
-        <v>0.9882254107523715</v>
+        <v>0.9863546930809165</v>
       </c>
       <c r="K4">
-        <v>1.048690659525461</v>
+        <v>1.051237315543035</v>
       </c>
       <c r="L4">
-        <v>0.9882279317373368</v>
+        <v>0.9927313477351352</v>
       </c>
       <c r="M4">
-        <v>0.9975074933763174</v>
+        <v>0.9954026329669284</v>
       </c>
       <c r="N4">
-        <v>0.9938152887090034</v>
+        <v>0.9877554298815562</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9705921540577619</v>
+        <v>0.9701804784719774</v>
       </c>
       <c r="D5">
-        <v>1.04006165843749</v>
+        <v>1.04277606681084</v>
       </c>
       <c r="E5">
-        <v>0.9800565388168847</v>
+        <v>0.9861090363995718</v>
       </c>
       <c r="F5">
-        <v>0.9898580370153746</v>
+        <v>0.9892063180194617</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050068451540103</v>
+        <v>1.05271800473573</v>
       </c>
       <c r="J5">
-        <v>0.9903024188496433</v>
+        <v>0.9899018552086645</v>
       </c>
       <c r="K5">
-        <v>1.049486373517462</v>
+        <v>1.052171880725329</v>
       </c>
       <c r="L5">
-        <v>0.9901709626059143</v>
+        <v>0.9961491643524398</v>
       </c>
       <c r="M5">
-        <v>0.99985271092547</v>
+        <v>0.9992088628504814</v>
       </c>
       <c r="N5">
-        <v>0.9952495626278803</v>
+        <v>0.9913076293863906</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9710297381030883</v>
+        <v>0.970866553211019</v>
       </c>
       <c r="D6">
-        <v>1.040231691067758</v>
+        <v>1.042968535768388</v>
       </c>
       <c r="E6">
-        <v>0.9804234204194645</v>
+        <v>0.9867210337967902</v>
       </c>
       <c r="F6">
-        <v>0.9902920296405621</v>
+        <v>0.9898828972290444</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05017358328974</v>
+        <v>1.052845273120688</v>
       </c>
       <c r="J6">
-        <v>0.9906483099284257</v>
+        <v>0.9904895019604909</v>
       </c>
       <c r="K6">
-        <v>1.049618818412833</v>
+        <v>1.052326659687146</v>
       </c>
       <c r="L6">
-        <v>0.9904945811877127</v>
+        <v>0.9967153199516099</v>
       </c>
       <c r="M6">
-        <v>1.000243263912902</v>
+        <v>0.9998390444457701</v>
       </c>
       <c r="N6">
-        <v>0.995488380095602</v>
+        <v>0.9918961106640087</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9680005087642078</v>
+        <v>0.9660964551504758</v>
       </c>
       <c r="D7">
-        <v>1.039055372923815</v>
+        <v>1.04163214784646</v>
       </c>
       <c r="E7">
-        <v>0.9778842867185835</v>
+        <v>0.982465861860036</v>
       </c>
       <c r="F7">
-        <v>0.9872877917759734</v>
+        <v>0.9851764770221036</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049444333049462</v>
+        <v>1.051958225126014</v>
       </c>
       <c r="J7">
-        <v>0.9882533569964611</v>
+        <v>0.9864026336756953</v>
       </c>
       <c r="K7">
-        <v>1.048701370273832</v>
+        <v>1.051249948871329</v>
       </c>
       <c r="L7">
-        <v>0.9882540726553142</v>
+        <v>0.9927775444251775</v>
       </c>
       <c r="M7">
-        <v>0.9975390486122325</v>
+        <v>0.9954541009191691</v>
       </c>
       <c r="N7">
-        <v>0.9938345894086956</v>
+        <v>0.9878034385574783</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9547976990010471</v>
+        <v>0.9446895575738723</v>
       </c>
       <c r="D8">
-        <v>1.033951643179319</v>
+        <v>1.03569475310772</v>
       </c>
       <c r="E8">
-        <v>0.9668354911662455</v>
+        <v>0.9633692759929258</v>
       </c>
       <c r="F8">
-        <v>0.9741986568724703</v>
+        <v>0.9639955500649439</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046230334040281</v>
+        <v>1.04792640546467</v>
       </c>
       <c r="J8">
-        <v>0.9778036296736961</v>
+        <v>0.9680336125192607</v>
       </c>
       <c r="K8">
-        <v>1.044690548287669</v>
+        <v>1.046411985829701</v>
       </c>
       <c r="L8">
-        <v>0.9784842599707584</v>
+        <v>0.9750694097922499</v>
       </c>
       <c r="M8">
-        <v>0.9857398502440288</v>
+        <v>0.9756863685033413</v>
       </c>
       <c r="N8">
-        <v>0.9866133789273317</v>
+        <v>0.9694083312840454</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9290904048602789</v>
+        <v>0.8992094713580259</v>
       </c>
       <c r="D9">
-        <v>1.024151370436351</v>
+        <v>1.023510544581772</v>
       </c>
       <c r="E9">
-        <v>0.9454092287836117</v>
+        <v>0.9228317093901875</v>
       </c>
       <c r="F9">
-        <v>0.9487485388586792</v>
+        <v>0.9187674772451391</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039852516098831</v>
+        <v>1.039232142347435</v>
       </c>
       <c r="J9">
-        <v>0.9574220859673537</v>
+        <v>0.9289027327160529</v>
       </c>
       <c r="K9">
-        <v>1.036864394791596</v>
+        <v>1.036233357672992</v>
       </c>
       <c r="L9">
-        <v>0.9594547860525413</v>
+        <v>0.937314529734106</v>
       </c>
       <c r="M9">
-        <v>0.9627317273961488</v>
+        <v>0.9333320169098394</v>
       </c>
       <c r="N9">
-        <v>0.9725099829869998</v>
+        <v>0.9302218811431424</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9098200557062475</v>
+        <v>0.8598550299137879</v>
       </c>
       <c r="D10">
-        <v>1.016953256250398</v>
+        <v>1.013572320133619</v>
       </c>
       <c r="E10">
-        <v>0.9294277839752929</v>
+        <v>0.887844899193402</v>
       </c>
       <c r="F10">
-        <v>0.9297167178326661</v>
+        <v>0.8795073555798519</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035013048820726</v>
+        <v>1.031752255487251</v>
       </c>
       <c r="J10">
-        <v>0.9421324004884656</v>
+        <v>0.8949912317707902</v>
       </c>
       <c r="K10">
-        <v>1.031023015467496</v>
+        <v>1.027700771150274</v>
       </c>
       <c r="L10">
-        <v>0.945199929735358</v>
+        <v>0.9045846129781068</v>
       </c>
       <c r="M10">
-        <v>0.9454825426830826</v>
+        <v>0.8964559627257841</v>
       </c>
       <c r="N10">
-        <v>0.9619196436549906</v>
+        <v>0.8962622219768338</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9008235641533171</v>
+        <v>0.838838616267464</v>
       </c>
       <c r="D11">
-        <v>1.013643031772709</v>
+        <v>1.008534132598329</v>
       </c>
       <c r="E11">
-        <v>0.9219915688028065</v>
+        <v>0.8692146519101653</v>
       </c>
       <c r="F11">
-        <v>0.9208486889016377</v>
+        <v>0.8585351623290837</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032746495101732</v>
+        <v>1.027827702676053</v>
       </c>
       <c r="J11">
-        <v>0.9349952297046694</v>
+        <v>0.8768827132369241</v>
       </c>
       <c r="K11">
-        <v>1.028312166619766</v>
+        <v>1.023296882496049</v>
       </c>
       <c r="L11">
-        <v>0.9385514939458094</v>
+        <v>0.8871107150061136</v>
       </c>
       <c r="M11">
-        <v>0.9374353770411182</v>
+        <v>0.8767289720576912</v>
       </c>
       <c r="N11">
-        <v>0.9569744144027769</v>
+        <v>0.8781279872695736</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8973675238101682</v>
+        <v>0.8300939159153551</v>
       </c>
       <c r="D12">
-        <v>1.012380496741951</v>
+        <v>1.006497320491853</v>
       </c>
       <c r="E12">
-        <v>0.9191392732093071</v>
+        <v>0.8614764716845773</v>
       </c>
       <c r="F12">
-        <v>0.9174452448479367</v>
+        <v>0.84981276413412</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031875411717425</v>
+        <v>1.026214936567253</v>
       </c>
       <c r="J12">
-        <v>0.9322539942743625</v>
+        <v>0.8693507743585983</v>
       </c>
       <c r="K12">
-        <v>1.027274288548557</v>
+        <v>1.021501091824657</v>
       </c>
       <c r="L12">
-        <v>0.9359989098649195</v>
+        <v>0.8798444713079037</v>
       </c>
       <c r="M12">
-        <v>0.9343455671565257</v>
+        <v>0.8685201426295295</v>
       </c>
       <c r="N12">
-        <v>0.9550748845351651</v>
+        <v>0.8705853521741151</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.898114338109107</v>
+        <v>0.8320213248738098</v>
       </c>
       <c r="D13">
-        <v>1.012652879764264</v>
+        <v>1.006943167190392</v>
       </c>
       <c r="E13">
-        <v>0.9197554168239114</v>
+        <v>0.8631812888576393</v>
       </c>
       <c r="F13">
-        <v>0.9181805349350566</v>
+        <v>0.8517349551147844</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032063647969905</v>
+        <v>1.026569276787263</v>
       </c>
       <c r="J13">
-        <v>0.9328463150225108</v>
+        <v>0.8710106859417982</v>
       </c>
       <c r="K13">
-        <v>1.027498386135391</v>
+        <v>1.021894953833905</v>
       </c>
       <c r="L13">
-        <v>0.9365504233728674</v>
+        <v>0.8814457205243222</v>
       </c>
       <c r="M13">
-        <v>0.9350131608014859</v>
+        <v>0.8703293464526856</v>
       </c>
       <c r="N13">
-        <v>0.9554853374696231</v>
+        <v>0.8722476210221575</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9005403285830598</v>
+        <v>0.8381380559806184</v>
       </c>
       <c r="D14">
-        <v>1.013539368756977</v>
+        <v>1.008369642691177</v>
       </c>
       <c r="E14">
-        <v>0.92175772039711</v>
+        <v>0.8685944120070325</v>
       </c>
       <c r="F14">
-        <v>0.9205696938653478</v>
+        <v>0.8578362690359607</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032675109613003</v>
+        <v>1.027698026123353</v>
       </c>
       <c r="J14">
-        <v>0.9347705616117241</v>
+        <v>0.8762792320299541</v>
       </c>
       <c r="K14">
-        <v>1.02822703105403</v>
+        <v>1.023152191377305</v>
       </c>
       <c r="L14">
-        <v>0.9383422679794357</v>
+        <v>0.8865284778068373</v>
       </c>
       <c r="M14">
-        <v>0.9371821198583762</v>
+        <v>0.8760713132150273</v>
       </c>
       <c r="N14">
-        <v>0.9568187343530555</v>
+        <v>0.8775236490500693</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9020193514418706</v>
+        <v>0.8417669694619391</v>
       </c>
       <c r="D15">
-        <v>1.01408106230688</v>
+        <v>1.009224157565084</v>
       </c>
       <c r="E15">
-        <v>0.9229790293482942</v>
+        <v>0.871807838495357</v>
       </c>
       <c r="F15">
-        <v>0.9220267086795717</v>
+        <v>0.8614567373173114</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033047865534714</v>
+        <v>1.02837061006794</v>
       </c>
       <c r="J15">
-        <v>0.9359437763534154</v>
+        <v>0.879405404477278</v>
       </c>
       <c r="K15">
-        <v>1.028671747372127</v>
+        <v>1.023903218364933</v>
       </c>
       <c r="L15">
-        <v>0.9394348825397643</v>
+        <v>0.8895446780515149</v>
       </c>
       <c r="M15">
-        <v>0.9385046658405028</v>
+        <v>0.8794780073158668</v>
       </c>
       <c r="N15">
-        <v>0.9576316877210558</v>
+        <v>0.8806542610208453</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9104020741552702</v>
+        <v>0.8611430510439847</v>
       </c>
       <c r="D16">
-        <v>1.017168556173698</v>
+        <v>1.013887461360972</v>
       </c>
       <c r="E16">
-        <v>0.9299094179536342</v>
+        <v>0.8889880550480024</v>
       </c>
       <c r="F16">
-        <v>0.9302908274963031</v>
+        <v>0.8807928421093474</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035159589487177</v>
+        <v>1.031994733199253</v>
       </c>
       <c r="J16">
-        <v>0.9425941822228253</v>
+        <v>0.8961012231968557</v>
       </c>
       <c r="K16">
-        <v>1.031198806564455</v>
+        <v>1.027974465225419</v>
       </c>
       <c r="L16">
-        <v>0.9456302124919207</v>
+        <v>0.9056558472785907</v>
       </c>
       <c r="M16">
-        <v>0.9460033156783551</v>
+        <v>0.8976645781705671</v>
       </c>
       <c r="N16">
-        <v>0.9622395765076726</v>
+        <v>0.8973737897180422</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9154753452224778</v>
+        <v>0.8720672714543182</v>
       </c>
       <c r="D17">
-        <v>1.019050985339969</v>
+        <v>1.01658880689728</v>
       </c>
       <c r="E17">
-        <v>0.9341104823697198</v>
+        <v>0.8986893504518398</v>
       </c>
       <c r="F17">
-        <v>0.9352971206273381</v>
+        <v>0.8916951144115451</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036436207823845</v>
+        <v>1.034058921375985</v>
       </c>
       <c r="J17">
-        <v>0.9466195278596534</v>
+        <v>0.9055157299639998</v>
       </c>
       <c r="K17">
-        <v>1.032733028429311</v>
+        <v>1.030312094452647</v>
       </c>
       <c r="L17">
-        <v>0.9493816200141266</v>
+        <v>0.9147420540226575</v>
       </c>
       <c r="M17">
-        <v>0.9505434293591646</v>
+        <v>0.9079119959193042</v>
       </c>
       <c r="N17">
-        <v>0.9650282470146953</v>
+        <v>0.9068016661646546</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.918372846411967</v>
+        <v>0.8780860010509148</v>
       </c>
       <c r="D18">
-        <v>1.020130620288139</v>
+        <v>1.018098435552355</v>
       </c>
       <c r="E18">
-        <v>0.9365120820591779</v>
+        <v>0.9040384236640123</v>
       </c>
       <c r="F18">
-        <v>0.9381578955328712</v>
+        <v>0.897700872133847</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037164608576116</v>
+        <v>1.035201386642951</v>
       </c>
       <c r="J18">
-        <v>0.9489185823977462</v>
+        <v>0.9107025841712383</v>
       </c>
       <c r="K18">
-        <v>1.033610690340786</v>
+        <v>1.03161191173249</v>
       </c>
       <c r="L18">
-        <v>0.9515247336056593</v>
+        <v>0.9197482546487624</v>
       </c>
       <c r="M18">
-        <v>0.9531369065724935</v>
+        <v>0.9135546266406319</v>
       </c>
       <c r="N18">
-        <v>0.9666208189154867</v>
+        <v>0.911995886299808</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9193507962920828</v>
+        <v>0.8800847803129026</v>
       </c>
       <c r="D19">
-        <v>1.02049573965551</v>
+        <v>1.018603042386551</v>
       </c>
       <c r="E19">
-        <v>0.937323022095704</v>
+        <v>0.9058154184749474</v>
       </c>
       <c r="F19">
-        <v>0.9391236914674805</v>
+        <v>0.899695117355336</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037410314898576</v>
+        <v>1.035581499429526</v>
       </c>
       <c r="J19">
-        <v>0.9496945468164061</v>
+        <v>0.9124250441866214</v>
       </c>
       <c r="K19">
-        <v>1.033907127418149</v>
+        <v>1.032045343255283</v>
       </c>
       <c r="L19">
-        <v>0.9522481512575951</v>
+        <v>0.9214107408242489</v>
       </c>
       <c r="M19">
-        <v>0.9540123075883158</v>
+        <v>0.9154278909633907</v>
       </c>
       <c r="N19">
-        <v>0.9671583054862545</v>
+        <v>0.9137207924059819</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9149375137654233</v>
+        <v>0.8709333736231705</v>
       </c>
       <c r="D20">
-        <v>1.01885094244116</v>
+        <v>1.016306075149154</v>
       </c>
       <c r="E20">
-        <v>0.9336648781684768</v>
+        <v>0.897681928608749</v>
       </c>
       <c r="F20">
-        <v>0.9347662262401335</v>
+        <v>0.890563567547715</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036300940063157</v>
+        <v>1.033844071977448</v>
       </c>
       <c r="J20">
-        <v>0.9461927815362934</v>
+        <v>0.9045385341716236</v>
       </c>
       <c r="K20">
-        <v>1.03257022639968</v>
+        <v>1.030068136221383</v>
       </c>
       <c r="L20">
-        <v>0.9489838607153188</v>
+        <v>0.9137989063000598</v>
       </c>
       <c r="M20">
-        <v>0.9500620652113084</v>
+        <v>0.9068486690434634</v>
       </c>
       <c r="N20">
-        <v>0.9647326229914064</v>
+        <v>0.9058230826421674</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8998292431769431</v>
+        <v>0.836367096058892</v>
       </c>
       <c r="D21">
-        <v>1.013279266053515</v>
+        <v>1.007954841531163</v>
       </c>
       <c r="E21">
-        <v>0.921170697563759</v>
+        <v>0.8670267355488559</v>
       </c>
       <c r="F21">
-        <v>0.919869309232236</v>
+        <v>0.8560696081508062</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032495887266344</v>
+        <v>1.027370574286741</v>
       </c>
       <c r="J21">
-        <v>0.9342065246635051</v>
+        <v>0.874753737147506</v>
       </c>
       <c r="K21">
-        <v>1.028013351571137</v>
+        <v>1.022787058112618</v>
       </c>
       <c r="L21">
-        <v>0.9378170143763325</v>
+        <v>0.8850567169341319</v>
       </c>
       <c r="M21">
-        <v>0.9365463248778637</v>
+        <v>0.8744088173251603</v>
       </c>
       <c r="N21">
-        <v>0.9564278917981186</v>
+        <v>0.8759959877899114</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8896571051561043</v>
+        <v>0.8086884711890054</v>
       </c>
       <c r="D22">
-        <v>1.009582695675298</v>
+        <v>1.001666129496322</v>
       </c>
       <c r="E22">
-        <v>0.9127847383660115</v>
+        <v>0.8425738622434802</v>
       </c>
       <c r="F22">
-        <v>0.9098591077411549</v>
+        <v>0.8284812004150972</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029932243411726</v>
+        <v>1.022326732152664</v>
       </c>
       <c r="J22">
-        <v>0.9261398399744636</v>
+        <v>0.8509256376911456</v>
       </c>
       <c r="K22">
-        <v>1.024966678107821</v>
+        <v>1.017204652136448</v>
       </c>
       <c r="L22">
-        <v>0.9303073876787333</v>
+        <v>0.8620754226490784</v>
       </c>
       <c r="M22">
-        <v>0.9274559868041093</v>
+        <v>0.8484363146176337</v>
       </c>
       <c r="N22">
-        <v>0.9508378896540539</v>
+        <v>0.852134049699202</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8951199542547141</v>
+        <v>0.8241543431842059</v>
       </c>
       <c r="D23">
-        <v>1.011562219480725</v>
+        <v>1.005134494413794</v>
       </c>
       <c r="E23">
-        <v>0.9172856583928889</v>
+        <v>0.8562256068415257</v>
       </c>
       <c r="F23">
-        <v>0.9152328955939455</v>
+        <v>0.8438905469872904</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031308913804978</v>
+        <v>1.025127192417944</v>
       </c>
       <c r="J23">
-        <v>0.9304714950007034</v>
+        <v>0.8642363189837421</v>
       </c>
       <c r="K23">
-        <v>1.026600465358114</v>
+        <v>1.020294446923656</v>
       </c>
       <c r="L23">
-        <v>0.9343393591324606</v>
+        <v>0.8749111849777843</v>
       </c>
       <c r="M23">
-        <v>0.9323367037223944</v>
+        <v>0.8629454097961353</v>
       </c>
       <c r="N23">
-        <v>0.9538396708658669</v>
+        <v>0.8654636336859903</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9151807259799114</v>
+        <v>0.8714468039989828</v>
       </c>
       <c r="D24">
-        <v>1.018941389650074</v>
+        <v>1.016434030108554</v>
       </c>
       <c r="E24">
-        <v>0.9338663774428102</v>
+        <v>0.8981380777779053</v>
       </c>
       <c r="F24">
-        <v>0.9350062967369699</v>
+        <v>0.8910759364374178</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036362111639324</v>
+        <v>1.033941340169378</v>
       </c>
       <c r="J24">
-        <v>0.946385759910096</v>
+        <v>0.9049810101045751</v>
       </c>
       <c r="K24">
-        <v>1.032643842586533</v>
+        <v>1.030178563969614</v>
       </c>
       <c r="L24">
-        <v>0.9491637292994318</v>
+        <v>0.9142259645731672</v>
       </c>
       <c r="M24">
-        <v>0.9502797409574862</v>
+        <v>0.9073301551940915</v>
       </c>
       <c r="N24">
-        <v>0.9648663072401842</v>
+        <v>0.9062661869416967</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9360705057995443</v>
+        <v>0.9121763209779146</v>
       </c>
       <c r="D25">
-        <v>1.026791837388608</v>
+        <v>1.0269153352885</v>
       </c>
       <c r="E25">
-        <v>0.9512152254621211</v>
+        <v>0.9343811090094066</v>
       </c>
       <c r="F25">
-        <v>0.9556528630750998</v>
+        <v>0.9316852829923367</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041595835704609</v>
+        <v>1.041715555926628</v>
       </c>
       <c r="J25">
-        <v>0.9629590312809806</v>
+        <v>0.9400694490587281</v>
       </c>
       <c r="K25">
-        <v>1.038988008732131</v>
+        <v>1.039109714542008</v>
       </c>
       <c r="L25">
-        <v>0.9646212172472051</v>
+        <v>0.9480913203760017</v>
       </c>
       <c r="M25">
-        <v>0.9689809711868606</v>
+        <v>0.9454455448098327</v>
       </c>
       <c r="N25">
-        <v>0.9763433065032641</v>
+        <v>0.9414044555038645</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9387418633804514</v>
+        <v>1.048359399489438</v>
       </c>
       <c r="D2">
-        <v>1.034065269398948</v>
+        <v>1.065151540192805</v>
       </c>
       <c r="E2">
-        <v>0.9580642668747402</v>
+        <v>1.058143560562852</v>
       </c>
       <c r="F2">
-        <v>0.9580958123031784</v>
+        <v>1.070636839644263</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046795339640521</v>
+        <v>1.074785945200688</v>
       </c>
       <c r="J2">
-        <v>0.96292302379096</v>
+        <v>1.069183998109693</v>
       </c>
       <c r="K2">
-        <v>1.045069575664643</v>
+        <v>1.075772126627656</v>
       </c>
       <c r="L2">
-        <v>0.9701404905680796</v>
+        <v>1.068848206573651</v>
       </c>
       <c r="M2">
-        <v>0.9701715460257345</v>
+        <v>1.0811925812943</v>
       </c>
       <c r="N2">
-        <v>0.9642904849335578</v>
+        <v>1.070702362024127</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9558001039844076</v>
+        <v>1.055060142604448</v>
       </c>
       <c r="D3">
-        <v>1.038763172488089</v>
+        <v>1.069494959795242</v>
       </c>
       <c r="E3">
-        <v>0.9732805189759487</v>
+        <v>1.063712072535681</v>
       </c>
       <c r="F3">
-        <v>0.9750001462937897</v>
+        <v>1.075989178824545</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050028033104202</v>
+        <v>1.077406645903519</v>
       </c>
       <c r="J3">
-        <v>0.9775727830362054</v>
+        <v>1.07415460483728</v>
       </c>
       <c r="K3">
-        <v>1.048922978563976</v>
+        <v>1.079309641595211</v>
       </c>
       <c r="L3">
-        <v>0.9842670949385199</v>
+        <v>1.073589825767755</v>
       </c>
       <c r="M3">
-        <v>0.9859632243746426</v>
+        <v>1.085734020900891</v>
       </c>
       <c r="N3">
-        <v>0.9789610485172822</v>
+        <v>1.075680027583404</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9660405176532905</v>
+        <v>1.059283930013283</v>
       </c>
       <c r="D4">
-        <v>1.041616502033327</v>
+        <v>1.072236818811439</v>
       </c>
       <c r="E4">
-        <v>0.9824159613882617</v>
+        <v>1.06722678691767</v>
       </c>
       <c r="F4">
-        <v>0.9851212544319174</v>
+        <v>1.079368803460615</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051947793704348</v>
+        <v>1.079048140578839</v>
       </c>
       <c r="J4">
-        <v>0.9863546930809165</v>
+        <v>1.07728379075751</v>
       </c>
       <c r="K4">
-        <v>1.051237315543035</v>
+        <v>1.081535097609974</v>
       </c>
       <c r="L4">
-        <v>0.9927313477351352</v>
+        <v>1.076576293360785</v>
       </c>
       <c r="M4">
-        <v>0.9954026329669284</v>
+        <v>1.088595155268105</v>
       </c>
       <c r="N4">
-        <v>0.9877554298815562</v>
+        <v>1.078813657306563</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9701804784719774</v>
+        <v>1.061034086351007</v>
       </c>
       <c r="D5">
-        <v>1.04277606681084</v>
+        <v>1.073373772645947</v>
       </c>
       <c r="E5">
-        <v>0.9861090363995718</v>
+        <v>1.068684165741784</v>
       </c>
       <c r="F5">
-        <v>0.9892063180194617</v>
+        <v>1.080770468530192</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05271800473573</v>
+        <v>1.07972573980975</v>
       </c>
       <c r="J5">
-        <v>0.9899018552086645</v>
+        <v>1.078579375550411</v>
       </c>
       <c r="K5">
-        <v>1.052171880725329</v>
+        <v>1.082456092398913</v>
       </c>
       <c r="L5">
-        <v>0.9961491643524398</v>
+        <v>1.077813117151379</v>
       </c>
       <c r="M5">
-        <v>0.9992088628504814</v>
+        <v>1.089780235597045</v>
       </c>
       <c r="N5">
-        <v>0.9913076293863906</v>
+        <v>1.080111081978476</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.970866553211019</v>
+        <v>1.061326484651395</v>
       </c>
       <c r="D6">
-        <v>1.042968535768388</v>
+        <v>1.073563769777481</v>
       </c>
       <c r="E6">
-        <v>0.9867210337967902</v>
+        <v>1.068927708263114</v>
       </c>
       <c r="F6">
-        <v>0.9898828972290444</v>
+        <v>1.081004717787149</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052845273120688</v>
+        <v>1.079838793695741</v>
       </c>
       <c r="J6">
-        <v>0.9904895019604909</v>
+        <v>1.078795767486101</v>
       </c>
       <c r="K6">
-        <v>1.052326659687146</v>
+        <v>1.082609893554379</v>
       </c>
       <c r="L6">
-        <v>0.9967153199516099</v>
+        <v>1.078019713575068</v>
       </c>
       <c r="M6">
-        <v>0.9998390444457701</v>
+        <v>1.089978197970515</v>
       </c>
       <c r="N6">
-        <v>0.9918961106640087</v>
+        <v>1.080327781215535</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9660964551504758</v>
+        <v>1.059307414328206</v>
       </c>
       <c r="D7">
-        <v>1.04163214784646</v>
+        <v>1.072252071729211</v>
       </c>
       <c r="E7">
-        <v>0.982465861860036</v>
+        <v>1.067246338642038</v>
       </c>
       <c r="F7">
-        <v>0.9851764770221036</v>
+        <v>1.079387606585921</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051958225126014</v>
+        <v>1.079057243104075</v>
       </c>
       <c r="J7">
-        <v>0.9864026336756953</v>
+        <v>1.077301179528357</v>
       </c>
       <c r="K7">
-        <v>1.051249948871329</v>
+        <v>1.08154746050461</v>
       </c>
       <c r="L7">
-        <v>0.9927775444251775</v>
+        <v>1.076592892185946</v>
       </c>
       <c r="M7">
-        <v>0.9954541009191691</v>
+        <v>1.088611059048448</v>
       </c>
       <c r="N7">
-        <v>0.9878034385574783</v>
+        <v>1.07883107077146</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9446895575738723</v>
+        <v>1.050647957715859</v>
       </c>
       <c r="D8">
-        <v>1.03569475310772</v>
+        <v>1.066634068022357</v>
       </c>
       <c r="E8">
-        <v>0.9633692759929258</v>
+        <v>1.060044396245536</v>
       </c>
       <c r="F8">
-        <v>0.9639955500649439</v>
+        <v>1.072463584353274</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04792640546467</v>
+        <v>1.075683178360984</v>
       </c>
       <c r="J8">
-        <v>0.9680336125192607</v>
+        <v>1.070882461840949</v>
       </c>
       <c r="K8">
-        <v>1.046411985829701</v>
+        <v>1.076981197192598</v>
       </c>
       <c r="L8">
-        <v>0.9750694097922499</v>
+        <v>1.070468111780564</v>
       </c>
       <c r="M8">
-        <v>0.9756863685033413</v>
+        <v>1.082743929666969</v>
       </c>
       <c r="N8">
-        <v>0.9694083312840454</v>
+        <v>1.072403237768699</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8992094713580259</v>
+        <v>1.034467220363336</v>
       </c>
       <c r="D9">
-        <v>1.023510544581772</v>
+        <v>1.05617450616</v>
       </c>
       <c r="E9">
-        <v>0.9228317093901875</v>
+        <v>1.046628313361946</v>
       </c>
       <c r="F9">
-        <v>0.9187674772451391</v>
+        <v>1.059577279416654</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039232142347435</v>
+        <v>1.06929715767261</v>
       </c>
       <c r="J9">
-        <v>0.9289027327160529</v>
+        <v>1.058858926360845</v>
       </c>
       <c r="K9">
-        <v>1.036233357672992</v>
+        <v>1.068417499473802</v>
       </c>
       <c r="L9">
-        <v>0.937314529734106</v>
+        <v>1.05900761092706</v>
       </c>
       <c r="M9">
-        <v>0.9333320169098394</v>
+        <v>1.071772436437108</v>
       </c>
       <c r="N9">
-        <v>0.9302218811431424</v>
+        <v>1.060362627489094</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8598550299137879</v>
+        <v>1.022962399682635</v>
       </c>
       <c r="D10">
-        <v>1.013572320133619</v>
+        <v>1.048772346009006</v>
       </c>
       <c r="E10">
-        <v>0.887844899193402</v>
+        <v>1.037123367504484</v>
       </c>
       <c r="F10">
-        <v>0.8795073555798519</v>
+        <v>1.050457691061155</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031752255487251</v>
+        <v>1.064705505212823</v>
       </c>
       <c r="J10">
-        <v>0.8949912317707902</v>
+        <v>1.050293687775185</v>
       </c>
       <c r="K10">
-        <v>1.027700771150274</v>
+        <v>1.062313506632791</v>
       </c>
       <c r="L10">
-        <v>0.9045846129781068</v>
+        <v>1.050853207849406</v>
       </c>
       <c r="M10">
-        <v>0.8964559627257841</v>
+        <v>1.06397199796641</v>
       </c>
       <c r="N10">
-        <v>0.8962622219768338</v>
+        <v>1.051785225282195</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.838838616267464</v>
+        <v>1.017785517693812</v>
       </c>
       <c r="D11">
-        <v>1.008534132598329</v>
+        <v>1.04545203904458</v>
       </c>
       <c r="E11">
-        <v>0.8692146519101653</v>
+        <v>1.032856027532237</v>
       </c>
       <c r="F11">
-        <v>0.8585351623290837</v>
+        <v>1.04636619836846</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027827702676053</v>
+        <v>1.062628303522764</v>
       </c>
       <c r="J11">
-        <v>0.8768827132369241</v>
+        <v>1.046436669743543</v>
       </c>
       <c r="K11">
-        <v>1.023296882496049</v>
+        <v>1.059564849143305</v>
       </c>
       <c r="L11">
-        <v>0.8871107150061136</v>
+        <v>1.047183833105096</v>
       </c>
       <c r="M11">
-        <v>0.8767289720576912</v>
+        <v>1.060463664811236</v>
       </c>
       <c r="N11">
-        <v>0.8781279872695736</v>
+        <v>1.047922729842543</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8300939159153551</v>
+        <v>1.015830864438575</v>
       </c>
       <c r="D12">
-        <v>1.006497320491853</v>
+        <v>1.044200161239434</v>
       </c>
       <c r="E12">
-        <v>0.8614764716845773</v>
+        <v>1.031246387740485</v>
       </c>
       <c r="F12">
-        <v>0.84981276413412</v>
+        <v>1.044823357357969</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026214936567253</v>
+        <v>1.061842442228482</v>
       </c>
       <c r="J12">
-        <v>0.8693507743585983</v>
+        <v>1.044980023198129</v>
       </c>
       <c r="K12">
-        <v>1.021501091824657</v>
+        <v>1.058526872250589</v>
       </c>
       <c r="L12">
-        <v>0.8798444713079037</v>
+        <v>1.045798479579554</v>
       </c>
       <c r="M12">
-        <v>0.8685201426295295</v>
+        <v>1.059139407504318</v>
       </c>
       <c r="N12">
-        <v>0.8705853521741151</v>
+        <v>1.046464014691954</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8320213248738098</v>
+        <v>1.016251621392675</v>
       </c>
       <c r="D13">
-        <v>1.006943167190392</v>
+        <v>1.044469555391086</v>
       </c>
       <c r="E13">
-        <v>0.8631812888576393</v>
+        <v>1.031592802938308</v>
       </c>
       <c r="F13">
-        <v>0.8517349551147844</v>
+        <v>1.045155374680128</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026569276787263</v>
+        <v>1.062011675032636</v>
       </c>
       <c r="J13">
-        <v>0.8710106859417982</v>
+        <v>1.04529359338041</v>
       </c>
       <c r="K13">
-        <v>1.021894953833905</v>
+        <v>1.058750310856199</v>
       </c>
       <c r="L13">
-        <v>0.8814457205243222</v>
+        <v>1.046096682795212</v>
       </c>
       <c r="M13">
-        <v>0.8703293464526856</v>
+        <v>1.059424445617928</v>
       </c>
       <c r="N13">
-        <v>0.8722476210221575</v>
+        <v>1.046778030179861</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8381380559806184</v>
+        <v>1.017624607510345</v>
       </c>
       <c r="D14">
-        <v>1.008369642691177</v>
+        <v>1.045348945040301</v>
       </c>
       <c r="E14">
-        <v>0.8685944120070325</v>
+        <v>1.032723486168179</v>
       </c>
       <c r="F14">
-        <v>0.8578362690359607</v>
+        <v>1.04623914758003</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027698026123353</v>
+        <v>1.062563641328049</v>
       </c>
       <c r="J14">
-        <v>0.8762792320299541</v>
+        <v>1.046316762581847</v>
       </c>
       <c r="K14">
-        <v>1.023152191377305</v>
+        <v>1.059479403523335</v>
       </c>
       <c r="L14">
-        <v>0.8865284778068373</v>
+        <v>1.047069785728948</v>
       </c>
       <c r="M14">
-        <v>0.8760713132150273</v>
+        <v>1.060354640908189</v>
       </c>
       <c r="N14">
-        <v>0.8775236490500693</v>
+        <v>1.047802652398924</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8417669694619391</v>
+        <v>1.018466268987498</v>
       </c>
       <c r="D15">
-        <v>1.009224157565084</v>
+        <v>1.045888265305684</v>
       </c>
       <c r="E15">
-        <v>0.871807838495357</v>
+        <v>1.033416826639877</v>
       </c>
       <c r="F15">
-        <v>0.8614567373173114</v>
+        <v>1.046903785525125</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02837061006794</v>
+        <v>1.062901802218472</v>
       </c>
       <c r="J15">
-        <v>0.879405404477278</v>
+        <v>1.046943939250415</v>
       </c>
       <c r="K15">
-        <v>1.023903218364933</v>
+        <v>1.059926332384344</v>
       </c>
       <c r="L15">
-        <v>0.8895446780515149</v>
+        <v>1.047666330255867</v>
       </c>
       <c r="M15">
-        <v>0.8794780073158668</v>
+        <v>1.060924921515819</v>
       </c>
       <c r="N15">
-        <v>0.8806542610208453</v>
+        <v>1.048430719730299</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8611430510439847</v>
+        <v>1.023301660298064</v>
       </c>
       <c r="D16">
-        <v>1.013887461360972</v>
+        <v>1.048990172708039</v>
       </c>
       <c r="E16">
-        <v>0.8889880550480024</v>
+        <v>1.037403234439294</v>
       </c>
       <c r="F16">
-        <v>0.8807928421093474</v>
+        <v>1.050726087762756</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031994733199253</v>
+        <v>1.064841410482188</v>
       </c>
       <c r="J16">
-        <v>0.8961012231968557</v>
+        <v>1.050546400726361</v>
       </c>
       <c r="K16">
-        <v>1.027974465225419</v>
+        <v>1.062493606744105</v>
       </c>
       <c r="L16">
-        <v>0.9056558472785907</v>
+        <v>1.051093683628603</v>
       </c>
       <c r="M16">
-        <v>0.8976645781705671</v>
+        <v>1.064201958847403</v>
       </c>
       <c r="N16">
-        <v>0.8973737897180422</v>
+        <v>1.052038297114749</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8720672714543182</v>
+        <v>1.026280893495049</v>
       </c>
       <c r="D17">
-        <v>1.01658880689728</v>
+        <v>1.050904237655157</v>
       </c>
       <c r="E17">
-        <v>0.8986893504518398</v>
+        <v>1.039862007387685</v>
       </c>
       <c r="F17">
-        <v>0.8916951144115451</v>
+        <v>1.053084415212924</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034058921375985</v>
+        <v>1.066033626801379</v>
       </c>
       <c r="J17">
-        <v>0.9055157299639998</v>
+        <v>1.052765296496332</v>
       </c>
       <c r="K17">
-        <v>1.030312094452647</v>
+        <v>1.064074952865991</v>
       </c>
       <c r="L17">
-        <v>0.9147420540226575</v>
+        <v>1.053205435436563</v>
       </c>
       <c r="M17">
-        <v>0.9079119959193042</v>
+        <v>1.066221576408135</v>
       </c>
       <c r="N17">
-        <v>0.9068016661646546</v>
+        <v>1.054260343971223</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8780860010509148</v>
+        <v>1.027999969218191</v>
       </c>
       <c r="D18">
-        <v>1.018098435552355</v>
+        <v>1.052009664215282</v>
       </c>
       <c r="E18">
-        <v>0.9040384236640123</v>
+        <v>1.041281666949689</v>
       </c>
       <c r="F18">
-        <v>0.897700872133847</v>
+        <v>1.054446343883191</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035201386642951</v>
+        <v>1.066720508093291</v>
       </c>
       <c r="J18">
-        <v>0.9107025841712383</v>
+        <v>1.054045365184753</v>
       </c>
       <c r="K18">
-        <v>1.03161191173249</v>
+        <v>1.064987220539241</v>
       </c>
       <c r="L18">
-        <v>0.9197482546487624</v>
+        <v>1.054423939991986</v>
       </c>
       <c r="M18">
-        <v>0.9135546266406319</v>
+        <v>1.067387082455066</v>
       </c>
       <c r="N18">
-        <v>0.911995886299808</v>
+        <v>1.055542230504009</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8800847803129026</v>
+        <v>1.028583033163696</v>
       </c>
       <c r="D19">
-        <v>1.018603042386551</v>
+        <v>1.052384754281265</v>
       </c>
       <c r="E19">
-        <v>0.9058154184749474</v>
+        <v>1.041763325544555</v>
       </c>
       <c r="F19">
-        <v>0.899695117355336</v>
+        <v>1.054908459398689</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035581499429526</v>
+        <v>1.066953298602753</v>
       </c>
       <c r="J19">
-        <v>0.9124250441866214</v>
+        <v>1.054479480136693</v>
       </c>
       <c r="K19">
-        <v>1.032045343255283</v>
+        <v>1.065296599007858</v>
       </c>
       <c r="L19">
-        <v>0.9214107408242489</v>
+        <v>1.054837217414088</v>
       </c>
       <c r="M19">
-        <v>0.9154278909633907</v>
+        <v>1.067782411432867</v>
       </c>
       <c r="N19">
-        <v>0.9137207924059819</v>
+        <v>1.055976961948974</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8709333736231705</v>
+        <v>1.025963196637174</v>
       </c>
       <c r="D20">
-        <v>1.016306075149154</v>
+        <v>1.050700024726665</v>
       </c>
       <c r="E20">
-        <v>0.897681928608749</v>
+        <v>1.039599716494821</v>
       </c>
       <c r="F20">
-        <v>0.890563567547715</v>
+        <v>1.052832811599411</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033844071977448</v>
+        <v>1.065906600753653</v>
       </c>
       <c r="J20">
-        <v>0.9045385341716236</v>
+        <v>1.052528708024346</v>
       </c>
       <c r="K20">
-        <v>1.030068136221383</v>
+        <v>1.063906342436344</v>
       </c>
       <c r="L20">
-        <v>0.9137989063000598</v>
+        <v>1.052980245300042</v>
       </c>
       <c r="M20">
-        <v>0.9068486690434634</v>
+        <v>1.066006193914588</v>
       </c>
       <c r="N20">
-        <v>0.9058230826421674</v>
+        <v>1.05402341951647</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.836367096058892</v>
+        <v>1.017221193775356</v>
       </c>
       <c r="D21">
-        <v>1.007954841531163</v>
+        <v>1.045090510152488</v>
       </c>
       <c r="E21">
-        <v>0.8670267355488559</v>
+        <v>1.032391221334359</v>
       </c>
       <c r="F21">
-        <v>0.8560696081508062</v>
+        <v>1.04592065464576</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027370574286741</v>
+        <v>1.062401503591035</v>
       </c>
       <c r="J21">
-        <v>0.874753737147506</v>
+        <v>1.046016141334736</v>
       </c>
       <c r="K21">
-        <v>1.022787058112618</v>
+        <v>1.059265183027884</v>
       </c>
       <c r="L21">
-        <v>0.8850567169341319</v>
+        <v>1.046783862634483</v>
       </c>
       <c r="M21">
-        <v>0.8744088173251603</v>
+        <v>1.060081316809044</v>
       </c>
       <c r="N21">
-        <v>0.8759959877899114</v>
+        <v>1.04750160423516</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8086884711890054</v>
+        <v>1.011539789153576</v>
       </c>
       <c r="D22">
-        <v>1.001666129496322</v>
+        <v>1.041455427104109</v>
       </c>
       <c r="E22">
-        <v>0.8425738622434802</v>
+        <v>1.027715835644355</v>
       </c>
       <c r="F22">
-        <v>0.8284812004150972</v>
+        <v>1.041440235617758</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022326732152664</v>
+        <v>1.060114463559094</v>
       </c>
       <c r="J22">
-        <v>0.8509256376911456</v>
+        <v>1.041781714422578</v>
       </c>
       <c r="K22">
-        <v>1.017204652136448</v>
+        <v>1.056248071936579</v>
       </c>
       <c r="L22">
-        <v>0.8620754226490784</v>
+        <v>1.042757530842458</v>
       </c>
       <c r="M22">
-        <v>0.8484363146176337</v>
+        <v>1.056233151107733</v>
       </c>
       <c r="N22">
-        <v>0.852134049699202</v>
+        <v>1.043261163951091</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8241543431842059</v>
+        <v>1.01457001331405</v>
       </c>
       <c r="D23">
-        <v>1.005134494413794</v>
+        <v>1.043393165936893</v>
       </c>
       <c r="E23">
-        <v>0.8562256068415257</v>
+        <v>1.03020855665691</v>
       </c>
       <c r="F23">
-        <v>0.8438905469872904</v>
+        <v>1.04382873340425</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025127192417944</v>
+        <v>1.061335093525938</v>
       </c>
       <c r="J23">
-        <v>0.8642363189837421</v>
+        <v>1.044040328678817</v>
       </c>
       <c r="K23">
-        <v>1.020294446923656</v>
+        <v>1.057857299317284</v>
       </c>
       <c r="L23">
-        <v>0.8749111849777843</v>
+        <v>1.044904901350942</v>
       </c>
       <c r="M23">
-        <v>0.8629454097961353</v>
+        <v>1.058285324943477</v>
       </c>
       <c r="N23">
-        <v>0.8654636336859903</v>
+        <v>1.04552298569864</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8714468039989828</v>
+        <v>1.026106807661286</v>
       </c>
       <c r="D24">
-        <v>1.016434030108554</v>
+        <v>1.050792333705023</v>
       </c>
       <c r="E24">
-        <v>0.8981380777779053</v>
+        <v>1.039718279140429</v>
       </c>
       <c r="F24">
-        <v>0.8910759364374178</v>
+        <v>1.052946542484092</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033941340169378</v>
+        <v>1.065964024612321</v>
       </c>
       <c r="J24">
-        <v>0.9049810101045751</v>
+        <v>1.052635655851429</v>
       </c>
       <c r="K24">
-        <v>1.030178563969614</v>
+        <v>1.063982561374229</v>
       </c>
       <c r="L24">
-        <v>0.9142259645731672</v>
+        <v>1.053082039842135</v>
       </c>
       <c r="M24">
-        <v>0.9073301551940915</v>
+        <v>1.06610355452071</v>
       </c>
       <c r="N24">
-        <v>0.9062661869416967</v>
+        <v>1.054130519221735</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9121763209779146</v>
+        <v>1.038769066110691</v>
       </c>
       <c r="D25">
-        <v>1.0269153352885</v>
+        <v>1.058950035688879</v>
       </c>
       <c r="E25">
-        <v>0.9343811090094066</v>
+        <v>1.050189770808627</v>
       </c>
       <c r="F25">
-        <v>0.9316852829923367</v>
+        <v>1.062996523798976</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041715555926628</v>
+        <v>1.071004007235138</v>
       </c>
       <c r="J25">
-        <v>0.9400694490587281</v>
+        <v>1.062058609781701</v>
       </c>
       <c r="K25">
-        <v>1.039109714542008</v>
+        <v>1.070697305881377</v>
       </c>
       <c r="L25">
-        <v>0.9480913203760017</v>
+        <v>1.062055894556385</v>
       </c>
       <c r="M25">
-        <v>0.9454455448098327</v>
+        <v>1.074689724273641</v>
       </c>
       <c r="N25">
-        <v>0.9414044555038645</v>
+        <v>1.063566854827416</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.048359399489438</v>
+        <v>1.078283938229475</v>
       </c>
       <c r="D2">
-        <v>1.065151540192805</v>
+        <v>1.074571689955286</v>
       </c>
       <c r="E2">
-        <v>1.058143560562852</v>
+        <v>1.080817204628942</v>
       </c>
       <c r="F2">
-        <v>1.070636839644263</v>
+        <v>1.08924329764285</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.074785945200688</v>
+        <v>1.063968640316946</v>
       </c>
       <c r="J2">
-        <v>1.069183998109693</v>
+        <v>1.083174181525269</v>
       </c>
       <c r="K2">
-        <v>1.075772126627656</v>
+        <v>1.077260549269478</v>
       </c>
       <c r="L2">
-        <v>1.068848206573651</v>
+        <v>1.083489648568651</v>
       </c>
       <c r="M2">
-        <v>1.0811925812943</v>
+        <v>1.091893916778798</v>
       </c>
       <c r="N2">
-        <v>1.070702362024127</v>
+        <v>1.08471241310485</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.055060142604448</v>
+        <v>1.079645288707404</v>
       </c>
       <c r="D3">
-        <v>1.069494959795242</v>
+        <v>1.075445756466667</v>
       </c>
       <c r="E3">
-        <v>1.063712072535681</v>
+        <v>1.081981253421026</v>
       </c>
       <c r="F3">
-        <v>1.075989178824545</v>
+        <v>1.090358272207764</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.077406645903519</v>
+        <v>1.064412962390437</v>
       </c>
       <c r="J3">
-        <v>1.07415460483728</v>
+        <v>1.084194143277961</v>
       </c>
       <c r="K3">
-        <v>1.079309641595211</v>
+        <v>1.077951626299769</v>
       </c>
       <c r="L3">
-        <v>1.073589825767755</v>
+        <v>1.084471187776625</v>
       </c>
       <c r="M3">
-        <v>1.085734020900891</v>
+        <v>1.092828080983467</v>
       </c>
       <c r="N3">
-        <v>1.075680027583404</v>
+        <v>1.085733823320222</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.059283930013283</v>
+        <v>1.080525682286966</v>
       </c>
       <c r="D4">
-        <v>1.072236818811439</v>
+        <v>1.076010897528084</v>
       </c>
       <c r="E4">
-        <v>1.06722678691767</v>
+        <v>1.082734143397934</v>
       </c>
       <c r="F4">
-        <v>1.079368803460615</v>
+        <v>1.091079497774404</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.079048140578839</v>
+        <v>1.064698939183223</v>
       </c>
       <c r="J4">
-        <v>1.07728379075751</v>
+        <v>1.084853115502467</v>
       </c>
       <c r="K4">
-        <v>1.081535097609974</v>
+        <v>1.078397718892392</v>
       </c>
       <c r="L4">
-        <v>1.076576293360785</v>
+        <v>1.085105396899392</v>
       </c>
       <c r="M4">
-        <v>1.088595155268105</v>
+        <v>1.093431713187621</v>
       </c>
       <c r="N4">
-        <v>1.078813657306563</v>
+        <v>1.086393731360872</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.061034086351007</v>
+        <v>1.08089568566833</v>
       </c>
       <c r="D5">
-        <v>1.073373772645947</v>
+        <v>1.076248378854061</v>
       </c>
       <c r="E5">
-        <v>1.068684165741784</v>
+        <v>1.083050582162135</v>
       </c>
       <c r="F5">
-        <v>1.080770468530192</v>
+        <v>1.091382645906755</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.07972573980975</v>
+        <v>1.064818798737808</v>
       </c>
       <c r="J5">
-        <v>1.078579375550411</v>
+        <v>1.085129907685734</v>
       </c>
       <c r="K5">
-        <v>1.082456092398913</v>
+        <v>1.0785849986946</v>
       </c>
       <c r="L5">
-        <v>1.077813117151379</v>
+        <v>1.0853718020588</v>
       </c>
       <c r="M5">
-        <v>1.089780235597045</v>
+        <v>1.0936852820943</v>
       </c>
       <c r="N5">
-        <v>1.080111081978476</v>
+        <v>1.086670916620788</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.061326484651395</v>
+        <v>1.080957804276632</v>
       </c>
       <c r="D6">
-        <v>1.073563769777481</v>
+        <v>1.076288246944889</v>
       </c>
       <c r="E6">
-        <v>1.068927708263114</v>
+        <v>1.083103709219707</v>
       </c>
       <c r="F6">
-        <v>1.081004717787149</v>
+        <v>1.091433542632605</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.079838793695741</v>
+        <v>1.064838902305281</v>
       </c>
       <c r="J6">
-        <v>1.078795767486101</v>
+        <v>1.085176368321043</v>
       </c>
       <c r="K6">
-        <v>1.082609893554379</v>
+        <v>1.078616428729209</v>
       </c>
       <c r="L6">
-        <v>1.078019713575068</v>
+        <v>1.085416520030178</v>
       </c>
       <c r="M6">
-        <v>1.089978197970515</v>
+        <v>1.093727845864064</v>
       </c>
       <c r="N6">
-        <v>1.080327781215535</v>
+        <v>1.086717443235528</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.059307414328206</v>
+        <v>1.080530626734124</v>
       </c>
       <c r="D7">
-        <v>1.072252071729211</v>
+        <v>1.076014071172525</v>
       </c>
       <c r="E7">
-        <v>1.067246338642038</v>
+        <v>1.082738371964786</v>
       </c>
       <c r="F7">
-        <v>1.079387606585921</v>
+        <v>1.091083548668873</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.079057243104075</v>
+        <v>1.064700542185731</v>
       </c>
       <c r="J7">
-        <v>1.077301179528357</v>
+        <v>1.084856814952256</v>
       </c>
       <c r="K7">
-        <v>1.08154746050461</v>
+        <v>1.078400222344754</v>
       </c>
       <c r="L7">
-        <v>1.076592892185946</v>
+        <v>1.085108957465727</v>
       </c>
       <c r="M7">
-        <v>1.088611059048448</v>
+        <v>1.093435102163925</v>
       </c>
       <c r="N7">
-        <v>1.07883107077146</v>
+        <v>1.086397436064304</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.050647957715859</v>
+        <v>1.078744116824203</v>
       </c>
       <c r="D8">
-        <v>1.066634068022357</v>
+        <v>1.074867176195765</v>
       </c>
       <c r="E8">
-        <v>1.060044396245536</v>
+        <v>1.081210669493478</v>
       </c>
       <c r="F8">
-        <v>1.072463584353274</v>
+        <v>1.089620158767348</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.075683178360984</v>
+        <v>1.064119118313351</v>
       </c>
       <c r="J8">
-        <v>1.070882461840949</v>
+        <v>1.083519093174008</v>
       </c>
       <c r="K8">
-        <v>1.076981197192598</v>
+        <v>1.077494326390703</v>
       </c>
       <c r="L8">
-        <v>1.070468111780564</v>
+        <v>1.083821554500429</v>
       </c>
       <c r="M8">
-        <v>1.082743929666969</v>
+        <v>1.092209795765199</v>
       </c>
       <c r="N8">
-        <v>1.072403237768699</v>
+        <v>1.085057814567692</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.034467220363336</v>
+        <v>1.07559213835523</v>
       </c>
       <c r="D9">
-        <v>1.05617450616</v>
+        <v>1.072842798356619</v>
       </c>
       <c r="E9">
-        <v>1.046628313361946</v>
+        <v>1.078516055709397</v>
       </c>
       <c r="F9">
-        <v>1.059577279416654</v>
+        <v>1.087039579805649</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.06929715767261</v>
+        <v>1.063082816265241</v>
       </c>
       <c r="J9">
-        <v>1.058858926360845</v>
+        <v>1.081154006062022</v>
       </c>
       <c r="K9">
-        <v>1.068417499473802</v>
+        <v>1.075889695506703</v>
       </c>
       <c r="L9">
-        <v>1.05900761092706</v>
+        <v>1.081545905270392</v>
       </c>
       <c r="M9">
-        <v>1.071772436437108</v>
+        <v>1.090044181075678</v>
       </c>
       <c r="N9">
-        <v>1.060362627489094</v>
+        <v>1.082689368760728</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.022962399682635</v>
+        <v>1.073487961692801</v>
       </c>
       <c r="D10">
-        <v>1.048772346009006</v>
+        <v>1.071490860639548</v>
       </c>
       <c r="E10">
-        <v>1.037123367504484</v>
+        <v>1.076717752956773</v>
       </c>
       <c r="F10">
-        <v>1.050457691061155</v>
+        <v>1.085317803002058</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.064705505212823</v>
+        <v>1.062383976172358</v>
       </c>
       <c r="J10">
-        <v>1.050293687775185</v>
+        <v>1.079571853546805</v>
       </c>
       <c r="K10">
-        <v>1.062313506632791</v>
+        <v>1.074814269410431</v>
       </c>
       <c r="L10">
-        <v>1.050853207849406</v>
+        <v>1.080023913091883</v>
       </c>
       <c r="M10">
-        <v>1.06397199796641</v>
+        <v>1.088595979238511</v>
       </c>
       <c r="N10">
-        <v>1.051785225282195</v>
+        <v>1.081104969407465</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.017785517693812</v>
+        <v>1.072576102132534</v>
       </c>
       <c r="D11">
-        <v>1.04545203904458</v>
+        <v>1.070904883444002</v>
       </c>
       <c r="E11">
-        <v>1.032856027532237</v>
+        <v>1.07593858682275</v>
       </c>
       <c r="F11">
-        <v>1.04636619836846</v>
+        <v>1.084571898578918</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.062628303522764</v>
+        <v>1.062079464706291</v>
       </c>
       <c r="J11">
-        <v>1.046436669743543</v>
+        <v>1.078885442737491</v>
       </c>
       <c r="K11">
-        <v>1.059564849143305</v>
+        <v>1.074347235598203</v>
       </c>
       <c r="L11">
-        <v>1.047183833105096</v>
+        <v>1.079363683184279</v>
       </c>
       <c r="M11">
-        <v>1.060463664811236</v>
+        <v>1.08796780917987</v>
       </c>
       <c r="N11">
-        <v>1.047922729842543</v>
+        <v>1.080417583816069</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.015830864438575</v>
+        <v>1.072237281741689</v>
       </c>
       <c r="D12">
-        <v>1.044200161239434</v>
+        <v>1.070687136987171</v>
       </c>
       <c r="E12">
-        <v>1.031246387740485</v>
+        <v>1.075649093479795</v>
       </c>
       <c r="F12">
-        <v>1.044823357357969</v>
+        <v>1.08429477946964</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.061842442228482</v>
+        <v>1.061966067397612</v>
       </c>
       <c r="J12">
-        <v>1.044980023198129</v>
+        <v>1.078630276622055</v>
       </c>
       <c r="K12">
-        <v>1.058526872250589</v>
+        <v>1.074173551480362</v>
       </c>
       <c r="L12">
-        <v>1.045798479579554</v>
+        <v>1.07911826185083</v>
       </c>
       <c r="M12">
-        <v>1.059139407504318</v>
+        <v>1.087734312966962</v>
       </c>
       <c r="N12">
-        <v>1.046464014691954</v>
+        <v>1.08016205533548</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.016251621392675</v>
+        <v>1.072309965147198</v>
       </c>
       <c r="D13">
-        <v>1.044469555391086</v>
+        <v>1.070733848365991</v>
       </c>
       <c r="E13">
-        <v>1.031592802938308</v>
+        <v>1.075711194285467</v>
       </c>
       <c r="F13">
-        <v>1.045155374680128</v>
+        <v>1.084354225076332</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.062011675032636</v>
+        <v>1.06199040456863</v>
       </c>
       <c r="J13">
-        <v>1.04529359338041</v>
+        <v>1.078685019835581</v>
       </c>
       <c r="K13">
-        <v>1.058750310856199</v>
+        <v>1.074210816703917</v>
       </c>
       <c r="L13">
-        <v>1.046096682795212</v>
+        <v>1.079170913863756</v>
       </c>
       <c r="M13">
-        <v>1.059424445617928</v>
+        <v>1.08778440624021</v>
       </c>
       <c r="N13">
-        <v>1.046778030179861</v>
+        <v>1.080216876290648</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.017624607510345</v>
+        <v>1.07254809750783</v>
       </c>
       <c r="D14">
-        <v>1.045348945040301</v>
+        <v>1.070886886266214</v>
       </c>
       <c r="E14">
-        <v>1.032723486168179</v>
+        <v>1.075914658786753</v>
       </c>
       <c r="F14">
-        <v>1.04623914758003</v>
+        <v>1.084548993003227</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.062563641328049</v>
+        <v>1.062070097136359</v>
       </c>
       <c r="J14">
-        <v>1.046316762581847</v>
+        <v>1.078864354776787</v>
       </c>
       <c r="K14">
-        <v>1.059479403523335</v>
+        <v>1.074332883045901</v>
       </c>
       <c r="L14">
-        <v>1.047069785728948</v>
+        <v>1.079343400319751</v>
       </c>
       <c r="M14">
-        <v>1.060354640908189</v>
+        <v>1.087948511707146</v>
       </c>
       <c r="N14">
-        <v>1.047802652398924</v>
+        <v>1.080396465908042</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.018466268987498</v>
+        <v>1.072694803324366</v>
       </c>
       <c r="D15">
-        <v>1.045888265305684</v>
+        <v>1.07098116620645</v>
       </c>
       <c r="E15">
-        <v>1.033416826639877</v>
+        <v>1.076040009778658</v>
       </c>
       <c r="F15">
-        <v>1.046903785525125</v>
+        <v>1.084668988328167</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.062901802218472</v>
+        <v>1.062119160128189</v>
       </c>
       <c r="J15">
-        <v>1.046943939250415</v>
+        <v>1.078974822018973</v>
       </c>
       <c r="K15">
-        <v>1.059926332384344</v>
+        <v>1.074408064676291</v>
       </c>
       <c r="L15">
-        <v>1.047666330255867</v>
+        <v>1.079449650648338</v>
       </c>
       <c r="M15">
-        <v>1.060924921515819</v>
+        <v>1.088049600452557</v>
       </c>
       <c r="N15">
-        <v>1.048430719730299</v>
+        <v>1.080507090026382</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.023301660298064</v>
+        <v>1.073548462902199</v>
       </c>
       <c r="D16">
-        <v>1.048990172708039</v>
+        <v>1.071529737691953</v>
       </c>
       <c r="E16">
-        <v>1.037403234439294</v>
+        <v>1.076769453097148</v>
       </c>
       <c r="F16">
-        <v>1.050726087762756</v>
+        <v>1.085367298358654</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.064841410482188</v>
+        <v>1.062404145256061</v>
       </c>
       <c r="J16">
-        <v>1.050546400726361</v>
+        <v>1.079617380128374</v>
       </c>
       <c r="K16">
-        <v>1.062493606744105</v>
+        <v>1.074845235968058</v>
       </c>
       <c r="L16">
-        <v>1.051093683628603</v>
+        <v>1.080067704923586</v>
       </c>
       <c r="M16">
-        <v>1.064201958847403</v>
+        <v>1.088637645677755</v>
       </c>
       <c r="N16">
-        <v>1.052038297114749</v>
+        <v>1.081150560642</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.026280893495049</v>
+        <v>1.074083740538007</v>
       </c>
       <c r="D17">
-        <v>1.050904237655157</v>
+        <v>1.071873686018496</v>
       </c>
       <c r="E17">
-        <v>1.039862007387685</v>
+        <v>1.077226880640316</v>
       </c>
       <c r="F17">
-        <v>1.053084415212924</v>
+        <v>1.085805230759645</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.066033626801379</v>
+        <v>1.062582396811504</v>
       </c>
       <c r="J17">
-        <v>1.052765296496332</v>
+        <v>1.080020082099336</v>
       </c>
       <c r="K17">
-        <v>1.064074952865991</v>
+        <v>1.075119094830085</v>
       </c>
       <c r="L17">
-        <v>1.053205435436563</v>
+        <v>1.080455071617332</v>
       </c>
       <c r="M17">
-        <v>1.066221576408135</v>
+        <v>1.089006217735434</v>
       </c>
       <c r="N17">
-        <v>1.054260343971223</v>
+        <v>1.081553834495953</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.027999969218191</v>
+        <v>1.074395888098356</v>
       </c>
       <c r="D18">
-        <v>1.052009664215282</v>
+        <v>1.072074249466588</v>
       </c>
       <c r="E18">
-        <v>1.041281666949689</v>
+        <v>1.077493643383414</v>
       </c>
       <c r="F18">
-        <v>1.054446343883191</v>
+        <v>1.086060634388256</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.066720508093291</v>
+        <v>1.062686183821598</v>
       </c>
       <c r="J18">
-        <v>1.054045365184753</v>
+        <v>1.08025484338623</v>
       </c>
       <c r="K18">
-        <v>1.064987220539241</v>
+        <v>1.075278700260843</v>
       </c>
       <c r="L18">
-        <v>1.054423939991986</v>
+        <v>1.080680900720922</v>
       </c>
       <c r="M18">
-        <v>1.067387082455066</v>
+        <v>1.089221094651951</v>
       </c>
       <c r="N18">
-        <v>1.055542230504009</v>
+        <v>1.081788929170801</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.028583033163696</v>
+        <v>1.074502310468443</v>
       </c>
       <c r="D19">
-        <v>1.052384754281265</v>
+        <v>1.072142626998265</v>
       </c>
       <c r="E19">
-        <v>1.041763325544555</v>
+        <v>1.077584594698158</v>
       </c>
       <c r="F19">
-        <v>1.054908459398689</v>
+        <v>1.086147714570923</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.066953298602753</v>
+        <v>1.062721541323503</v>
       </c>
       <c r="J19">
-        <v>1.054479480136693</v>
+        <v>1.080334869304679</v>
       </c>
       <c r="K19">
-        <v>1.065296599007858</v>
+        <v>1.075333099277517</v>
       </c>
       <c r="L19">
-        <v>1.054837217414088</v>
+        <v>1.080757883126864</v>
       </c>
       <c r="M19">
-        <v>1.067782411432867</v>
+        <v>1.089294344397555</v>
       </c>
       <c r="N19">
-        <v>1.055976961948974</v>
+        <v>1.081869068735234</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.025963196637174</v>
+        <v>1.074026317672894</v>
       </c>
       <c r="D20">
-        <v>1.050700024726665</v>
+        <v>1.071836789399997</v>
       </c>
       <c r="E20">
-        <v>1.039599716494821</v>
+        <v>1.077177807877642</v>
       </c>
       <c r="F20">
-        <v>1.052832811599411</v>
+        <v>1.085758248388826</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.065906600753653</v>
+        <v>1.062563291160075</v>
       </c>
       <c r="J20">
-        <v>1.052528708024346</v>
+        <v>1.079976889247376</v>
       </c>
       <c r="K20">
-        <v>1.063906342436344</v>
+        <v>1.075089726011734</v>
       </c>
       <c r="L20">
-        <v>1.052980245300042</v>
+        <v>1.080413522787182</v>
       </c>
       <c r="M20">
-        <v>1.066006193914588</v>
+        <v>1.088966684312404</v>
       </c>
       <c r="N20">
-        <v>1.05402341951647</v>
+        <v>1.081510580305188</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.017221193775356</v>
+        <v>1.072477976676994</v>
       </c>
       <c r="D21">
-        <v>1.045090510152488</v>
+        <v>1.07084182287161</v>
       </c>
       <c r="E21">
-        <v>1.032391221334359</v>
+        <v>1.075854745692923</v>
       </c>
       <c r="F21">
-        <v>1.04592065464576</v>
+        <v>1.084491640295515</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.062401503591035</v>
+        <v>1.062046637627996</v>
       </c>
       <c r="J21">
-        <v>1.046016141334736</v>
+        <v>1.078811550722809</v>
       </c>
       <c r="K21">
-        <v>1.059265183027884</v>
+        <v>1.074296943276405</v>
       </c>
       <c r="L21">
-        <v>1.046783862634483</v>
+        <v>1.079292612418358</v>
       </c>
       <c r="M21">
-        <v>1.060081316809044</v>
+        <v>1.087900191334744</v>
       </c>
       <c r="N21">
-        <v>1.04750160423516</v>
+        <v>1.080343586866251</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.011539789153576</v>
+        <v>1.071503804831599</v>
       </c>
       <c r="D22">
-        <v>1.041455427104109</v>
+        <v>1.070215735557026</v>
       </c>
       <c r="E22">
-        <v>1.027715835644355</v>
+        <v>1.07502244083471</v>
       </c>
       <c r="F22">
-        <v>1.041440235617758</v>
+        <v>1.083694942586334</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.060114463559094</v>
+        <v>1.061720128974639</v>
       </c>
       <c r="J22">
-        <v>1.041781714422578</v>
+        <v>1.078077682584572</v>
       </c>
       <c r="K22">
-        <v>1.056248071936579</v>
+        <v>1.073797291091529</v>
       </c>
       <c r="L22">
-        <v>1.042757530842458</v>
+        <v>1.078586794076239</v>
       </c>
       <c r="M22">
-        <v>1.056233151107733</v>
+        <v>1.087228683992642</v>
       </c>
       <c r="N22">
-        <v>1.043261163951091</v>
+        <v>1.07960867655108</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.01457001331405</v>
+        <v>1.072020296586988</v>
       </c>
       <c r="D23">
-        <v>1.043393165936893</v>
+        <v>1.070547685328186</v>
       </c>
       <c r="E23">
-        <v>1.03020855665691</v>
+        <v>1.07546370434889</v>
       </c>
       <c r="F23">
-        <v>1.04382873340425</v>
+        <v>1.084117319271977</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.061335093525938</v>
+        <v>1.061893375962433</v>
       </c>
       <c r="J23">
-        <v>1.044040328678817</v>
+        <v>1.078466832217219</v>
       </c>
       <c r="K23">
-        <v>1.057857299317284</v>
+        <v>1.074062280266478</v>
       </c>
       <c r="L23">
-        <v>1.044904901350942</v>
+        <v>1.078961062868363</v>
       </c>
       <c r="M23">
-        <v>1.058285324943477</v>
+        <v>1.087584754575978</v>
       </c>
       <c r="N23">
-        <v>1.04552298569864</v>
+        <v>1.079998378820842</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.026106807661286</v>
+        <v>1.07405226481257</v>
       </c>
       <c r="D24">
-        <v>1.050792333705023</v>
+        <v>1.071853461566149</v>
       </c>
       <c r="E24">
-        <v>1.039718279140429</v>
+        <v>1.077199981891973</v>
       </c>
       <c r="F24">
-        <v>1.052946542484092</v>
+        <v>1.085779477807805</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.065964024612321</v>
+        <v>1.062571924750398</v>
       </c>
       <c r="J24">
-        <v>1.052635655851429</v>
+        <v>1.079996406633247</v>
       </c>
       <c r="K24">
-        <v>1.063982561374229</v>
+        <v>1.075102996923861</v>
       </c>
       <c r="L24">
-        <v>1.053082039842135</v>
+        <v>1.080432297271386</v>
       </c>
       <c r="M24">
-        <v>1.06610355452071</v>
+        <v>1.088984548088769</v>
       </c>
       <c r="N24">
-        <v>1.054130519221735</v>
+        <v>1.081530125407986</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.038769066110691</v>
+        <v>1.076407487698094</v>
       </c>
       <c r="D25">
-        <v>1.058950035688879</v>
+        <v>1.073366558401841</v>
       </c>
       <c r="E25">
-        <v>1.050189770808627</v>
+        <v>1.079213001357134</v>
       </c>
       <c r="F25">
-        <v>1.062996523798976</v>
+        <v>1.087706958071534</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.071004007235138</v>
+        <v>1.063352125459274</v>
       </c>
       <c r="J25">
-        <v>1.062058609781701</v>
+        <v>1.0817663834568</v>
       </c>
       <c r="K25">
-        <v>1.070697305881377</v>
+        <v>1.076305525369409</v>
       </c>
       <c r="L25">
-        <v>1.062055894556385</v>
+        <v>1.082135067808673</v>
       </c>
       <c r="M25">
-        <v>1.074689724273641</v>
+        <v>1.090604822181247</v>
       </c>
       <c r="N25">
-        <v>1.063566854827416</v>
+        <v>1.083302615801647</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.078283938229475</v>
+        <v>1.048359399489438</v>
       </c>
       <c r="D2">
-        <v>1.074571689955286</v>
+        <v>1.065151540192805</v>
       </c>
       <c r="E2">
-        <v>1.080817204628942</v>
+        <v>1.058143560562852</v>
       </c>
       <c r="F2">
-        <v>1.08924329764285</v>
+        <v>1.070636839644263</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.063968640316946</v>
+        <v>1.074785945200688</v>
       </c>
       <c r="J2">
-        <v>1.083174181525269</v>
+        <v>1.069183998109693</v>
       </c>
       <c r="K2">
-        <v>1.077260549269478</v>
+        <v>1.075772126627657</v>
       </c>
       <c r="L2">
-        <v>1.083489648568651</v>
+        <v>1.068848206573651</v>
       </c>
       <c r="M2">
-        <v>1.091893916778798</v>
+        <v>1.0811925812943</v>
       </c>
       <c r="N2">
-        <v>1.08471241310485</v>
+        <v>1.070702362024127</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.079645288707404</v>
+        <v>1.055060142604448</v>
       </c>
       <c r="D3">
-        <v>1.075445756466667</v>
+        <v>1.069494959795241</v>
       </c>
       <c r="E3">
-        <v>1.081981253421026</v>
+        <v>1.06371207253568</v>
       </c>
       <c r="F3">
-        <v>1.090358272207764</v>
+        <v>1.075989178824545</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064412962390437</v>
+        <v>1.077406645903519</v>
       </c>
       <c r="J3">
-        <v>1.084194143277961</v>
+        <v>1.074154604837279</v>
       </c>
       <c r="K3">
-        <v>1.077951626299769</v>
+        <v>1.079309641595211</v>
       </c>
       <c r="L3">
-        <v>1.084471187776625</v>
+        <v>1.073589825767755</v>
       </c>
       <c r="M3">
-        <v>1.092828080983467</v>
+        <v>1.08573402090089</v>
       </c>
       <c r="N3">
-        <v>1.085733823320222</v>
+        <v>1.075680027583404</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.080525682286966</v>
+        <v>1.059283930013281</v>
       </c>
       <c r="D4">
-        <v>1.076010897528084</v>
+        <v>1.072236818811438</v>
       </c>
       <c r="E4">
-        <v>1.082734143397934</v>
+        <v>1.067226786917668</v>
       </c>
       <c r="F4">
-        <v>1.091079497774404</v>
+        <v>1.079368803460613</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064698939183223</v>
+        <v>1.079048140578839</v>
       </c>
       <c r="J4">
-        <v>1.084853115502467</v>
+        <v>1.077283790757508</v>
       </c>
       <c r="K4">
-        <v>1.078397718892392</v>
+        <v>1.081535097609973</v>
       </c>
       <c r="L4">
-        <v>1.085105396899392</v>
+        <v>1.076576293360782</v>
       </c>
       <c r="M4">
-        <v>1.093431713187621</v>
+        <v>1.088595155268103</v>
       </c>
       <c r="N4">
-        <v>1.086393731360872</v>
+        <v>1.078813657306562</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.08089568566833</v>
+        <v>1.061034086351006</v>
       </c>
       <c r="D5">
-        <v>1.076248378854061</v>
+        <v>1.073373772645946</v>
       </c>
       <c r="E5">
-        <v>1.083050582162135</v>
+        <v>1.068684165741784</v>
       </c>
       <c r="F5">
-        <v>1.091382645906755</v>
+        <v>1.080770468530191</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064818798737808</v>
+        <v>1.07972573980975</v>
       </c>
       <c r="J5">
-        <v>1.085129907685734</v>
+        <v>1.07857937555041</v>
       </c>
       <c r="K5">
-        <v>1.0785849986946</v>
+        <v>1.082456092398913</v>
       </c>
       <c r="L5">
-        <v>1.0853718020588</v>
+        <v>1.077813117151378</v>
       </c>
       <c r="M5">
-        <v>1.0936852820943</v>
+        <v>1.089780235597045</v>
       </c>
       <c r="N5">
-        <v>1.086670916620788</v>
+        <v>1.080111081978475</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.080957804276632</v>
+        <v>1.061326484651395</v>
       </c>
       <c r="D6">
-        <v>1.076288246944889</v>
+        <v>1.073563769777481</v>
       </c>
       <c r="E6">
-        <v>1.083103709219707</v>
+        <v>1.068927708263115</v>
       </c>
       <c r="F6">
-        <v>1.091433542632605</v>
+        <v>1.081004717787149</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064838902305281</v>
+        <v>1.079838793695742</v>
       </c>
       <c r="J6">
-        <v>1.085176368321043</v>
+        <v>1.078795767486101</v>
       </c>
       <c r="K6">
-        <v>1.078616428729209</v>
+        <v>1.082609893554378</v>
       </c>
       <c r="L6">
-        <v>1.085416520030178</v>
+        <v>1.078019713575068</v>
       </c>
       <c r="M6">
-        <v>1.093727845864064</v>
+        <v>1.089978197970515</v>
       </c>
       <c r="N6">
-        <v>1.086717443235528</v>
+        <v>1.080327781215536</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.080530626734124</v>
+        <v>1.059307414328206</v>
       </c>
       <c r="D7">
-        <v>1.076014071172525</v>
+        <v>1.072252071729211</v>
       </c>
       <c r="E7">
-        <v>1.082738371964786</v>
+        <v>1.067246338642039</v>
       </c>
       <c r="F7">
-        <v>1.091083548668873</v>
+        <v>1.079387606585921</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064700542185731</v>
+        <v>1.079057243104075</v>
       </c>
       <c r="J7">
-        <v>1.084856814952256</v>
+        <v>1.077301179528358</v>
       </c>
       <c r="K7">
-        <v>1.078400222344754</v>
+        <v>1.081547460504611</v>
       </c>
       <c r="L7">
-        <v>1.085108957465727</v>
+        <v>1.076592892185947</v>
       </c>
       <c r="M7">
-        <v>1.093435102163925</v>
+        <v>1.088611059048448</v>
       </c>
       <c r="N7">
-        <v>1.086397436064304</v>
+        <v>1.07883107077146</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.078744116824203</v>
+        <v>1.050647957715859</v>
       </c>
       <c r="D8">
-        <v>1.074867176195765</v>
+        <v>1.066634068022357</v>
       </c>
       <c r="E8">
-        <v>1.081210669493478</v>
+        <v>1.060044396245536</v>
       </c>
       <c r="F8">
-        <v>1.089620158767348</v>
+        <v>1.072463584353273</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.064119118313351</v>
+        <v>1.075683178360984</v>
       </c>
       <c r="J8">
-        <v>1.083519093174008</v>
+        <v>1.070882461840949</v>
       </c>
       <c r="K8">
-        <v>1.077494326390703</v>
+        <v>1.076981197192598</v>
       </c>
       <c r="L8">
-        <v>1.083821554500429</v>
+        <v>1.070468111780564</v>
       </c>
       <c r="M8">
-        <v>1.092209795765199</v>
+        <v>1.082743929666969</v>
       </c>
       <c r="N8">
-        <v>1.085057814567692</v>
+        <v>1.072403237768698</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.07559213835523</v>
+        <v>1.034467220363336</v>
       </c>
       <c r="D9">
-        <v>1.072842798356619</v>
+        <v>1.056174506159999</v>
       </c>
       <c r="E9">
-        <v>1.078516055709397</v>
+        <v>1.046628313361944</v>
       </c>
       <c r="F9">
-        <v>1.087039579805649</v>
+        <v>1.059577279416653</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.063082816265241</v>
+        <v>1.06929715767261</v>
       </c>
       <c r="J9">
-        <v>1.081154006062022</v>
+        <v>1.058858926360844</v>
       </c>
       <c r="K9">
-        <v>1.075889695506703</v>
+        <v>1.068417499473802</v>
       </c>
       <c r="L9">
-        <v>1.081545905270392</v>
+        <v>1.059007610927058</v>
       </c>
       <c r="M9">
-        <v>1.090044181075678</v>
+        <v>1.071772436437107</v>
       </c>
       <c r="N9">
-        <v>1.082689368760728</v>
+        <v>1.060362627489093</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.073487961692801</v>
+        <v>1.022962399682632</v>
       </c>
       <c r="D10">
-        <v>1.071490860639548</v>
+        <v>1.048772346009004</v>
       </c>
       <c r="E10">
-        <v>1.076717752956773</v>
+        <v>1.037123367504482</v>
       </c>
       <c r="F10">
-        <v>1.085317803002058</v>
+        <v>1.050457691061153</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.062383976172358</v>
+        <v>1.064705505212822</v>
       </c>
       <c r="J10">
-        <v>1.079571853546805</v>
+        <v>1.050293687775182</v>
       </c>
       <c r="K10">
-        <v>1.074814269410431</v>
+        <v>1.062313506632789</v>
       </c>
       <c r="L10">
-        <v>1.080023913091883</v>
+        <v>1.050853207849404</v>
       </c>
       <c r="M10">
-        <v>1.088595979238511</v>
+        <v>1.063971997966408</v>
       </c>
       <c r="N10">
-        <v>1.081104969407465</v>
+        <v>1.051785225282193</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.072576102132534</v>
+        <v>1.01778551769381</v>
       </c>
       <c r="D11">
-        <v>1.070904883444002</v>
+        <v>1.045452039044579</v>
       </c>
       <c r="E11">
-        <v>1.07593858682275</v>
+        <v>1.032856027532236</v>
       </c>
       <c r="F11">
-        <v>1.084571898578918</v>
+        <v>1.046366198368458</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.062079464706291</v>
+        <v>1.062628303522763</v>
       </c>
       <c r="J11">
-        <v>1.078885442737491</v>
+        <v>1.046436669743542</v>
       </c>
       <c r="K11">
-        <v>1.074347235598203</v>
+        <v>1.059564849143304</v>
       </c>
       <c r="L11">
-        <v>1.079363683184279</v>
+        <v>1.047183833105095</v>
       </c>
       <c r="M11">
-        <v>1.08796780917987</v>
+        <v>1.060463664811235</v>
       </c>
       <c r="N11">
-        <v>1.080417583816069</v>
+        <v>1.047922729842542</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.072237281741689</v>
+        <v>1.015830864438574</v>
       </c>
       <c r="D12">
-        <v>1.070687136987171</v>
+        <v>1.044200161239432</v>
       </c>
       <c r="E12">
-        <v>1.075649093479795</v>
+        <v>1.031246387740484</v>
       </c>
       <c r="F12">
-        <v>1.08429477946964</v>
+        <v>1.044823357357968</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.061966067397612</v>
+        <v>1.061842442228482</v>
       </c>
       <c r="J12">
-        <v>1.078630276622055</v>
+        <v>1.044980023198127</v>
       </c>
       <c r="K12">
-        <v>1.074173551480362</v>
+        <v>1.058526872250588</v>
       </c>
       <c r="L12">
-        <v>1.07911826185083</v>
+        <v>1.045798479579553</v>
       </c>
       <c r="M12">
-        <v>1.087734312966962</v>
+        <v>1.059139407504316</v>
       </c>
       <c r="N12">
-        <v>1.08016205533548</v>
+        <v>1.046464014691953</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.072309965147198</v>
+        <v>1.016251621392674</v>
       </c>
       <c r="D13">
-        <v>1.070733848365991</v>
+        <v>1.044469555391085</v>
       </c>
       <c r="E13">
-        <v>1.075711194285467</v>
+        <v>1.031592802938307</v>
       </c>
       <c r="F13">
-        <v>1.084354225076332</v>
+        <v>1.045155374680127</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.06199040456863</v>
+        <v>1.062011675032636</v>
       </c>
       <c r="J13">
-        <v>1.078685019835581</v>
+        <v>1.045293593380409</v>
       </c>
       <c r="K13">
-        <v>1.074210816703917</v>
+        <v>1.058750310856199</v>
       </c>
       <c r="L13">
-        <v>1.079170913863756</v>
+        <v>1.046096682795211</v>
       </c>
       <c r="M13">
-        <v>1.08778440624021</v>
+        <v>1.059424445617927</v>
       </c>
       <c r="N13">
-        <v>1.080216876290648</v>
+        <v>1.04677803017986</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.07254809750783</v>
+        <v>1.017624607510343</v>
       </c>
       <c r="D14">
-        <v>1.070886886266214</v>
+        <v>1.0453489450403</v>
       </c>
       <c r="E14">
-        <v>1.075914658786753</v>
+        <v>1.032723486168178</v>
       </c>
       <c r="F14">
-        <v>1.084548993003227</v>
+        <v>1.046239147580029</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.062070097136359</v>
+        <v>1.062563641328049</v>
       </c>
       <c r="J14">
-        <v>1.078864354776787</v>
+        <v>1.046316762581846</v>
       </c>
       <c r="K14">
-        <v>1.074332883045901</v>
+        <v>1.059479403523335</v>
       </c>
       <c r="L14">
-        <v>1.079343400319751</v>
+        <v>1.047069785728947</v>
       </c>
       <c r="M14">
-        <v>1.087948511707146</v>
+        <v>1.060354640908188</v>
       </c>
       <c r="N14">
-        <v>1.080396465908042</v>
+        <v>1.047802652398922</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.072694803324366</v>
+        <v>1.018466268987497</v>
       </c>
       <c r="D15">
-        <v>1.07098116620645</v>
+        <v>1.045888265305684</v>
       </c>
       <c r="E15">
-        <v>1.076040009778658</v>
+        <v>1.033416826639876</v>
       </c>
       <c r="F15">
-        <v>1.084668988328167</v>
+        <v>1.046903785525125</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.062119160128189</v>
+        <v>1.062901802218472</v>
       </c>
       <c r="J15">
-        <v>1.078974822018973</v>
+        <v>1.046943939250414</v>
       </c>
       <c r="K15">
-        <v>1.074408064676291</v>
+        <v>1.059926332384343</v>
       </c>
       <c r="L15">
-        <v>1.079449650648338</v>
+        <v>1.047666330255866</v>
       </c>
       <c r="M15">
-        <v>1.088049600452557</v>
+        <v>1.060924921515818</v>
       </c>
       <c r="N15">
-        <v>1.080507090026382</v>
+        <v>1.048430719730298</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.073548462902199</v>
+        <v>1.023301660298061</v>
       </c>
       <c r="D16">
-        <v>1.071529737691953</v>
+        <v>1.048990172708037</v>
       </c>
       <c r="E16">
-        <v>1.076769453097148</v>
+        <v>1.037403234439291</v>
       </c>
       <c r="F16">
-        <v>1.085367298358654</v>
+        <v>1.050726087762754</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.062404145256061</v>
+        <v>1.064841410482187</v>
       </c>
       <c r="J16">
-        <v>1.079617380128374</v>
+        <v>1.050546400726359</v>
       </c>
       <c r="K16">
-        <v>1.074845235968058</v>
+        <v>1.062493606744103</v>
       </c>
       <c r="L16">
-        <v>1.080067704923586</v>
+        <v>1.0510936836286</v>
       </c>
       <c r="M16">
-        <v>1.088637645677755</v>
+        <v>1.064201958847401</v>
       </c>
       <c r="N16">
-        <v>1.081150560642</v>
+        <v>1.052038297114746</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.074083740538007</v>
+        <v>1.026280893495049</v>
       </c>
       <c r="D17">
-        <v>1.071873686018496</v>
+        <v>1.050904237655156</v>
       </c>
       <c r="E17">
-        <v>1.077226880640316</v>
+        <v>1.039862007387684</v>
       </c>
       <c r="F17">
-        <v>1.085805230759645</v>
+        <v>1.053084415212924</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.062582396811504</v>
+        <v>1.066033626801378</v>
       </c>
       <c r="J17">
-        <v>1.080020082099336</v>
+        <v>1.052765296496331</v>
       </c>
       <c r="K17">
-        <v>1.075119094830085</v>
+        <v>1.064074952865991</v>
       </c>
       <c r="L17">
-        <v>1.080455071617332</v>
+        <v>1.053205435436563</v>
       </c>
       <c r="M17">
-        <v>1.089006217735434</v>
+        <v>1.066221576408134</v>
       </c>
       <c r="N17">
-        <v>1.081553834495953</v>
+        <v>1.054260343971223</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.074395888098356</v>
+        <v>1.02799996921819</v>
       </c>
       <c r="D18">
-        <v>1.072074249466588</v>
+        <v>1.052009664215282</v>
       </c>
       <c r="E18">
-        <v>1.077493643383414</v>
+        <v>1.041281666949689</v>
       </c>
       <c r="F18">
-        <v>1.086060634388256</v>
+        <v>1.054446343883191</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.062686183821598</v>
+        <v>1.066720508093291</v>
       </c>
       <c r="J18">
-        <v>1.08025484338623</v>
+        <v>1.054045365184753</v>
       </c>
       <c r="K18">
-        <v>1.075278700260843</v>
+        <v>1.064987220539241</v>
       </c>
       <c r="L18">
-        <v>1.080680900720922</v>
+        <v>1.054423939991985</v>
       </c>
       <c r="M18">
-        <v>1.089221094651951</v>
+        <v>1.067387082455065</v>
       </c>
       <c r="N18">
-        <v>1.081788929170801</v>
+        <v>1.055542230504009</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.074502310468443</v>
+        <v>1.028583033163694</v>
       </c>
       <c r="D19">
-        <v>1.072142626998265</v>
+        <v>1.052384754281264</v>
       </c>
       <c r="E19">
-        <v>1.077584594698158</v>
+        <v>1.041763325544554</v>
       </c>
       <c r="F19">
-        <v>1.086147714570923</v>
+        <v>1.054908459398688</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.062721541323503</v>
+        <v>1.066953298602752</v>
       </c>
       <c r="J19">
-        <v>1.080334869304679</v>
+        <v>1.054479480136692</v>
       </c>
       <c r="K19">
-        <v>1.075333099277517</v>
+        <v>1.065296599007856</v>
       </c>
       <c r="L19">
-        <v>1.080757883126864</v>
+        <v>1.054837217414086</v>
       </c>
       <c r="M19">
-        <v>1.089294344397555</v>
+        <v>1.067782411432866</v>
       </c>
       <c r="N19">
-        <v>1.081869068735234</v>
+        <v>1.055976961948973</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.074026317672894</v>
+        <v>1.025963196637174</v>
       </c>
       <c r="D20">
-        <v>1.071836789399997</v>
+        <v>1.050700024726665</v>
       </c>
       <c r="E20">
-        <v>1.077177807877642</v>
+        <v>1.039599716494821</v>
       </c>
       <c r="F20">
-        <v>1.085758248388826</v>
+        <v>1.052832811599411</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.062563291160075</v>
+        <v>1.065906600753653</v>
       </c>
       <c r="J20">
-        <v>1.079976889247376</v>
+        <v>1.052528708024346</v>
       </c>
       <c r="K20">
-        <v>1.075089726011734</v>
+        <v>1.063906342436344</v>
       </c>
       <c r="L20">
-        <v>1.080413522787182</v>
+        <v>1.052980245300042</v>
       </c>
       <c r="M20">
-        <v>1.088966684312404</v>
+        <v>1.066006193914587</v>
       </c>
       <c r="N20">
-        <v>1.081510580305188</v>
+        <v>1.05402341951647</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.072477976676994</v>
+        <v>1.017221193775354</v>
       </c>
       <c r="D21">
-        <v>1.07084182287161</v>
+        <v>1.045090510152487</v>
       </c>
       <c r="E21">
-        <v>1.075854745692923</v>
+        <v>1.032391221334357</v>
       </c>
       <c r="F21">
-        <v>1.084491640295515</v>
+        <v>1.045920654645759</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.062046637627996</v>
+        <v>1.062401503591034</v>
       </c>
       <c r="J21">
-        <v>1.078811550722809</v>
+        <v>1.046016141334735</v>
       </c>
       <c r="K21">
-        <v>1.074296943276405</v>
+        <v>1.059265183027883</v>
       </c>
       <c r="L21">
-        <v>1.079292612418358</v>
+        <v>1.046783862634481</v>
       </c>
       <c r="M21">
-        <v>1.087900191334744</v>
+        <v>1.060081316809043</v>
       </c>
       <c r="N21">
-        <v>1.080343586866251</v>
+        <v>1.047501604235158</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.071503804831599</v>
+        <v>1.011539789153575</v>
       </c>
       <c r="D22">
-        <v>1.070215735557026</v>
+        <v>1.041455427104108</v>
       </c>
       <c r="E22">
-        <v>1.07502244083471</v>
+        <v>1.027715835644354</v>
       </c>
       <c r="F22">
-        <v>1.083694942586334</v>
+        <v>1.041440235617757</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.061720128974639</v>
+        <v>1.060114463559093</v>
       </c>
       <c r="J22">
-        <v>1.078077682584572</v>
+        <v>1.041781714422577</v>
       </c>
       <c r="K22">
-        <v>1.073797291091529</v>
+        <v>1.056248071936578</v>
       </c>
       <c r="L22">
-        <v>1.078586794076239</v>
+        <v>1.042757530842457</v>
       </c>
       <c r="M22">
-        <v>1.087228683992642</v>
+        <v>1.056233151107732</v>
       </c>
       <c r="N22">
-        <v>1.07960867655108</v>
+        <v>1.04326116395109</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.072020296586988</v>
+        <v>1.014570013314051</v>
       </c>
       <c r="D23">
-        <v>1.070547685328186</v>
+        <v>1.043393165936893</v>
       </c>
       <c r="E23">
-        <v>1.07546370434889</v>
+        <v>1.03020855665691</v>
       </c>
       <c r="F23">
-        <v>1.084117319271977</v>
+        <v>1.04382873340425</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.061893375962433</v>
+        <v>1.061335093525938</v>
       </c>
       <c r="J23">
-        <v>1.078466832217219</v>
+        <v>1.044040328678817</v>
       </c>
       <c r="K23">
-        <v>1.074062280266478</v>
+        <v>1.057857299317284</v>
       </c>
       <c r="L23">
-        <v>1.078961062868363</v>
+        <v>1.044904901350942</v>
       </c>
       <c r="M23">
-        <v>1.087584754575978</v>
+        <v>1.058285324943477</v>
       </c>
       <c r="N23">
-        <v>1.079998378820842</v>
+        <v>1.04552298569864</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.07405226481257</v>
+        <v>1.026106807661284</v>
       </c>
       <c r="D24">
-        <v>1.071853461566149</v>
+        <v>1.050792333705021</v>
       </c>
       <c r="E24">
-        <v>1.077199981891973</v>
+        <v>1.039718279140426</v>
       </c>
       <c r="F24">
-        <v>1.085779477807805</v>
+        <v>1.052946542484089</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.062571924750398</v>
+        <v>1.06596402461232</v>
       </c>
       <c r="J24">
-        <v>1.079996406633247</v>
+        <v>1.052635655851426</v>
       </c>
       <c r="K24">
-        <v>1.075102996923861</v>
+        <v>1.063982561374227</v>
       </c>
       <c r="L24">
-        <v>1.080432297271386</v>
+        <v>1.053082039842133</v>
       </c>
       <c r="M24">
-        <v>1.088984548088769</v>
+        <v>1.066103554520708</v>
       </c>
       <c r="N24">
-        <v>1.081530125407986</v>
+        <v>1.054130519221733</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.076407487698094</v>
+        <v>1.038769066110691</v>
       </c>
       <c r="D25">
-        <v>1.073366558401841</v>
+        <v>1.058950035688878</v>
       </c>
       <c r="E25">
-        <v>1.079213001357134</v>
+        <v>1.050189770808626</v>
       </c>
       <c r="F25">
-        <v>1.087706958071534</v>
+        <v>1.062996523798975</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.063352125459274</v>
+        <v>1.071004007235137</v>
       </c>
       <c r="J25">
-        <v>1.0817663834568</v>
+        <v>1.0620586097817</v>
       </c>
       <c r="K25">
-        <v>1.076305525369409</v>
+        <v>1.070697305881376</v>
       </c>
       <c r="L25">
-        <v>1.082135067808673</v>
+        <v>1.062055894556384</v>
       </c>
       <c r="M25">
-        <v>1.090604822181247</v>
+        <v>1.07468972427364</v>
       </c>
       <c r="N25">
-        <v>1.083302615801647</v>
+        <v>1.063566854827415</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.048359399489438</v>
+        <v>0.9858620864532495</v>
       </c>
       <c r="D2">
-        <v>1.065151540192805</v>
+        <v>1.039095123427699</v>
       </c>
       <c r="E2">
-        <v>1.058143560562852</v>
+        <v>1.00519005477166</v>
       </c>
       <c r="F2">
-        <v>1.070636839644263</v>
+        <v>1.018554888975048</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.074785945200688</v>
+        <v>1.055699012917082</v>
       </c>
       <c r="J2">
-        <v>1.069183998109693</v>
+        <v>1.008474042616618</v>
       </c>
       <c r="K2">
-        <v>1.075772126627657</v>
+        <v>1.050035399846956</v>
       </c>
       <c r="L2">
-        <v>1.068848206573651</v>
+        <v>1.01657755435722</v>
       </c>
       <c r="M2">
-        <v>1.0811925812943</v>
+        <v>1.029761638082972</v>
       </c>
       <c r="N2">
-        <v>1.070702362024127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.006673934440417</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.032126681270033</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.046449605884559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.055060142604448</v>
+        <v>0.990031668031697</v>
       </c>
       <c r="D3">
-        <v>1.069494959795241</v>
+        <v>1.040999283769365</v>
       </c>
       <c r="E3">
-        <v>1.06371207253568</v>
+        <v>1.008492847863996</v>
       </c>
       <c r="F3">
-        <v>1.075989178824545</v>
+        <v>1.021882451113967</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.077406645903519</v>
+        <v>1.056388035256614</v>
       </c>
       <c r="J3">
-        <v>1.074154604837279</v>
+        <v>1.010797818497174</v>
       </c>
       <c r="K3">
-        <v>1.079309641595211</v>
+        <v>1.051133128733016</v>
       </c>
       <c r="L3">
-        <v>1.073589825767755</v>
+        <v>1.019018202286412</v>
       </c>
       <c r="M3">
-        <v>1.08573402090089</v>
+        <v>1.03224279328112</v>
       </c>
       <c r="N3">
-        <v>1.075680027583404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.007473938764509</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.034090369665549</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.047223139811711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.059283930013281</v>
+        <v>0.9926774766859158</v>
       </c>
       <c r="D4">
-        <v>1.072236818811438</v>
+        <v>1.04219977202182</v>
       </c>
       <c r="E4">
-        <v>1.067226786917668</v>
+        <v>1.010592684247123</v>
       </c>
       <c r="F4">
-        <v>1.079368803460613</v>
+        <v>1.023992594348385</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.079048140578839</v>
+        <v>1.056803985795914</v>
       </c>
       <c r="J4">
-        <v>1.077283790757508</v>
+        <v>1.012270366391929</v>
       </c>
       <c r="K4">
-        <v>1.081535097609973</v>
+        <v>1.051814224510597</v>
       </c>
       <c r="L4">
-        <v>1.076576293360782</v>
+        <v>1.020564924113786</v>
       </c>
       <c r="M4">
-        <v>1.088595155268103</v>
+        <v>1.033809823183342</v>
       </c>
       <c r="N4">
-        <v>1.078813657306562</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.007980458443675</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.035330578834784</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04770560781942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.061034086351006</v>
+        <v>0.9937766572191301</v>
       </c>
       <c r="D5">
-        <v>1.073373772645946</v>
+        <v>1.042697429236034</v>
       </c>
       <c r="E5">
-        <v>1.068684165741784</v>
+        <v>1.011465052947549</v>
       </c>
       <c r="F5">
-        <v>1.080770468530191</v>
+        <v>1.024865698679567</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.07972573980975</v>
+        <v>1.056970339458868</v>
       </c>
       <c r="J5">
-        <v>1.07857937555041</v>
+        <v>1.012881177266385</v>
       </c>
       <c r="K5">
-        <v>1.082456092398913</v>
+        <v>1.052094077839478</v>
       </c>
       <c r="L5">
-        <v>1.077813117151378</v>
+        <v>1.021205866078751</v>
       </c>
       <c r="M5">
-        <v>1.089780235597045</v>
+        <v>1.034455684799905</v>
       </c>
       <c r="N5">
-        <v>1.080111081978475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.008190633675853</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.035841738516681</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047910577725805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.061326484651395</v>
+        <v>0.9939592370517999</v>
       </c>
       <c r="D6">
-        <v>1.073563769777481</v>
+        <v>1.042781019794128</v>
       </c>
       <c r="E6">
-        <v>1.068927708263115</v>
+        <v>1.011608891488928</v>
       </c>
       <c r="F6">
-        <v>1.081004717787149</v>
+        <v>1.025006847786465</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.079838793695742</v>
+        <v>1.056996084537531</v>
       </c>
       <c r="J6">
-        <v>1.078795767486101</v>
+        <v>1.012982067882985</v>
       </c>
       <c r="K6">
-        <v>1.082609893554378</v>
+        <v>1.052141124951399</v>
       </c>
       <c r="L6">
-        <v>1.078019713575068</v>
+        <v>1.021310933200172</v>
       </c>
       <c r="M6">
-        <v>1.089978197970515</v>
+        <v>1.034558791584176</v>
       </c>
       <c r="N6">
-        <v>1.080327781215536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.008225562876088</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.0359233411505</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.047952495698735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.059307414328206</v>
+        <v>0.9926886607871125</v>
       </c>
       <c r="D7">
-        <v>1.072252071729211</v>
+        <v>1.042207195792393</v>
       </c>
       <c r="E7">
-        <v>1.067246338642039</v>
+        <v>1.01059847659025</v>
       </c>
       <c r="F7">
-        <v>1.079387606585921</v>
+        <v>1.0239908844202</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.079057243104075</v>
+        <v>1.056801122787323</v>
       </c>
       <c r="J7">
-        <v>1.077301179528358</v>
+        <v>1.012275098724491</v>
       </c>
       <c r="K7">
-        <v>1.081547460504611</v>
+        <v>1.051818727719091</v>
       </c>
       <c r="L7">
-        <v>1.076592892185947</v>
+        <v>1.020567689268657</v>
       </c>
       <c r="M7">
-        <v>1.088611059048448</v>
+        <v>1.03380522546865</v>
       </c>
       <c r="N7">
-        <v>1.07883107077146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.007982686848968</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.035326940025519</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047728690691458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050647957715859</v>
+        <v>0.9872773627810589</v>
       </c>
       <c r="D8">
-        <v>1.066634068022357</v>
+        <v>1.039743906796057</v>
       </c>
       <c r="E8">
-        <v>1.060044396245536</v>
+        <v>1.006306056940901</v>
       </c>
       <c r="F8">
-        <v>1.072463584353273</v>
+        <v>1.019670301443457</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.075683178360984</v>
+        <v>1.055930153082285</v>
       </c>
       <c r="J8">
-        <v>1.070882461840949</v>
+        <v>1.009261170727834</v>
       </c>
       <c r="K8">
-        <v>1.076981197192598</v>
+        <v>1.050411144628814</v>
       </c>
       <c r="L8">
-        <v>1.070468111780564</v>
+        <v>1.017401280886849</v>
       </c>
       <c r="M8">
-        <v>1.082743929666969</v>
+        <v>1.030590258333181</v>
       </c>
       <c r="N8">
-        <v>1.072403237768698</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.006945792810623</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.032782486069415</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.046737945314863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034467220363336</v>
+        <v>0.977328784405037</v>
       </c>
       <c r="D9">
-        <v>1.056174506159999</v>
+        <v>1.035157667993554</v>
       </c>
       <c r="E9">
-        <v>1.046628313361944</v>
+        <v>0.9984546676119291</v>
       </c>
       <c r="F9">
-        <v>1.059577279416653</v>
+        <v>1.011738570286166</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.06929715767261</v>
+        <v>1.054173672536043</v>
       </c>
       <c r="J9">
-        <v>1.058858926360844</v>
+        <v>1.003708330508731</v>
       </c>
       <c r="K9">
-        <v>1.068417499473802</v>
+        <v>1.047704974165418</v>
       </c>
       <c r="L9">
-        <v>1.059007610927058</v>
+        <v>1.011572866611139</v>
       </c>
       <c r="M9">
-        <v>1.071772436437107</v>
+        <v>1.024644025600816</v>
       </c>
       <c r="N9">
-        <v>1.060362627489093</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.005031144758284</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.028076374544909</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.044821408904335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022962399682632</v>
+        <v>0.9704521938183893</v>
       </c>
       <c r="D10">
-        <v>1.048772346009004</v>
+        <v>1.031921822976328</v>
       </c>
       <c r="E10">
-        <v>1.037123367504482</v>
+        <v>0.9930812377081918</v>
       </c>
       <c r="F10">
-        <v>1.050457691061153</v>
+        <v>1.006324765592854</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.064705505212822</v>
+        <v>1.052851957515005</v>
       </c>
       <c r="J10">
-        <v>1.050293687775182</v>
+        <v>0.9998892465418846</v>
       </c>
       <c r="K10">
-        <v>1.062313506632789</v>
+        <v>1.045737685105737</v>
       </c>
       <c r="L10">
-        <v>1.050853207849404</v>
+        <v>1.007576546384999</v>
       </c>
       <c r="M10">
-        <v>1.063971997966408</v>
+        <v>1.020580755781328</v>
       </c>
       <c r="N10">
-        <v>1.051785225282193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.003717965073365</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.024912803938989</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043447076687099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01778551769381</v>
+        <v>0.9679417972528024</v>
       </c>
       <c r="D11">
-        <v>1.045452039044579</v>
+        <v>1.030453442665678</v>
       </c>
       <c r="E11">
-        <v>1.032856027532236</v>
+        <v>0.9913421159114909</v>
       </c>
       <c r="F11">
-        <v>1.046366198368458</v>
+        <v>1.004916768237067</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.062628303522763</v>
+        <v>1.052342210059657</v>
       </c>
       <c r="J11">
-        <v>1.046436669743542</v>
+        <v>0.9987118424544293</v>
       </c>
       <c r="K11">
-        <v>1.059564849143304</v>
+        <v>1.044823029768758</v>
       </c>
       <c r="L11">
-        <v>1.047183833105095</v>
+        <v>1.00642917532432</v>
       </c>
       <c r="M11">
-        <v>1.060463664811235</v>
+        <v>1.019746553380588</v>
       </c>
       <c r="N11">
-        <v>1.047922729842542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.003360497584409</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.024695876877271</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042832884583574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015830864438574</v>
+        <v>0.9672046526776624</v>
       </c>
       <c r="D12">
-        <v>1.044200161239432</v>
+        <v>1.029886473866705</v>
       </c>
       <c r="E12">
-        <v>1.031246387740484</v>
+        <v>0.9909255461695359</v>
       </c>
       <c r="F12">
-        <v>1.044823357357968</v>
+        <v>1.004766158916346</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.061842442228482</v>
+        <v>1.052197563061477</v>
       </c>
       <c r="J12">
-        <v>1.044980023198127</v>
+        <v>0.9984648752768256</v>
       </c>
       <c r="K12">
-        <v>1.058526872250588</v>
+        <v>1.044462653318328</v>
       </c>
       <c r="L12">
-        <v>1.045798479579553</v>
+        <v>1.006228688137743</v>
       </c>
       <c r="M12">
-        <v>1.059139407504316</v>
+        <v>1.019802612979518</v>
       </c>
       <c r="N12">
-        <v>1.046464014691953</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.003315209943715</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.025071318033335</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042578091688237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016251621392674</v>
+        <v>0.9677809476069732</v>
       </c>
       <c r="D13">
-        <v>1.044469555391085</v>
+        <v>1.029971941474385</v>
       </c>
       <c r="E13">
-        <v>1.031592802938307</v>
+        <v>0.991494361541794</v>
       </c>
       <c r="F13">
-        <v>1.045155374680127</v>
+        <v>1.005567171876341</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.062011675032636</v>
+        <v>1.052319744913647</v>
       </c>
       <c r="J13">
-        <v>1.045293593380409</v>
+        <v>0.9989164888162527</v>
       </c>
       <c r="K13">
-        <v>1.058750310856199</v>
+        <v>1.044504419832853</v>
       </c>
       <c r="L13">
-        <v>1.046096682795211</v>
+        <v>1.006741762241533</v>
       </c>
       <c r="M13">
-        <v>1.059424445617927</v>
+        <v>1.020544806977316</v>
       </c>
       <c r="N13">
-        <v>1.04677803017986</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.003507268112754</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.02593824974016</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042605153866519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017624607510343</v>
+        <v>0.9687742194749176</v>
       </c>
       <c r="D14">
-        <v>1.0453489450403</v>
+        <v>1.030325513177136</v>
       </c>
       <c r="E14">
-        <v>1.032723486168178</v>
+        <v>0.9923322409478326</v>
       </c>
       <c r="F14">
-        <v>1.046239147580029</v>
+        <v>1.006549927652365</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.062563641328049</v>
+        <v>1.052522736989345</v>
       </c>
       <c r="J14">
-        <v>1.046316762581846</v>
+        <v>0.9995439081155528</v>
       </c>
       <c r="K14">
-        <v>1.059479403523335</v>
+        <v>1.044713581957576</v>
       </c>
       <c r="L14">
-        <v>1.047069785728947</v>
+        <v>1.007417384141683</v>
       </c>
       <c r="M14">
-        <v>1.060354640908188</v>
+        <v>1.021366178309369</v>
       </c>
       <c r="N14">
-        <v>1.047802652398922</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.003747432172504</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.026762637177732</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042754445795453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018466268987497</v>
+        <v>0.9693037409869926</v>
       </c>
       <c r="D15">
-        <v>1.045888265305684</v>
+        <v>1.030550647952678</v>
       </c>
       <c r="E15">
-        <v>1.033416826639876</v>
+        <v>0.9927558237077351</v>
       </c>
       <c r="F15">
-        <v>1.046903785525125</v>
+        <v>1.007004583268186</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.062901802218472</v>
+        <v>1.052626963398073</v>
       </c>
       <c r="J15">
-        <v>1.046943939250414</v>
+        <v>0.9998525192303542</v>
       </c>
       <c r="K15">
-        <v>1.059926332384343</v>
+        <v>1.044849679636281</v>
       </c>
       <c r="L15">
-        <v>1.047666330255866</v>
+        <v>1.007742964507702</v>
       </c>
       <c r="M15">
-        <v>1.060924921515818</v>
+        <v>1.021724401027128</v>
       </c>
       <c r="N15">
-        <v>1.048430719730298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.003858969110368</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.027083654055758</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042856482230093</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023301660298061</v>
+        <v>0.972104923640535</v>
       </c>
       <c r="D16">
-        <v>1.048990172708037</v>
+        <v>1.031910634577176</v>
       </c>
       <c r="E16">
-        <v>1.037403234439291</v>
+        <v>0.994926290061305</v>
       </c>
       <c r="F16">
-        <v>1.050726087762754</v>
+        <v>1.009174332341053</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.064841410482187</v>
+        <v>1.053181369695586</v>
       </c>
       <c r="J16">
-        <v>1.050546400726359</v>
+        <v>1.001390249838208</v>
       </c>
       <c r="K16">
-        <v>1.062493606744103</v>
+        <v>1.045691624377483</v>
       </c>
       <c r="L16">
-        <v>1.0510936836286</v>
+        <v>1.009350811071124</v>
       </c>
       <c r="M16">
-        <v>1.064201958847401</v>
+        <v>1.023343696747347</v>
       </c>
       <c r="N16">
-        <v>1.052038297114746</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.004380114020155</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028324458658511</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.043454893326438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026280893495049</v>
+        <v>0.9737339169402216</v>
       </c>
       <c r="D17">
-        <v>1.050904237655156</v>
+        <v>1.032768008677754</v>
       </c>
       <c r="E17">
-        <v>1.039862007387684</v>
+        <v>0.9961525423186285</v>
       </c>
       <c r="F17">
-        <v>1.053084415212924</v>
+        <v>1.010317170847231</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.066033626801378</v>
+        <v>1.053495269254326</v>
       </c>
       <c r="J17">
-        <v>1.052765296496331</v>
+        <v>1.002240273835032</v>
       </c>
       <c r="K17">
-        <v>1.064074952865991</v>
+        <v>1.046224895240208</v>
       </c>
       <c r="L17">
-        <v>1.053205435436563</v>
+        <v>1.010228369389476</v>
       </c>
       <c r="M17">
-        <v>1.066221576408134</v>
+        <v>1.024146689012665</v>
       </c>
       <c r="N17">
-        <v>1.054260343971223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.004653659413022</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.028828900875379</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.043834491336993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02799996921819</v>
+        <v>0.9745020695475908</v>
       </c>
       <c r="D18">
-        <v>1.052009664215282</v>
+        <v>1.033284713841155</v>
       </c>
       <c r="E18">
-        <v>1.041281666949689</v>
+        <v>0.9966617851885891</v>
       </c>
       <c r="F18">
-        <v>1.054446343883191</v>
+        <v>1.010651607851167</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.066720508093291</v>
+        <v>1.053642926261617</v>
       </c>
       <c r="J18">
-        <v>1.054045365184753</v>
+        <v>1.002564213659933</v>
       </c>
       <c r="K18">
-        <v>1.064987220539241</v>
+        <v>1.046552621156971</v>
       </c>
       <c r="L18">
-        <v>1.054423939991985</v>
+        <v>1.010538390435351</v>
       </c>
       <c r="M18">
-        <v>1.067387082455065</v>
+        <v>1.02428897918479</v>
       </c>
       <c r="N18">
-        <v>1.055542230504009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.004734210276949</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.028701146774151</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.04405468053835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028583033163694</v>
+        <v>0.9744687034791853</v>
       </c>
       <c r="D19">
-        <v>1.052384754281264</v>
+        <v>1.033470809611164</v>
       </c>
       <c r="E19">
-        <v>1.041763325544554</v>
+        <v>0.9964869162009813</v>
       </c>
       <c r="F19">
-        <v>1.054908459398688</v>
+        <v>1.010204142352884</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.066953298602752</v>
+        <v>1.053625160577217</v>
       </c>
       <c r="J19">
-        <v>1.054479480136692</v>
+        <v>1.002391704084304</v>
       </c>
       <c r="K19">
-        <v>1.065296599007856</v>
+        <v>1.046674180749192</v>
       </c>
       <c r="L19">
-        <v>1.054837217414086</v>
+        <v>1.010301696152158</v>
       </c>
       <c r="M19">
-        <v>1.067782411432866</v>
+        <v>1.023785421926163</v>
       </c>
       <c r="N19">
-        <v>1.055976961948973</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.004637434737591</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.027973443021489</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.044146953412608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025963196637174</v>
+        <v>0.9722250702983161</v>
       </c>
       <c r="D20">
-        <v>1.050700024726665</v>
+        <v>1.032747411324765</v>
       </c>
       <c r="E20">
-        <v>1.039599716494821</v>
+        <v>0.9944552098662758</v>
       </c>
       <c r="F20">
-        <v>1.052832811599411</v>
+        <v>1.007688376279778</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.065906600753653</v>
+        <v>1.053177725584827</v>
       </c>
       <c r="J20">
-        <v>1.052528708024346</v>
+        <v>1.000870309953362</v>
       </c>
       <c r="K20">
-        <v>1.063906342436344</v>
+        <v>1.046237881739907</v>
       </c>
       <c r="L20">
-        <v>1.052980245300042</v>
+        <v>1.008596263497907</v>
       </c>
       <c r="M20">
-        <v>1.066006193914587</v>
+        <v>1.021597368760254</v>
       </c>
       <c r="N20">
-        <v>1.05402341951647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.004057434972655</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.025706635419569</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.04384234996259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017221193775354</v>
+        <v>0.9669482982940232</v>
       </c>
       <c r="D21">
-        <v>1.045090510152487</v>
+        <v>1.030304628137726</v>
       </c>
       <c r="E21">
-        <v>1.032391221334357</v>
+        <v>0.9903004307711692</v>
       </c>
       <c r="F21">
-        <v>1.045920654645759</v>
+        <v>1.003427708254367</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.062401503591034</v>
+        <v>1.052130007649307</v>
       </c>
       <c r="J21">
-        <v>1.046016141334735</v>
+        <v>0.9978959773464092</v>
       </c>
       <c r="K21">
-        <v>1.059265183027883</v>
+        <v>1.044733749284777</v>
       </c>
       <c r="L21">
-        <v>1.046783862634481</v>
+        <v>1.005467924385258</v>
       </c>
       <c r="M21">
-        <v>1.060081316809043</v>
+        <v>1.018344431343281</v>
       </c>
       <c r="N21">
-        <v>1.047501604235158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.003025524543509</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.023090561985956</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042782079205939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.011539789153575</v>
+        <v>0.9635958150424637</v>
       </c>
       <c r="D22">
-        <v>1.041455427104108</v>
+        <v>1.028737970460998</v>
       </c>
       <c r="E22">
-        <v>1.027715835644354</v>
+        <v>0.9876864053870623</v>
       </c>
       <c r="F22">
-        <v>1.041440235617757</v>
+        <v>1.000774805099543</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.060114463559093</v>
+        <v>1.051454788248712</v>
       </c>
       <c r="J22">
-        <v>1.041781714422577</v>
+        <v>0.9960213575718753</v>
       </c>
       <c r="K22">
-        <v>1.056248071936578</v>
+        <v>1.043760839544618</v>
       </c>
       <c r="L22">
-        <v>1.042757530842457</v>
+        <v>1.003505808344784</v>
       </c>
       <c r="M22">
-        <v>1.056233151107732</v>
+        <v>1.01633092855996</v>
       </c>
       <c r="N22">
-        <v>1.04326116395109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.002376662897013</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.021496967906352</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.042080837660055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.014570013314051</v>
+        <v>0.9653854093087922</v>
       </c>
       <c r="D23">
-        <v>1.043393165936893</v>
+        <v>1.029579491966066</v>
       </c>
       <c r="E23">
-        <v>1.03020855665691</v>
+        <v>0.9890851998676298</v>
       </c>
       <c r="F23">
-        <v>1.04382873340425</v>
+        <v>1.002204393308524</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.061335093525938</v>
+        <v>1.05182624296925</v>
       </c>
       <c r="J23">
-        <v>1.044040328678817</v>
+        <v>0.9970241308283015</v>
       </c>
       <c r="K23">
-        <v>1.057857299317284</v>
+        <v>1.044287109041402</v>
       </c>
       <c r="L23">
-        <v>1.044904901350942</v>
+        <v>1.004558120822582</v>
       </c>
       <c r="M23">
-        <v>1.058285324943477</v>
+        <v>1.017420504640981</v>
       </c>
       <c r="N23">
-        <v>1.04552298569864</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.002723091775886</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.022359317314649</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042443393028393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026106807661284</v>
+        <v>0.9722647840783236</v>
       </c>
       <c r="D24">
-        <v>1.050792333705021</v>
+        <v>1.032797084838341</v>
       </c>
       <c r="E24">
-        <v>1.039718279140426</v>
+        <v>0.9944701078887095</v>
       </c>
       <c r="F24">
-        <v>1.052946542484089</v>
+        <v>1.007682162536211</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.06596402461232</v>
+        <v>1.05319786630086</v>
       </c>
       <c r="J24">
-        <v>1.052635655851426</v>
+        <v>1.000873925028528</v>
       </c>
       <c r="K24">
-        <v>1.063982561374227</v>
+        <v>1.046271727698106</v>
       </c>
       <c r="L24">
-        <v>1.053082039842133</v>
+        <v>1.008595035592858</v>
       </c>
       <c r="M24">
-        <v>1.066103554520708</v>
+        <v>1.021575700634533</v>
       </c>
       <c r="N24">
-        <v>1.054130519221733</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.004053525517093</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.025647953942077</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.04383916499833</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038769066110691</v>
+        <v>0.9799461860722218</v>
       </c>
       <c r="D25">
-        <v>1.058950035688878</v>
+        <v>1.036367686233278</v>
       </c>
       <c r="E25">
-        <v>1.050189770808626</v>
+        <v>1.000509975034489</v>
       </c>
       <c r="F25">
-        <v>1.062996523798975</v>
+        <v>1.01380553923363</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.071004007235137</v>
+        <v>1.054642822603039</v>
       </c>
       <c r="J25">
-        <v>1.0620586097817</v>
+        <v>1.005167815569687</v>
       </c>
       <c r="K25">
-        <v>1.070697305881376</v>
+        <v>1.048426504287701</v>
       </c>
       <c r="L25">
-        <v>1.062055894556384</v>
+        <v>1.013100379452539</v>
       </c>
       <c r="M25">
-        <v>1.07468972427364</v>
+        <v>1.026193256548917</v>
       </c>
       <c r="N25">
-        <v>1.063566854827415</v>
+        <v>1.005535802248517</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.029302507499124</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.045359842190353</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9858620864532495</v>
+        <v>0.9870257249049095</v>
       </c>
       <c r="D2">
-        <v>1.039095123427699</v>
+        <v>1.036202281612954</v>
       </c>
       <c r="E2">
-        <v>1.00519005477166</v>
+        <v>1.006278435809798</v>
       </c>
       <c r="F2">
-        <v>1.018554888975048</v>
+        <v>1.019910140886172</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055699012917082</v>
+        <v>1.054709919020078</v>
       </c>
       <c r="J2">
-        <v>1.008474042616618</v>
+        <v>1.009601542500587</v>
       </c>
       <c r="K2">
-        <v>1.050035399846956</v>
+        <v>1.047179288926539</v>
       </c>
       <c r="L2">
-        <v>1.01657755435722</v>
+        <v>1.017650989582765</v>
       </c>
       <c r="M2">
-        <v>1.029761638082972</v>
+        <v>1.031098893111712</v>
       </c>
       <c r="N2">
-        <v>1.006673934440417</v>
+        <v>1.009644522019311</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.032126681270033</v>
+        <v>1.03318504064954</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.046449605884559</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044438814925745</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024052103055147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.990031668031697</v>
+        <v>0.9910915717204125</v>
       </c>
       <c r="D3">
-        <v>1.040999283769365</v>
+        <v>1.037848933492924</v>
       </c>
       <c r="E3">
-        <v>1.008492847863996</v>
+        <v>1.009470463040313</v>
       </c>
       <c r="F3">
-        <v>1.021882451113967</v>
+        <v>1.023066223325101</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056388035256614</v>
+        <v>1.055226315278088</v>
       </c>
       <c r="J3">
-        <v>1.010797818497174</v>
+        <v>1.011828071077306</v>
       </c>
       <c r="K3">
-        <v>1.051133128733016</v>
+        <v>1.048019393671446</v>
       </c>
       <c r="L3">
-        <v>1.019018202286412</v>
+        <v>1.019983584806781</v>
       </c>
       <c r="M3">
-        <v>1.03224279328112</v>
+        <v>1.033412234889354</v>
       </c>
       <c r="N3">
-        <v>1.007473938764509</v>
+        <v>1.010259805962545</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.034090369665549</v>
+        <v>1.03501591200944</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047223139811711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045029916467092</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02426302050175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9926774766859158</v>
+        <v>0.9936734573876642</v>
       </c>
       <c r="D4">
-        <v>1.04219977202182</v>
+        <v>1.038890536812836</v>
       </c>
       <c r="E4">
-        <v>1.010592684247123</v>
+        <v>1.011502167780908</v>
       </c>
       <c r="F4">
-        <v>1.023992594348385</v>
+        <v>1.02507135923731</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056803985795914</v>
+        <v>1.055535794572251</v>
       </c>
       <c r="J4">
-        <v>1.012270366391929</v>
+        <v>1.013240393058891</v>
       </c>
       <c r="K4">
-        <v>1.051814224510597</v>
+        <v>1.048541195448356</v>
       </c>
       <c r="L4">
-        <v>1.020564924113786</v>
+        <v>1.021463725931499</v>
       </c>
       <c r="M4">
-        <v>1.033809823183342</v>
+        <v>1.034876326223835</v>
       </c>
       <c r="N4">
-        <v>1.007980458443675</v>
+        <v>1.010649689405666</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.035330578834784</v>
+        <v>1.036174650092244</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04770560781942</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045399839171076</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024388458122002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9937766572191301</v>
+        <v>0.9947471133249985</v>
       </c>
       <c r="D5">
-        <v>1.042697429236034</v>
+        <v>1.039324973631522</v>
       </c>
       <c r="E5">
-        <v>1.011465052947549</v>
+        <v>1.012347626206431</v>
       </c>
       <c r="F5">
-        <v>1.024865698679567</v>
+        <v>1.025903505674552</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056970339458868</v>
+        <v>1.055660144385322</v>
       </c>
       <c r="J5">
-        <v>1.012881177266385</v>
+        <v>1.013827109075524</v>
       </c>
       <c r="K5">
-        <v>1.052094077839478</v>
+        <v>1.048757564327083</v>
       </c>
       <c r="L5">
-        <v>1.021205866078751</v>
+        <v>1.022078354278981</v>
       </c>
       <c r="M5">
-        <v>1.034455684799905</v>
+        <v>1.035482013184063</v>
       </c>
       <c r="N5">
-        <v>1.008190633675853</v>
+        <v>1.010811665520791</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.035841738516681</v>
+        <v>1.036654013448659</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047910577725805</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045560642836499</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024437506047009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9939592370517999</v>
+        <v>0.9949262076016095</v>
       </c>
       <c r="D6">
-        <v>1.042781019794128</v>
+        <v>1.039400222380888</v>
       </c>
       <c r="E6">
-        <v>1.011608891488928</v>
+        <v>1.012488116690128</v>
       </c>
       <c r="F6">
-        <v>1.025006847786465</v>
+        <v>1.026040071665547</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.056996084537531</v>
+        <v>1.055680787569802</v>
       </c>
       <c r="J6">
-        <v>1.012982067882985</v>
+        <v>1.013924729089907</v>
       </c>
       <c r="K6">
-        <v>1.052141124951399</v>
+        <v>1.048796198159288</v>
       </c>
       <c r="L6">
-        <v>1.021310933200172</v>
+        <v>1.0221801582513</v>
       </c>
       <c r="M6">
-        <v>1.034558791584176</v>
+        <v>1.035580640272863</v>
       </c>
       <c r="N6">
-        <v>1.008225562876088</v>
+        <v>1.010838742009911</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.0359233411505</v>
+        <v>1.036732070591832</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047952495698735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045597492337331</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024444264406246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9926886607871125</v>
+        <v>0.9936972906159873</v>
       </c>
       <c r="D7">
-        <v>1.042207195792393</v>
+        <v>1.038903232373168</v>
       </c>
       <c r="E7">
-        <v>1.01059847659025</v>
+        <v>1.011519832449356</v>
       </c>
       <c r="F7">
-        <v>1.0239908844202</v>
+        <v>1.025082566004743</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056801122787323</v>
+        <v>1.055538304668713</v>
       </c>
       <c r="J7">
-        <v>1.012275098724491</v>
+        <v>1.013257455796726</v>
       </c>
       <c r="K7">
-        <v>1.051818727719091</v>
+        <v>1.048550899890528</v>
       </c>
       <c r="L7">
-        <v>1.020567689268657</v>
+        <v>1.02147822791071</v>
       </c>
       <c r="M7">
-        <v>1.03380522546865</v>
+        <v>1.03488450267154</v>
       </c>
       <c r="N7">
-        <v>1.007982686848968</v>
+        <v>1.010680964202331</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.035326940025519</v>
+        <v>1.036181121241498</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047728690691458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045428623600071</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024385174384151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9872773627810589</v>
+        <v>0.9884418432992625</v>
       </c>
       <c r="D8">
-        <v>1.039743906796057</v>
+        <v>1.036770942097358</v>
       </c>
       <c r="E8">
-        <v>1.006306056940901</v>
+        <v>1.007388846181273</v>
       </c>
       <c r="F8">
-        <v>1.019670301443457</v>
+        <v>1.020997643011016</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055930153082285</v>
+        <v>1.054891035788847</v>
       </c>
       <c r="J8">
-        <v>1.009261170727834</v>
+        <v>1.010390719567867</v>
       </c>
       <c r="K8">
-        <v>1.050411144628814</v>
+        <v>1.047474839679043</v>
       </c>
       <c r="L8">
-        <v>1.017401280886849</v>
+        <v>1.018469652466919</v>
       </c>
       <c r="M8">
-        <v>1.030590258333181</v>
+        <v>1.031900505587314</v>
       </c>
       <c r="N8">
-        <v>1.006945792810623</v>
+        <v>1.009942931901145</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.032782486069415</v>
+        <v>1.033819469416122</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046737945314863</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044672745180987</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02411934673913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.977328784405037</v>
+        <v>0.9787556048774947</v>
       </c>
       <c r="D9">
-        <v>1.035157667993554</v>
+        <v>1.032818440448781</v>
       </c>
       <c r="E9">
-        <v>0.9984546676119291</v>
+        <v>0.9998159434504339</v>
       </c>
       <c r="F9">
-        <v>1.011738570286166</v>
+        <v>1.013494733113672</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.054173672536043</v>
+        <v>1.053558708964855</v>
       </c>
       <c r="J9">
-        <v>1.003708330508731</v>
+        <v>1.005081525242255</v>
       </c>
       <c r="K9">
-        <v>1.047704974165418</v>
+        <v>1.045400591600158</v>
       </c>
       <c r="L9">
-        <v>1.011572866611139</v>
+        <v>1.012912007549687</v>
       </c>
       <c r="M9">
-        <v>1.024644025600816</v>
+        <v>1.026372597139847</v>
       </c>
       <c r="N9">
-        <v>1.005031144758284</v>
+        <v>1.008483141408657</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.028076374544909</v>
+        <v>1.029444445788644</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.044821408904335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043202714465793</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023573444290464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9704521938183893</v>
+        <v>0.9721279389583152</v>
       </c>
       <c r="D10">
-        <v>1.031921822976328</v>
+        <v>1.030055150377233</v>
       </c>
       <c r="E10">
-        <v>0.9930812377081918</v>
+        <v>0.994697998527711</v>
       </c>
       <c r="F10">
-        <v>1.006324765592854</v>
+        <v>1.008445019330205</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.052851957515005</v>
+        <v>1.052556911749182</v>
       </c>
       <c r="J10">
-        <v>0.9998892465418846</v>
+        <v>1.001492764663828</v>
       </c>
       <c r="K10">
-        <v>1.045737685105737</v>
+        <v>1.04390215602966</v>
       </c>
       <c r="L10">
-        <v>1.007576546384999</v>
+        <v>1.009163646687661</v>
       </c>
       <c r="M10">
-        <v>1.020580755781328</v>
+        <v>1.022663452244737</v>
       </c>
       <c r="N10">
-        <v>1.003717965073365</v>
+        <v>1.007611790750705</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.024912803938989</v>
+        <v>1.026561047230939</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043447076687099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042161565117365</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023142088198313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9679417972528024</v>
+        <v>0.9698382419037344</v>
       </c>
       <c r="D11">
-        <v>1.030453442665678</v>
+        <v>1.02883341200662</v>
       </c>
       <c r="E11">
-        <v>0.9913421159114909</v>
+        <v>0.9931859338472591</v>
       </c>
       <c r="F11">
-        <v>1.004916768237067</v>
+        <v>1.007312499369411</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052342210059657</v>
+        <v>1.052215780272542</v>
       </c>
       <c r="J11">
-        <v>0.9987118424544293</v>
+        <v>1.000521937529444</v>
       </c>
       <c r="K11">
-        <v>1.044823029768758</v>
+        <v>1.043231314539508</v>
       </c>
       <c r="L11">
-        <v>1.00642917532432</v>
+        <v>1.008237507804882</v>
       </c>
       <c r="M11">
-        <v>1.019746553380588</v>
+        <v>1.022097817786824</v>
       </c>
       <c r="N11">
-        <v>1.003360497584409</v>
+        <v>1.007613967534986</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.024695876877271</v>
+        <v>1.026555700689598</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042832884583574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041722987054436</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022886657794104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9672046526776624</v>
+        <v>0.9692042124991962</v>
       </c>
       <c r="D12">
-        <v>1.029886473866705</v>
+        <v>1.028365606343622</v>
       </c>
       <c r="E12">
-        <v>0.9909255461695359</v>
+        <v>0.992879408102175</v>
       </c>
       <c r="F12">
-        <v>1.004766158916346</v>
+        <v>1.007288331536129</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052197563061477</v>
+        <v>1.052134709442951</v>
       </c>
       <c r="J12">
-        <v>0.9984648752768256</v>
+        <v>1.000371611125742</v>
       </c>
       <c r="K12">
-        <v>1.044462653318328</v>
+        <v>1.042968822270665</v>
       </c>
       <c r="L12">
-        <v>1.006228688137743</v>
+        <v>1.008144310823292</v>
       </c>
       <c r="M12">
-        <v>1.019802612979518</v>
+        <v>1.022277218149266</v>
       </c>
       <c r="N12">
-        <v>1.003315209943715</v>
+        <v>1.00770727938841</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.025071318033335</v>
+        <v>1.027028022333577</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042578091688237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041537403430114</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02276922346799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9677809476069732</v>
+        <v>0.969785820011457</v>
       </c>
       <c r="D13">
-        <v>1.029971941474385</v>
+        <v>1.02845162408463</v>
       </c>
       <c r="E13">
-        <v>0.991494361541794</v>
+        <v>0.9934651567140054</v>
       </c>
       <c r="F13">
-        <v>1.005567171876341</v>
+        <v>1.008105173430086</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052319744913647</v>
+        <v>1.052249828830789</v>
       </c>
       <c r="J13">
-        <v>0.9989164888162527</v>
+        <v>1.000828793158308</v>
       </c>
       <c r="K13">
-        <v>1.044504419832853</v>
+        <v>1.043011033248486</v>
       </c>
       <c r="L13">
-        <v>1.006741762241533</v>
+        <v>1.008674175343862</v>
       </c>
       <c r="M13">
-        <v>1.020544806977316</v>
+        <v>1.023035203192486</v>
       </c>
       <c r="N13">
-        <v>1.003507268112754</v>
+        <v>1.007838965571389</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.02593824974016</v>
+        <v>1.027906934290835</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042605153866519</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.041564536040134</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022746241734627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9687742194749176</v>
+        <v>0.9707402438543945</v>
       </c>
       <c r="D14">
-        <v>1.030325513177136</v>
+        <v>1.028763130462256</v>
       </c>
       <c r="E14">
-        <v>0.9923322409478326</v>
+        <v>0.9942748287773697</v>
       </c>
       <c r="F14">
-        <v>1.006549927652365</v>
+        <v>1.00905180556117</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052522736989345</v>
+        <v>1.052417742738465</v>
       </c>
       <c r="J14">
-        <v>0.9995439081155528</v>
+        <v>1.001420515560223</v>
       </c>
       <c r="K14">
-        <v>1.044713581957576</v>
+        <v>1.043178549439524</v>
       </c>
       <c r="L14">
-        <v>1.007417384141683</v>
+        <v>1.009322638950814</v>
       </c>
       <c r="M14">
-        <v>1.021366178309369</v>
+        <v>1.023821761097354</v>
       </c>
       <c r="N14">
-        <v>1.003747432172504</v>
+        <v>1.007948744215228</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.026762637177732</v>
+        <v>1.028703535247738</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042754445795453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041684520407471</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022770979835105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9693037409869926</v>
+        <v>0.9712410990147865</v>
       </c>
       <c r="D15">
-        <v>1.030550647952678</v>
+        <v>1.028959534519343</v>
       </c>
       <c r="E15">
-        <v>0.9927558237077351</v>
+        <v>0.99467367261578</v>
       </c>
       <c r="F15">
-        <v>1.007004583268186</v>
+        <v>1.009477310308661</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052626963398073</v>
+        <v>1.052500770993151</v>
       </c>
       <c r="J15">
-        <v>0.9998525192303542</v>
+        <v>1.001702560946511</v>
       </c>
       <c r="K15">
-        <v>1.044849679636281</v>
+        <v>1.04328621511884</v>
       </c>
       <c r="L15">
-        <v>1.007742964507702</v>
+        <v>1.00962424899637</v>
       </c>
       <c r="M15">
-        <v>1.021724401027128</v>
+        <v>1.024151737413871</v>
       </c>
       <c r="N15">
-        <v>1.003858969110368</v>
+        <v>1.007988270273429</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.027083654055758</v>
+        <v>1.029002175156644</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042856482230093</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041767026616775</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022795124362487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.972104923640535</v>
+        <v>0.9738593239823717</v>
       </c>
       <c r="D16">
-        <v>1.031910634577176</v>
+        <v>1.030117497447033</v>
       </c>
       <c r="E16">
-        <v>0.994926290061305</v>
+        <v>0.9966679539212326</v>
       </c>
       <c r="F16">
-        <v>1.009174332341053</v>
+        <v>1.011435484962143</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053181369695586</v>
+        <v>1.052915489598848</v>
       </c>
       <c r="J16">
-        <v>1.001390249838208</v>
+        <v>1.003069650405487</v>
       </c>
       <c r="K16">
-        <v>1.045691624377483</v>
+        <v>1.043928314820936</v>
       </c>
       <c r="L16">
-        <v>1.009350811071124</v>
+        <v>1.011060775730024</v>
       </c>
       <c r="M16">
-        <v>1.023343696747347</v>
+        <v>1.025565212321502</v>
       </c>
       <c r="N16">
-        <v>1.004380114020155</v>
+        <v>1.008149025699752</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028324458658511</v>
+        <v>1.030080354401529</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043454893326438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042224446667951</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022992258083304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9737339169402216</v>
+        <v>0.9753813387956312</v>
       </c>
       <c r="D17">
-        <v>1.032768008677754</v>
+        <v>1.030842959947679</v>
       </c>
       <c r="E17">
-        <v>0.9961525423186285</v>
+        <v>0.9977848175852144</v>
       </c>
       <c r="F17">
-        <v>1.010317170847231</v>
+        <v>1.012444856591822</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053495269254326</v>
+        <v>1.053142301896314</v>
       </c>
       <c r="J17">
-        <v>1.002240273835032</v>
+        <v>1.003819592537598</v>
       </c>
       <c r="K17">
-        <v>1.046224895240208</v>
+        <v>1.044330980839919</v>
       </c>
       <c r="L17">
-        <v>1.010228369389476</v>
+        <v>1.011831798774168</v>
       </c>
       <c r="M17">
-        <v>1.024146689012665</v>
+        <v>1.02623814503274</v>
       </c>
       <c r="N17">
-        <v>1.004653659413022</v>
+        <v>1.008245293419963</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028828900875379</v>
+        <v>1.030482164539563</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043834491336993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042511954426141</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023128124447402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9745020695475908</v>
+        <v>0.9760790735559749</v>
       </c>
       <c r="D18">
-        <v>1.033284713841155</v>
+        <v>1.031267752666003</v>
       </c>
       <c r="E18">
-        <v>0.9966617851885891</v>
+        <v>0.9982143939447031</v>
       </c>
       <c r="F18">
-        <v>1.010651607851167</v>
+        <v>1.012681218015911</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053642926261617</v>
+        <v>1.053232021386898</v>
       </c>
       <c r="J18">
-        <v>1.002564213659933</v>
+        <v>1.004077272199154</v>
       </c>
       <c r="K18">
-        <v>1.046552621156971</v>
+        <v>1.044567741312661</v>
       </c>
       <c r="L18">
-        <v>1.010538390435351</v>
+        <v>1.012064020621874</v>
       </c>
       <c r="M18">
-        <v>1.02428897918479</v>
+        <v>1.026284589348627</v>
       </c>
       <c r="N18">
-        <v>1.004734210276949</v>
+        <v>1.008250255158365</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.028701146774151</v>
+        <v>1.030278981134952</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04405468053835</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042666687707713</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023232137507168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9744687034791853</v>
+        <v>0.9760093379905542</v>
       </c>
       <c r="D19">
-        <v>1.033470809611164</v>
+        <v>1.031414679604461</v>
       </c>
       <c r="E19">
-        <v>0.9964869162009813</v>
+        <v>0.9979923231253639</v>
       </c>
       <c r="F19">
-        <v>1.010204142352884</v>
+        <v>1.012180356000928</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.053625160577217</v>
+        <v>1.053194112575637</v>
       </c>
       <c r="J19">
-        <v>1.002391704084304</v>
+        <v>1.003870226444479</v>
       </c>
       <c r="K19">
-        <v>1.046674180749192</v>
+        <v>1.044650567686898</v>
       </c>
       <c r="L19">
-        <v>1.010301696152158</v>
+        <v>1.011781071863633</v>
       </c>
       <c r="M19">
-        <v>1.023785421926163</v>
+        <v>1.025728667424668</v>
       </c>
       <c r="N19">
-        <v>1.004637434737591</v>
+        <v>1.00815156602809</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.027973443021489</v>
+        <v>1.029510389069857</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044146953412608</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.042732201427074</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023289853162083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9722250702983161</v>
+        <v>0.9738115370665911</v>
       </c>
       <c r="D20">
-        <v>1.032747411324765</v>
+        <v>1.030776661540581</v>
       </c>
       <c r="E20">
-        <v>0.9944552098662758</v>
+        <v>0.9959887777878689</v>
       </c>
       <c r="F20">
-        <v>1.007688376279778</v>
+        <v>1.009710835158836</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.053177725584827</v>
+        <v>1.052813158690909</v>
       </c>
       <c r="J20">
-        <v>1.000870309953362</v>
+        <v>1.002390691007706</v>
       </c>
       <c r="K20">
-        <v>1.046237881739907</v>
+        <v>1.044299099242082</v>
       </c>
       <c r="L20">
-        <v>1.008596263497907</v>
+        <v>1.010102528323336</v>
       </c>
       <c r="M20">
-        <v>1.021597368760254</v>
+        <v>1.023585053703635</v>
       </c>
       <c r="N20">
-        <v>1.004057434972655</v>
+        <v>1.007760716627111</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.025706635419569</v>
+        <v>1.02727970579989</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.04384234996259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042487960699418</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023239843136799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9669482982940232</v>
+        <v>0.9688741393592215</v>
       </c>
       <c r="D21">
-        <v>1.030304628137726</v>
+        <v>1.028692115801974</v>
       </c>
       <c r="E21">
-        <v>0.9903004307711692</v>
+        <v>0.9921536865063659</v>
       </c>
       <c r="F21">
-        <v>1.003427708254367</v>
+        <v>1.005830994129322</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052130007649307</v>
+        <v>1.052020011800977</v>
       </c>
       <c r="J21">
-        <v>0.9978959773464092</v>
+        <v>0.9997334311712508</v>
       </c>
       <c r="K21">
-        <v>1.044733749284777</v>
+        <v>1.043149559863196</v>
       </c>
       <c r="L21">
-        <v>1.005467924385258</v>
+        <v>1.00728525020318</v>
       </c>
       <c r="M21">
-        <v>1.018344431343281</v>
+        <v>1.020702732254677</v>
       </c>
       <c r="N21">
-        <v>1.003025524543509</v>
+        <v>1.007446381719818</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.023090561985956</v>
+        <v>1.024957043019389</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042782079205939</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041678717136271</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02290694625291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9635958150424637</v>
+        <v>0.9657395029686332</v>
       </c>
       <c r="D22">
-        <v>1.028737970460998</v>
+        <v>1.027352862045799</v>
       </c>
       <c r="E22">
-        <v>0.9876864053870623</v>
+        <v>0.9897457122475594</v>
       </c>
       <c r="F22">
-        <v>1.000774805099543</v>
+        <v>1.003422995993112</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051454788248712</v>
+        <v>1.051505679264563</v>
       </c>
       <c r="J22">
-        <v>0.9960213575718753</v>
+        <v>0.998060712661215</v>
       </c>
       <c r="K22">
-        <v>1.043760839544618</v>
+        <v>1.042401254394237</v>
       </c>
       <c r="L22">
-        <v>1.003505808344784</v>
+        <v>1.005523082823602</v>
       </c>
       <c r="M22">
-        <v>1.01633092855996</v>
+        <v>1.018926946288867</v>
       </c>
       <c r="N22">
-        <v>1.002376662897013</v>
+        <v>1.007245777873528</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.021496967906352</v>
+        <v>1.023551594850473</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042080837660055</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041134966965176</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022690003101201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9653854093087922</v>
+        <v>0.9673917559781665</v>
       </c>
       <c r="D23">
-        <v>1.029579491966066</v>
+        <v>1.028064890211801</v>
       </c>
       <c r="E23">
-        <v>0.9890851998676298</v>
+        <v>0.991014621577073</v>
       </c>
       <c r="F23">
-        <v>1.002204393308524</v>
+        <v>1.004700377172773</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.05182624296925</v>
+        <v>1.051782940784838</v>
       </c>
       <c r="J23">
-        <v>0.9970241308283015</v>
+        <v>0.9989358007143737</v>
       </c>
       <c r="K23">
-        <v>1.044287109041402</v>
+        <v>1.042799721397171</v>
       </c>
       <c r="L23">
-        <v>1.004558120822582</v>
+        <v>1.006449213520326</v>
       </c>
       <c r="M23">
-        <v>1.017420504640981</v>
+        <v>1.019868622999611</v>
       </c>
       <c r="N23">
-        <v>1.002723091775886</v>
+        <v>1.007307961008833</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.022359317314649</v>
+        <v>1.024296886500306</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042443393028393</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041406218027847</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022813907385556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9722647840783236</v>
+        <v>0.9738412315077357</v>
       </c>
       <c r="D24">
-        <v>1.032797084838341</v>
+        <v>1.03080698610999</v>
       </c>
       <c r="E24">
-        <v>0.9944701078887095</v>
+        <v>0.995990707037424</v>
       </c>
       <c r="F24">
-        <v>1.007682162536211</v>
+        <v>1.009684405180902</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05319786630086</v>
+        <v>1.052818730151144</v>
       </c>
       <c r="J24">
-        <v>1.000873925028528</v>
+        <v>1.002384803695158</v>
       </c>
       <c r="K24">
-        <v>1.046271727698106</v>
+        <v>1.044313865662698</v>
       </c>
       <c r="L24">
-        <v>1.008595035592858</v>
+        <v>1.010088598089114</v>
       </c>
       <c r="M24">
-        <v>1.021575700634533</v>
+        <v>1.02354355977976</v>
       </c>
       <c r="N24">
-        <v>1.004053525517093</v>
+        <v>1.007751190524889</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.025647953942077</v>
+        <v>1.027205413721777</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.04383916499833</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04246859804046</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023258920914322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9799461860722218</v>
+        <v>0.9812923625706891</v>
       </c>
       <c r="D25">
-        <v>1.036367686233278</v>
+        <v>1.033868408827331</v>
       </c>
       <c r="E25">
-        <v>1.000509975034489</v>
+        <v>1.001790071906569</v>
       </c>
       <c r="F25">
-        <v>1.01380553923363</v>
+        <v>1.015446923440174</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054642822603039</v>
+        <v>1.053921804949753</v>
       </c>
       <c r="J25">
-        <v>1.005167815569687</v>
+        <v>1.006466142454457</v>
       </c>
       <c r="K25">
-        <v>1.048426504287701</v>
+        <v>1.045962765316949</v>
       </c>
       <c r="L25">
-        <v>1.013100379452539</v>
+        <v>1.01436066272645</v>
       </c>
       <c r="M25">
-        <v>1.026193256548917</v>
+        <v>1.027810086552157</v>
       </c>
       <c r="N25">
-        <v>1.005535802248517</v>
+        <v>1.008833863230044</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.029302507499124</v>
+        <v>1.03058213915158</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045359842190353</v>
+        <v>1.04363130529497</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023715904991142</v>
       </c>
     </row>
   </sheetData>
